--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>418421.4923143773</v>
+        <v>325895.994777007</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14760033.33055413</v>
+        <v>14803319.36208673</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6168938.449803911</v>
+        <v>6159726.182517769</v>
       </c>
     </row>
     <row r="11">
@@ -670,22 +670,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>17.14684397594775</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -706,13 +706,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>34.49641925921218</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y3" t="n">
         <v>43.85944218949135</v>
-      </c>
-      <c r="V3" t="n">
-        <v>49.79500702712463</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,22 +904,22 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="G5" t="n">
-        <v>11.0121571421682</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>44.56856880475192</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>81.61928733384123</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -995,10 +995,10 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>45.55266047403215</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1019,13 +1019,13 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.2535302734783951</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>52.00521202033443</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,10 +1034,10 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>98.74883103803278</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,13 +1186,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1226,16 +1226,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>65.63472101605001</v>
+        <v>7.396679373398329</v>
       </c>
       <c r="J9" t="n">
-        <v>33.84730027516773</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>84.56947841277972</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>82.89768620804819</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,19 +1375,19 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="E11" t="n">
-        <v>165.1725371760947</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1426,13 +1426,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1463,13 +1463,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H12" t="n">
-        <v>71.5904251189106</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>58.90455890409147</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846321</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>184.1819609498571</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1609,25 +1609,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="D14" t="n">
-        <v>39.70122005611995</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>125.4713171199747</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>165.1725371760944</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1694,22 +1694,22 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>56.08590155059719</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>7.889820134712256</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>52.21594625443431</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>52.21594625443465</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>29.18817866608129</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>299.8888327692911</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>377.5846752207086</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>377.5846752207086</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>310.1579315126722</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I17" t="n">
-        <v>100.1144928731453</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,13 +1900,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>72.26069878805963</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>97.44302587598274</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>46.78828184830487</v>
+        <v>50.76987056285349</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>50.58346658365868</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>143.2336289799616</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>193.9911444653429</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>49.70652013313138</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>201.6386629578854</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>183.1243622883204</v>
       </c>
       <c r="U19" t="n">
-        <v>61.0125098231122</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,19 +2086,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="E20" t="n">
-        <v>377.5846752207086</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>377.5846752207086</v>
+        <v>230.9790896442654</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>312.3714465860386</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>35.76609457998916</v>
+        <v>49.34302280919545</v>
       </c>
       <c r="S20" t="n">
-        <v>143.7879749817754</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>175.9241459726608</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,7 +2143,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>98.21444648911871</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>62.63902373694514</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>135.811877114983</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H21" t="n">
-        <v>97.44302587598274</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>46.78828184830485</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,22 +2213,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>193.9911444653429</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>183.1243622883201</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>10.51352945716992</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>298.3686197849886</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2329,16 +2329,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>228.3754562473444</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,13 +2374,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2405,7 +2405,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2450,10 +2450,10 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>192.7632183107638</v>
+        <v>165.3461923380901</v>
       </c>
       <c r="U24" t="n">
-        <v>130.2280544827273</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>28.56170197145417</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>37.37607982051897</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>148.5398113612452</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>2.34558197520904</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H26" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,10 +2608,10 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>132.8455987274631</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2620,7 +2620,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>106.0741492595427</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>7.258223326738597</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>137.5750138932992</v>
@@ -2690,13 +2690,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -2718,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2766,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>8.54416350709154</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2794,7 +2794,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2803,16 +2803,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>44.46605384358352</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>170.6277217633954</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2879,10 +2879,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>137.5750138932992</v>
+        <v>97.17069882542268</v>
       </c>
       <c r="T30" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>128.5123200935461</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2994,19 +2994,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>192.9435950863414</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>40.49484315883299</v>
       </c>
     </row>
     <row r="32">
@@ -3031,16 +3031,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3082,16 +3082,16 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>42.55072470686649</v>
+        <v>176.3304272509177</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3110,25 +3110,25 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>30.40823303980475</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>94.50081326185514</v>
+        <v>22.49766066857424</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>125.0721477169157</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>19.46439007083242</v>
       </c>
     </row>
     <row r="35">
@@ -3268,16 +3268,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>270.7537906102414</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>411.8707348436268</v>
@@ -3286,7 +3286,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T35" t="n">
-        <v>35.17581174209457</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>20.27697994470624</v>
+        <v>14.48252826034311</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3432,7 +3432,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>133.6939635963853</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>9.854692234071514</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3517,10 +3517,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>205.1742705668237</v>
+        <v>329.9184037998219</v>
       </c>
       <c r="H38" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>78.16360657708299</v>
@@ -3559,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3590,13 +3590,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>29.83895849105486</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>177.9220604001073</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>177.1015133326994</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>143.7034957973313</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>353.7195457514039</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H41" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>78.16360657708299</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>35.31477872203916</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3830,10 +3830,10 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>79.23122259237282</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>130.2280544827273</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3942,16 +3942,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>108.0728512656386</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.1876907596159</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>144.2957156879709</v>
+        <v>177.1015133326994</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>7.935630003080545</v>
+        <v>11.2593345910638</v>
       </c>
       <c r="U44" t="n">
         <v>251.0710926941158</v>
@@ -4039,13 +4039,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4061,7 +4061,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>157.6450804554009</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>20.2769799447058</v>
+        <v>62.79617386129162</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>36.29946757904886</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4112,13 +4112,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4188,16 +4188,16 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>102.2433189019329</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>220.0133056736529</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,31 +4306,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="C2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="D2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="E2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="F2" t="n">
-        <v>21.30364498231921</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="G2" t="n">
-        <v>21.30364498231921</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="H2" t="n">
-        <v>21.30364498231921</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="I2" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="J2" t="n">
-        <v>21.30364498231921</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="K2" t="n">
         <v>3.98360056216997</v>
@@ -4354,28 +4354,28 @@
         <v>156.7444867130883</v>
       </c>
       <c r="R2" t="n">
-        <v>106.4464998170029</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="S2" t="n">
-        <v>56.14851292091738</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="T2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="U2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="V2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="W2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="X2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.30364498231921</v>
+        <v>156.7444867130883</v>
       </c>
     </row>
     <row r="3">
@@ -4388,22 +4388,22 @@
         <v>104.5795743543409</v>
       </c>
       <c r="C3" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="D3" t="n">
-        <v>104.5795743543409</v>
+        <v>54.28158745825545</v>
       </c>
       <c r="E3" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F3" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G3" t="n">
-        <v>104.5795743543409</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H3" t="n">
-        <v>54.28158745825545</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I3" t="n">
         <v>3.98360056216997</v>
@@ -4415,13 +4415,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L3" t="n">
-        <v>50.30614171732423</v>
+        <v>22.54896088111074</v>
       </c>
       <c r="M3" t="n">
-        <v>99.60319867417761</v>
+        <v>71.84601783796413</v>
       </c>
       <c r="N3" t="n">
-        <v>148.900255631031</v>
+        <v>121.1430747948175</v>
       </c>
       <c r="O3" t="n">
         <v>170.4401317516709</v>
@@ -4442,19 +4442,19 @@
         <v>199.1800281084985</v>
       </c>
       <c r="U3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="V3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="W3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="X3" t="n">
+        <v>199.1800281084985</v>
+      </c>
+      <c r="Y3" t="n">
         <v>154.8775612504264</v>
-      </c>
-      <c r="V3" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="W3" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="X3" t="n">
-        <v>104.5795743543409</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>104.5795743543409</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>165.3635987672722</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="C5" t="n">
-        <v>165.3635987672722</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="D5" t="n">
-        <v>165.3635987672722</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="E5" t="n">
-        <v>165.3635987672722</v>
+        <v>89.85692052276578</v>
       </c>
       <c r="F5" t="n">
-        <v>165.3635987672722</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G5" t="n">
-        <v>154.2402077145771</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H5" t="n">
-        <v>101.70969052232</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I5" t="n">
-        <v>49.17917333006304</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J5" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K5" t="n">
-        <v>4.160416961626754</v>
+        <v>21.18357364821451</v>
       </c>
       <c r="L5" t="n">
-        <v>21.96921792112715</v>
+        <v>75.16870670940366</v>
       </c>
       <c r="M5" t="n">
-        <v>73.45437782125822</v>
+        <v>166.9070065056148</v>
       </c>
       <c r="N5" t="n">
-        <v>124.9395377213893</v>
+        <v>258.6453063018261</v>
       </c>
       <c r="O5" t="n">
-        <v>165.3635987672722</v>
+        <v>337.6943058037292</v>
       </c>
       <c r="P5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V5" t="n">
-        <v>165.3635987672722</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="W5" t="n">
-        <v>165.3635987672722</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="X5" t="n">
-        <v>165.3635987672722</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="Y5" t="n">
-        <v>165.3635987672722</v>
+        <v>277.0588382785278</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>102.703722511492</v>
+        <v>101.0141548210092</v>
       </c>
       <c r="C6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H6" t="n">
-        <v>102.703722511492</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I6" t="n">
-        <v>50.17320531923499</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J6" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K6" t="n">
-        <v>5.237056938131228</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L6" t="n">
-        <v>53.00727340732121</v>
+        <v>81.81537555601327</v>
       </c>
       <c r="M6" t="n">
-        <v>104.4924333074523</v>
+        <v>173.5536753522244</v>
       </c>
       <c r="N6" t="n">
-        <v>155.9775932075834</v>
+        <v>265.2919751484357</v>
       </c>
       <c r="O6" t="n">
-        <v>207.4627531077144</v>
+        <v>317.2247932514005</v>
       </c>
       <c r="P6" t="n">
-        <v>208.0208480813377</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="Q6" t="n">
-        <v>207.764756896006</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="R6" t="n">
-        <v>155.234239703749</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="S6" t="n">
-        <v>102.703722511492</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="T6" t="n">
-        <v>102.703722511492</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="U6" t="n">
-        <v>102.703722511492</v>
+        <v>370.6597971564088</v>
       </c>
       <c r="V6" t="n">
-        <v>102.703722511492</v>
+        <v>277.0588382785278</v>
       </c>
       <c r="W6" t="n">
-        <v>102.703722511492</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="X6" t="n">
-        <v>102.703722511492</v>
+        <v>183.4578794006468</v>
       </c>
       <c r="Y6" t="n">
-        <v>102.703722511492</v>
+        <v>183.4578794006468</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="C7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="D7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="E7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="F7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="G7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="H7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="I7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="J7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="K7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="L7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="M7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="N7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="O7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="P7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Q7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="R7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="S7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="T7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="U7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="V7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="W7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="X7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.160416961626754</v>
+        <v>7.413195943128176</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>89.85692052276578</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="C8" t="n">
-        <v>89.85692052276578</v>
+        <v>335.2055292623982</v>
       </c>
       <c r="D8" t="n">
-        <v>89.85692052276578</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E8" t="n">
-        <v>89.85692052276578</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="F8" t="n">
-        <v>89.85692052276578</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G8" t="n">
-        <v>89.85692052276578</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H8" t="n">
-        <v>89.85692052276578</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J8" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K8" t="n">
-        <v>21.18357364821451</v>
+        <v>32.11753523687545</v>
       </c>
       <c r="L8" t="n">
-        <v>75.16870670940374</v>
+        <v>97.73708609773408</v>
       </c>
       <c r="M8" t="n">
-        <v>166.9070065056148</v>
+        <v>202.420917408393</v>
       </c>
       <c r="N8" t="n">
-        <v>258.6453063018261</v>
+        <v>313.4124509320676</v>
       </c>
       <c r="O8" t="n">
-        <v>337.6943058037292</v>
+        <v>404.8833474416799</v>
       </c>
       <c r="P8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="R8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="S8" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="T8" t="n">
-        <v>277.0588382785278</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="U8" t="n">
-        <v>183.4578794006468</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="V8" t="n">
-        <v>89.85692052276578</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="W8" t="n">
-        <v>89.85692052276578</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="X8" t="n">
-        <v>89.85692052276578</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Y8" t="n">
-        <v>89.85692052276578</v>
+        <v>448.4506404996948</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="C9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="D9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="E9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="F9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="G9" t="n">
-        <v>107.9000861362774</v>
+        <v>16.44040611645686</v>
       </c>
       <c r="H9" t="n">
-        <v>107.9000861362774</v>
+        <v>16.44040611645686</v>
       </c>
       <c r="I9" t="n">
-        <v>41.60238814026729</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J9" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K9" t="n">
-        <v>28.29609765201163</v>
+        <v>36.22166818534551</v>
       </c>
       <c r="L9" t="n">
-        <v>102.6982772648967</v>
+        <v>119.1887676792232</v>
       </c>
       <c r="M9" t="n">
-        <v>194.4365770611079</v>
+        <v>230.1803012028977</v>
       </c>
       <c r="N9" t="n">
-        <v>286.1748768573191</v>
+        <v>341.1718347265722</v>
       </c>
       <c r="O9" t="n">
-        <v>370.6597971564088</v>
+        <v>441.2239361578222</v>
       </c>
       <c r="P9" t="n">
-        <v>370.6597971564088</v>
+        <v>448.4506404996948</v>
       </c>
       <c r="Q9" t="n">
-        <v>370.6597971564088</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="R9" t="n">
-        <v>285.2360815879445</v>
+        <v>356.1757398283469</v>
       </c>
       <c r="S9" t="n">
-        <v>191.6351227100635</v>
+        <v>356.1757398283469</v>
       </c>
       <c r="T9" t="n">
-        <v>107.9000861362774</v>
+        <v>242.9306285910502</v>
       </c>
       <c r="U9" t="n">
-        <v>107.9000861362774</v>
+        <v>242.9306285910502</v>
       </c>
       <c r="V9" t="n">
-        <v>107.9000861362774</v>
+        <v>242.9306285910502</v>
       </c>
       <c r="W9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="X9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
       <c r="Y9" t="n">
-        <v>107.9000861362774</v>
+        <v>129.6855173537535</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="C10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="D10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="E10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="F10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="G10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="J10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="K10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="L10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="M10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="N10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="O10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="P10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="Q10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="R10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="S10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="T10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="U10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="V10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>7.413195943128176</v>
+        <v>12.63101027343186</v>
       </c>
       <c r="X10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="Y10" t="n">
-        <v>7.413195943128176</v>
+        <v>8.969012809993897</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="C11" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="D11" t="n">
-        <v>750.1023486652804</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="E11" t="n">
-        <v>583.2614020227604</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F11" t="n">
-        <v>393.8416170062755</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G11" t="n">
-        <v>204.4218319897905</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H11" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I11" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678535</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159059007</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079192</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644761</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123832</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985586</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020267</v>
       </c>
       <c r="Q11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="U11" t="n">
-        <v>750.1023486652804</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="V11" t="n">
-        <v>750.1023486652804</v>
+        <v>371.2627786323101</v>
       </c>
       <c r="W11" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="X11" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897904</v>
       </c>
       <c r="Y11" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897904</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>146.8151621480552</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="C12" t="n">
-        <v>146.8151621480552</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="D12" t="n">
-        <v>146.8151621480552</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="E12" t="n">
-        <v>146.8151621480552</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="F12" t="n">
-        <v>146.8151621480552</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G12" t="n">
-        <v>146.8151621480552</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H12" t="n">
-        <v>74.50160142188285</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I12" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J12" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024242</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772652</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O12" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476349</v>
       </c>
       <c r="P12" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017064</v>
       </c>
       <c r="Q12" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="R12" t="n">
-        <v>676.9378076264287</v>
+        <v>676.937807626428</v>
       </c>
       <c r="S12" t="n">
-        <v>525.6547321810251</v>
+        <v>676.937807626428</v>
       </c>
       <c r="T12" t="n">
-        <v>336.2349471645401</v>
+        <v>676.937807626428</v>
       </c>
       <c r="U12" t="n">
-        <v>146.8151621480552</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="V12" t="n">
-        <v>146.8151621480552</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="W12" t="n">
-        <v>146.8151621480552</v>
+        <v>487.5180226099432</v>
       </c>
       <c r="X12" t="n">
-        <v>146.8151621480552</v>
+        <v>301.4756378121077</v>
       </c>
       <c r="Y12" t="n">
-        <v>146.8151621480552</v>
+        <v>301.4756378121077</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="C13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="D13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="E13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="F13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="G13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K13" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230173</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170711</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396326</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="S13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="T13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="U13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="V13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="W13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="X13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
       <c r="Y13" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828975</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="C14" t="n">
-        <v>750.1023486652804</v>
+        <v>204.4218319897902</v>
       </c>
       <c r="D14" t="n">
-        <v>710.0001061843511</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="E14" t="n">
-        <v>710.0001061843511</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="F14" t="n">
-        <v>520.5803211678661</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="G14" t="n">
-        <v>331.1605361513812</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H14" t="n">
-        <v>141.7407511348962</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J14" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058922</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079181</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644751</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123831</v>
+        <v>509.4952041123825</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985578</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020261</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="U14" t="n">
-        <v>750.1023486652804</v>
+        <v>583.2614020227595</v>
       </c>
       <c r="V14" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="W14" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="X14" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062749</v>
       </c>
       <c r="Y14" t="n">
-        <v>750.1023486652804</v>
+        <v>393.8416170062749</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>371.2627786323104</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="C15" t="n">
-        <v>371.2627786323104</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="D15" t="n">
-        <v>371.2627786323104</v>
+        <v>422.6344209122192</v>
       </c>
       <c r="E15" t="n">
-        <v>314.6103528236264</v>
+        <v>263.3969659067637</v>
       </c>
       <c r="F15" t="n">
-        <v>168.0757948505114</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="G15" t="n">
-        <v>30.53661367296051</v>
+        <v>116.8624079336487</v>
       </c>
       <c r="H15" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I15" t="n">
-        <v>30.53661367296051</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J15" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733055</v>
       </c>
       <c r="K15" t="n">
-        <v>67.1341887702422</v>
+        <v>67.13418877024199</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772651</v>
+        <v>183.5548280772647</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140241</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546606</v>
+        <v>512.5000587546598</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476344</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017057</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652804</v>
+        <v>750.1023486652791</v>
       </c>
       <c r="R15" t="n">
-        <v>750.1023486652804</v>
+        <v>742.132833377691</v>
       </c>
       <c r="S15" t="n">
-        <v>750.1023486652804</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="T15" t="n">
-        <v>560.6825636487954</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="U15" t="n">
-        <v>371.2627786323104</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="V15" t="n">
-        <v>371.2627786323104</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="W15" t="n">
-        <v>371.2627786323104</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="X15" t="n">
-        <v>371.2627786323104</v>
+        <v>590.8497579322873</v>
       </c>
       <c r="Y15" t="n">
-        <v>371.2627786323104</v>
+        <v>590.8497579322873</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="C16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="D16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="E16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="F16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330561</v>
+        <v>15.00204697330558</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230172</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170709</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396325</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="U16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="V16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="W16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="X16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.00204697330561</v>
+        <v>67.74542702828974</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1510.338700882834</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="C17" t="n">
-        <v>1510.338700882834</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="D17" t="n">
-        <v>1510.338700882834</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="E17" t="n">
-        <v>1207.42068798456</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="F17" t="n">
-        <v>826.0220261454608</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="G17" t="n">
-        <v>444.6233643063613</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="H17" t="n">
-        <v>131.3325243945712</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="I17" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J17" t="n">
-        <v>91.5035310394419</v>
+        <v>68.34610104031958</v>
       </c>
       <c r="K17" t="n">
-        <v>234.1099985160095</v>
+        <v>183.7340411072832</v>
       </c>
       <c r="L17" t="n">
-        <v>447.9276934050777</v>
+        <v>363.7847459179055</v>
       </c>
       <c r="M17" t="n">
-        <v>717.510514672445</v>
+        <v>595.7952845205591</v>
       </c>
       <c r="N17" t="n">
-        <v>996.0692762069139</v>
+        <v>836.1738045761867</v>
       </c>
       <c r="O17" t="n">
-        <v>1245.769154479959</v>
+        <v>1049.821163484945</v>
       </c>
       <c r="P17" t="n">
-        <v>1424.381222716191</v>
+        <v>1197.663240548273</v>
       </c>
       <c r="Q17" t="n">
-        <v>1510.338700882834</v>
+        <v>1260.51373679179</v>
       </c>
       <c r="R17" t="n">
-        <v>1510.338700882834</v>
+        <v>1260.51373679179</v>
       </c>
       <c r="S17" t="n">
-        <v>1510.338700882834</v>
+        <v>1260.51373679179</v>
       </c>
       <c r="T17" t="n">
-        <v>1510.338700882834</v>
+        <v>1260.51373679179</v>
       </c>
       <c r="U17" t="n">
-        <v>1510.338700882834</v>
+        <v>1006.843096602517</v>
       </c>
       <c r="V17" t="n">
-        <v>1510.338700882834</v>
+        <v>688.5315469076211</v>
       </c>
       <c r="W17" t="n">
-        <v>1510.338700882834</v>
+        <v>370.2199972127246</v>
       </c>
       <c r="X17" t="n">
-        <v>1510.338700882834</v>
+        <v>370.2199972127246</v>
       </c>
       <c r="Y17" t="n">
-        <v>1510.338700882834</v>
+        <v>370.2199972127246</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>175.8949636381492</v>
+        <v>455.2555900890661</v>
       </c>
       <c r="C18" t="n">
-        <v>175.8949636381492</v>
+        <v>382.2649852526422</v>
       </c>
       <c r="D18" t="n">
-        <v>175.8949636381492</v>
+        <v>382.2649852526422</v>
       </c>
       <c r="E18" t="n">
-        <v>175.8949636381492</v>
+        <v>223.0275302471867</v>
       </c>
       <c r="F18" t="n">
-        <v>175.8949636381492</v>
+        <v>76.49297227407165</v>
       </c>
       <c r="G18" t="n">
-        <v>175.8949636381492</v>
+        <v>76.49297227407165</v>
       </c>
       <c r="H18" t="n">
-        <v>77.4676647735202</v>
+        <v>76.49297227407165</v>
       </c>
       <c r="I18" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J18" t="n">
-        <v>47.8968556180144</v>
+        <v>32.08383041579975</v>
       </c>
       <c r="K18" t="n">
-        <v>156.286847432692</v>
+        <v>121.9866566016237</v>
       </c>
       <c r="L18" t="n">
-        <v>348.3531087384727</v>
+        <v>289.194642261469</v>
       </c>
       <c r="M18" t="n">
-        <v>591.8422446742978</v>
+        <v>503.6753430076025</v>
       </c>
       <c r="N18" t="n">
-        <v>856.1844584295552</v>
+        <v>738.24135461099</v>
       </c>
       <c r="O18" t="n">
-        <v>1075.786145373588</v>
+        <v>930.6036338393361</v>
       </c>
       <c r="P18" t="n">
-        <v>1232.702793329607</v>
+        <v>1065.658255634912</v>
       </c>
       <c r="Q18" t="n">
-        <v>1287.67822051067</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="R18" t="n">
-        <v>1236.583809820106</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="S18" t="n">
-        <v>1091.903376507014</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="T18" t="n">
-        <v>895.9527255319199</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="U18" t="n">
-        <v>845.7441193368377</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="V18" t="n">
-        <v>845.7441193368377</v>
+        <v>870.8673890595528</v>
       </c>
       <c r="W18" t="n">
-        <v>591.506762608636</v>
+        <v>870.8673890595528</v>
       </c>
       <c r="X18" t="n">
-        <v>383.6552624031032</v>
+        <v>663.01588885402</v>
       </c>
       <c r="Y18" t="n">
-        <v>175.8949636381492</v>
+        <v>455.2555900890661</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="C19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="D19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="E19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="F19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="G19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="H19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="I19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="K19" t="n">
-        <v>50.17801995080001</v>
+        <v>34.03013544641156</v>
       </c>
       <c r="L19" t="n">
-        <v>105.6401365881138</v>
+        <v>75.22231828639593</v>
       </c>
       <c r="M19" t="n">
-        <v>167.3754452337709</v>
+        <v>121.9119825351256</v>
       </c>
       <c r="N19" t="n">
-        <v>235.5003521309819</v>
+        <v>175.3489968304994</v>
       </c>
       <c r="O19" t="n">
-        <v>278.1116410686374</v>
+        <v>204.3936396460516</v>
       </c>
       <c r="P19" t="n">
-        <v>295.5109889479573</v>
+        <v>210.1843780573715</v>
       </c>
       <c r="Q19" t="n">
-        <v>295.5109889479573</v>
+        <v>210.1843780573715</v>
       </c>
       <c r="R19" t="n">
-        <v>295.5109889479573</v>
+        <v>210.1843780573715</v>
       </c>
       <c r="S19" t="n">
-        <v>91.83557181878012</v>
+        <v>210.1843780573715</v>
       </c>
       <c r="T19" t="n">
-        <v>91.83557181878012</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="U19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="V19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="W19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="X19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="Y19" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1151.269796302606</v>
+        <v>892.3607499158879</v>
       </c>
       <c r="C20" t="n">
-        <v>1151.269796302606</v>
+        <v>892.3607499158879</v>
       </c>
       <c r="D20" t="n">
-        <v>793.0040976958559</v>
+        <v>574.0492002209915</v>
       </c>
       <c r="E20" t="n">
-        <v>411.6054358567563</v>
+        <v>574.0492002209915</v>
       </c>
       <c r="F20" t="n">
-        <v>30.20677401765668</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="G20" t="n">
-        <v>30.20677401765668</v>
+        <v>340.7369884591072</v>
       </c>
       <c r="H20" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="I20" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J20" t="n">
-        <v>91.50353103944144</v>
+        <v>68.34610104031935</v>
       </c>
       <c r="K20" t="n">
-        <v>234.1099985160092</v>
+        <v>183.7340411072831</v>
       </c>
       <c r="L20" t="n">
-        <v>447.9276934050772</v>
+        <v>363.7847459179054</v>
       </c>
       <c r="M20" t="n">
-        <v>717.5105146724449</v>
+        <v>595.7952845205591</v>
       </c>
       <c r="N20" t="n">
-        <v>996.0692762069137</v>
+        <v>836.1738045761866</v>
       </c>
       <c r="O20" t="n">
-        <v>1245.769154479959</v>
+        <v>1049.821163484945</v>
       </c>
       <c r="P20" t="n">
-        <v>1424.381222716191</v>
+        <v>1197.663240548273</v>
       </c>
       <c r="Q20" t="n">
-        <v>1510.338700882834</v>
+        <v>1260.51373679179</v>
       </c>
       <c r="R20" t="n">
-        <v>1474.211332620219</v>
+        <v>1210.672299610784</v>
       </c>
       <c r="S20" t="n">
-        <v>1328.970953850749</v>
+        <v>1210.672299610784</v>
       </c>
       <c r="T20" t="n">
-        <v>1151.269796302606</v>
+        <v>1210.672299610784</v>
       </c>
       <c r="U20" t="n">
-        <v>1151.269796302606</v>
+        <v>1210.672299610784</v>
       </c>
       <c r="V20" t="n">
-        <v>1151.269796302606</v>
+        <v>1210.672299610784</v>
       </c>
       <c r="W20" t="n">
-        <v>1151.269796302606</v>
+        <v>892.3607499158879</v>
       </c>
       <c r="X20" t="n">
-        <v>1151.269796302606</v>
+        <v>892.3607499158879</v>
       </c>
       <c r="Y20" t="n">
-        <v>1151.269796302606</v>
+        <v>892.3607499158879</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>856.5754613038348</v>
+        <v>336.9638299874363</v>
       </c>
       <c r="C21" t="n">
-        <v>682.1224320227078</v>
+        <v>162.5108007063092</v>
       </c>
       <c r="D21" t="n">
-        <v>618.8506908742784</v>
+        <v>162.5108007063092</v>
       </c>
       <c r="E21" t="n">
-        <v>459.6132358688229</v>
+        <v>162.5108007063092</v>
       </c>
       <c r="F21" t="n">
-        <v>313.0786778957079</v>
+        <v>162.5108007063092</v>
       </c>
       <c r="G21" t="n">
-        <v>175.8949636381492</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="H21" t="n">
-        <v>77.46766477352017</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="I21" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J21" t="n">
-        <v>47.89685561801443</v>
+        <v>32.08383041579972</v>
       </c>
       <c r="K21" t="n">
-        <v>156.2868474326921</v>
+        <v>121.9866566016236</v>
       </c>
       <c r="L21" t="n">
-        <v>348.3531087384729</v>
+        <v>289.1946422614689</v>
       </c>
       <c r="M21" t="n">
-        <v>591.8422446742982</v>
+        <v>503.6753430076022</v>
       </c>
       <c r="N21" t="n">
-        <v>856.1844584295557</v>
+        <v>738.2413546109897</v>
       </c>
       <c r="O21" t="n">
-        <v>1075.786145373588</v>
+        <v>930.6036338393358</v>
       </c>
       <c r="P21" t="n">
-        <v>1232.702793329608</v>
+        <v>1065.658255634912</v>
       </c>
       <c r="Q21" t="n">
-        <v>1287.678220510671</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="R21" t="n">
-        <v>1287.678220510671</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="S21" t="n">
-        <v>1287.678220510671</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="T21" t="n">
-        <v>1091.727569535577</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="U21" t="n">
-        <v>1091.727569535577</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="V21" t="n">
-        <v>856.5754613038348</v>
+        <v>1106.019497291295</v>
       </c>
       <c r="W21" t="n">
-        <v>856.5754613038348</v>
+        <v>851.7821405630934</v>
       </c>
       <c r="X21" t="n">
-        <v>856.5754613038348</v>
+        <v>643.9306403575606</v>
       </c>
       <c r="Y21" t="n">
-        <v>856.5754613038348</v>
+        <v>436.1703415926067</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="C22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="D22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="E22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="F22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="G22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="H22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="I22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="J22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="K22" t="n">
-        <v>50.17801995080006</v>
+        <v>34.03013544641153</v>
       </c>
       <c r="L22" t="n">
-        <v>105.6401365881139</v>
+        <v>75.22231828639585</v>
       </c>
       <c r="M22" t="n">
-        <v>167.3754452337711</v>
+        <v>121.9119825351255</v>
       </c>
       <c r="N22" t="n">
-        <v>235.5003521309822</v>
+        <v>175.3489968304992</v>
       </c>
       <c r="O22" t="n">
-        <v>278.1116410686377</v>
+        <v>204.3936396460514</v>
       </c>
       <c r="P22" t="n">
-        <v>295.5109889479576</v>
+        <v>210.1843780573713</v>
       </c>
       <c r="Q22" t="n">
-        <v>295.5109889479576</v>
+        <v>210.1843780573713</v>
       </c>
       <c r="R22" t="n">
-        <v>295.5109889479576</v>
+        <v>210.1843780573713</v>
       </c>
       <c r="S22" t="n">
-        <v>295.5109889479576</v>
+        <v>210.1843780573713</v>
       </c>
       <c r="T22" t="n">
-        <v>295.5109889479576</v>
+        <v>210.1843780573713</v>
       </c>
       <c r="U22" t="n">
-        <v>295.5109889479576</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="V22" t="n">
-        <v>40.82650074207075</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="W22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="X22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
       <c r="Y22" t="n">
-        <v>30.20677401765668</v>
+        <v>25.2102747358358</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1429.091331570417</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="C23" t="n">
-        <v>1429.091331570417</v>
+        <v>1282.40733099633</v>
       </c>
       <c r="D23" t="n">
-        <v>1070.825632963667</v>
+        <v>924.1416323895796</v>
       </c>
       <c r="E23" t="n">
-        <v>685.0373803654222</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F23" t="n">
-        <v>274.0514755758147</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H23" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I23" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J23" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301906</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711872</v>
       </c>
       <c r="M23" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O23" t="n">
         <v>1761.960612545596</v>
@@ -6022,19 +6022,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U23" t="n">
-        <v>2168.459826904653</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V23" t="n">
-        <v>2168.459826904653</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W23" t="n">
-        <v>1815.691171634539</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X23" t="n">
-        <v>1815.691171634539</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="Y23" t="n">
-        <v>1815.691171634539</v>
+        <v>1583.789775223591</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>366.7566354804713</v>
+        <v>525.9940904859268</v>
       </c>
       <c r="C24" t="n">
-        <v>192.3036061993443</v>
+        <v>351.5410612047998</v>
       </c>
       <c r="D24" t="n">
-        <v>43.36919653809306</v>
+        <v>202.6066515435486</v>
       </c>
       <c r="E24" t="n">
         <v>43.36919653809306</v>
@@ -6098,22 +6098,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T24" t="n">
-        <v>1571.516725807463</v>
+        <v>1599.210691436426</v>
       </c>
       <c r="U24" t="n">
-        <v>1439.97323643097</v>
+        <v>1599.210691436426</v>
       </c>
       <c r="V24" t="n">
-        <v>1204.821128199228</v>
+        <v>1364.058583204683</v>
       </c>
       <c r="W24" t="n">
-        <v>950.583771471026</v>
+        <v>1109.821226476482</v>
       </c>
       <c r="X24" t="n">
-        <v>742.7322712654932</v>
+        <v>901.9697262709487</v>
       </c>
       <c r="Y24" t="n">
-        <v>534.9719725005393</v>
+        <v>694.2094275059949</v>
       </c>
     </row>
     <row r="25">
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>231.1630260146226</v>
+        <v>491.4391430290292</v>
       </c>
       <c r="C25" t="n">
-        <v>231.1630260146226</v>
+        <v>491.4391430290292</v>
       </c>
       <c r="D25" t="n">
-        <v>231.1630260146226</v>
+        <v>341.3225036166935</v>
       </c>
       <c r="E25" t="n">
-        <v>231.1630260146226</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="F25" t="n">
-        <v>231.1630260146226</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="G25" t="n">
         <v>193.4094100343004</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V25" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W25" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X25" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y25" t="n">
-        <v>231.1630260146226</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>766.8010547197192</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="C26" t="n">
-        <v>766.8010547197192</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D26" t="n">
-        <v>766.8010547197192</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E26" t="n">
-        <v>766.8010547197192</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F26" t="n">
-        <v>766.8010547197192</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G26" t="n">
-        <v>350.7700094231265</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H26" t="n">
         <v>43.36919653809306</v>
@@ -6256,22 +6256,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T26" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U26" t="n">
-        <v>1824.098355594484</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V26" t="n">
-        <v>1493.035468250913</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W26" t="n">
-        <v>1140.266812980799</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="X26" t="n">
-        <v>766.8010547197192</v>
+        <v>1231.021119953477</v>
       </c>
       <c r="Y26" t="n">
-        <v>766.8010547197192</v>
+        <v>1231.021119953477</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>816.7361809578033</v>
+        <v>299.4492115120137</v>
       </c>
       <c r="C27" t="n">
-        <v>642.2831516766763</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D27" t="n">
-        <v>493.348742015425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E27" t="n">
-        <v>334.1112870099695</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F27" t="n">
-        <v>187.5767290368545</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G27" t="n">
-        <v>50.70073525197043</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H27" t="n">
         <v>43.36919653809306</v>
@@ -6329,28 +6329,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R27" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S27" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T27" t="n">
-        <v>1400.563316948358</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U27" t="n">
-        <v>1400.563316948358</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V27" t="n">
-        <v>1400.563316948358</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W27" t="n">
-        <v>1400.563316948358</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X27" t="n">
-        <v>1192.711816742825</v>
+        <v>507.2095102769676</v>
       </c>
       <c r="Y27" t="n">
-        <v>984.9515179778714</v>
+        <v>299.4492115120137</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="C28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="D28" t="n">
-        <v>43.36919653809306</v>
+        <v>361.542239439282</v>
       </c>
       <c r="E28" t="n">
-        <v>43.36919653809306</v>
+        <v>361.542239439282</v>
       </c>
       <c r="F28" t="n">
-        <v>43.36919653809306</v>
+        <v>361.542239439282</v>
       </c>
       <c r="G28" t="n">
-        <v>43.36919653809306</v>
+        <v>193.4094100343004</v>
       </c>
       <c r="H28" t="n">
         <v>43.36919653809306</v>
@@ -6414,22 +6414,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T28" t="n">
-        <v>298.0536847439799</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>298.0536847439799</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="V28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="W28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="X28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
       <c r="Y28" t="n">
-        <v>43.36919653809306</v>
+        <v>511.6588788516177</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>719.7325263635382</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="C29" t="n">
-        <v>350.7700094231265</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="D29" t="n">
-        <v>350.7700094231265</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="E29" t="n">
-        <v>350.7700094231265</v>
+        <v>1256.740097465976</v>
       </c>
       <c r="F29" t="n">
-        <v>350.7700094231265</v>
+        <v>845.7541926763687</v>
       </c>
       <c r="G29" t="n">
-        <v>350.7700094231265</v>
+        <v>429.7231473797759</v>
       </c>
       <c r="H29" t="n">
-        <v>43.36919653809304</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809304</v>
@@ -6493,22 +6493,22 @@
         <v>2168.459826904652</v>
       </c>
       <c r="T29" t="n">
-        <v>2123.544621002042</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="U29" t="n">
-        <v>1869.937456664552</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="V29" t="n">
-        <v>1869.937456664552</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="W29" t="n">
-        <v>1869.937456664552</v>
+        <v>1815.691171634538</v>
       </c>
       <c r="X29" t="n">
-        <v>1496.471698403472</v>
+        <v>1643.339937530098</v>
       </c>
       <c r="Y29" t="n">
-        <v>1106.33236642766</v>
+        <v>1643.339937530098</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>672.5286484590418</v>
+        <v>366.7566354804713</v>
       </c>
       <c r="C30" t="n">
-        <v>498.0756191779149</v>
+        <v>192.3036061993443</v>
       </c>
       <c r="D30" t="n">
-        <v>349.1412095166636</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E30" t="n">
-        <v>189.9037545112081</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F30" t="n">
         <v>43.36919653809304</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S30" t="n">
-        <v>1627.262386835205</v>
+        <v>1668.074826297706</v>
       </c>
       <c r="T30" t="n">
-        <v>1432.552065309181</v>
+        <v>1668.074826297706</v>
       </c>
       <c r="U30" t="n">
-        <v>1302.741640972265</v>
+        <v>1439.97323643097</v>
       </c>
       <c r="V30" t="n">
-        <v>1302.741640972265</v>
+        <v>1204.821128199228</v>
       </c>
       <c r="W30" t="n">
-        <v>1048.504284244064</v>
+        <v>950.583771471026</v>
       </c>
       <c r="X30" t="n">
-        <v>1048.504284244064</v>
+        <v>742.7322712654932</v>
       </c>
       <c r="Y30" t="n">
-        <v>840.7439854791098</v>
+        <v>534.9719725005393</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1841.579889898353</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="C31" t="n">
-        <v>1841.579889898353</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="D31" t="n">
-        <v>1841.579889898353</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E31" t="n">
-        <v>1841.579889898353</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F31" t="n">
-        <v>1841.579889898353</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G31" t="n">
-        <v>1841.579889898353</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H31" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I31" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J31" t="n">
-        <v>1691.539676402146</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K31" t="n">
-        <v>1740.887338843868</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L31" t="n">
-        <v>1833.941154665947</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M31" t="n">
-        <v>1935.311639356786</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N31" t="n">
-        <v>2042.129286401799</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O31" t="n">
-        <v>2120.479583467419</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P31" t="n">
-        <v>2168.459826904652</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q31" t="n">
-        <v>2145.636906415505</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R31" t="n">
-        <v>2036.472410187587</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S31" t="n">
-        <v>1841.579889898353</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T31" t="n">
-        <v>1841.579889898353</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>1841.579889898353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V31" t="n">
-        <v>1841.579889898353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W31" t="n">
-        <v>1841.579889898353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X31" t="n">
-        <v>1841.579889898353</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y31" t="n">
-        <v>1841.579889898353</v>
+        <v>190.2591440360034</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>412.3317134785048</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="C32" t="n">
-        <v>43.36919653809306</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="D32" t="n">
-        <v>43.36919653809306</v>
+        <v>840.1433539259449</v>
       </c>
       <c r="E32" t="n">
-        <v>43.36919653809306</v>
+        <v>454.3551013277006</v>
       </c>
       <c r="F32" t="n">
         <v>43.36919653809306</v>
@@ -6700,19 +6700,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301904</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232721</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711867</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O32" t="n">
         <v>1761.960612545596</v>
@@ -6730,22 +6730,22 @@
         <v>2168.459826904653</v>
       </c>
       <c r="T32" t="n">
-        <v>1958.285829056568</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U32" t="n">
-        <v>1915.305299049632</v>
+        <v>1990.348284226958</v>
       </c>
       <c r="V32" t="n">
-        <v>1915.305299049632</v>
+        <v>1990.348284226958</v>
       </c>
       <c r="W32" t="n">
-        <v>1562.536643779518</v>
+        <v>1990.348284226958</v>
       </c>
       <c r="X32" t="n">
-        <v>1189.070885518438</v>
+        <v>1616.882525965878</v>
       </c>
       <c r="Y32" t="n">
-        <v>798.9315535426265</v>
+        <v>1226.743193990067</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>475.3119633567241</v>
+        <v>722.2611229047736</v>
       </c>
       <c r="C33" t="n">
-        <v>475.3119633567241</v>
+        <v>547.8080936236466</v>
       </c>
       <c r="D33" t="n">
-        <v>475.3119633567241</v>
+        <v>398.8736839623954</v>
       </c>
       <c r="E33" t="n">
-        <v>316.0745083512686</v>
+        <v>239.6362289569399</v>
       </c>
       <c r="F33" t="n">
-        <v>169.5399503781536</v>
+        <v>239.6362289569399</v>
       </c>
       <c r="G33" t="n">
-        <v>138.8245634692599</v>
+        <v>102.7602351720558</v>
       </c>
       <c r="H33" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809306</v>
@@ -6803,28 +6803,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R33" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1595.273638474382</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T33" t="n">
-        <v>1400.563316948358</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U33" t="n">
-        <v>1172.461727081622</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="V33" t="n">
-        <v>937.3096188498796</v>
+        <v>1392.110278603462</v>
       </c>
       <c r="W33" t="n">
-        <v>683.072262121678</v>
+        <v>1137.87292187526</v>
       </c>
       <c r="X33" t="n">
-        <v>683.072262121678</v>
+        <v>930.0214216697275</v>
       </c>
       <c r="Y33" t="n">
-        <v>475.3119633567241</v>
+        <v>722.2611229047736</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1986.811362074413</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="C34" t="n">
-        <v>1817.875179146506</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="D34" t="n">
-        <v>1691.539676402147</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="E34" t="n">
-        <v>1691.539676402147</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="F34" t="n">
-        <v>1691.539676402147</v>
+        <v>211.5020259430747</v>
       </c>
       <c r="G34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J34" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K34" t="n">
-        <v>1740.887338843869</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L34" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M34" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N34" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O34" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T34" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>2168.459826904653</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="V34" t="n">
-        <v>2168.459826904653</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="W34" t="n">
-        <v>2168.459826904653</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="X34" t="n">
-        <v>2168.459826904653</v>
+        <v>231.1630260146226</v>
       </c>
       <c r="Y34" t="n">
-        <v>2168.459826904653</v>
+        <v>211.5020259430747</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2000.794048670971</v>
+        <v>1409.252249044213</v>
       </c>
       <c r="C35" t="n">
-        <v>2000.794048670971</v>
+        <v>1040.289732103801</v>
       </c>
       <c r="D35" t="n">
-        <v>1642.528350064221</v>
+        <v>1040.289732103801</v>
       </c>
       <c r="E35" t="n">
-        <v>1256.740097465976</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="F35" t="n">
-        <v>845.7541926763687</v>
+        <v>766.8010547197192</v>
       </c>
       <c r="G35" t="n">
-        <v>429.7231473797759</v>
+        <v>350.7700094231265</v>
       </c>
       <c r="H35" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I35" t="n">
         <v>43.36919653809306</v>
       </c>
       <c r="J35" t="n">
-        <v>152.5078184301901</v>
+        <v>152.50781843019</v>
       </c>
       <c r="K35" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711866</v>
       </c>
       <c r="M35" t="n">
         <v>1038.14846457873</v>
@@ -6967,22 +6967,22 @@
         <v>2036.325171642784</v>
       </c>
       <c r="T35" t="n">
-        <v>2000.794048670971</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U35" t="n">
-        <v>2000.794048670971</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V35" t="n">
-        <v>2000.794048670971</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W35" t="n">
-        <v>2000.794048670971</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="X35" t="n">
-        <v>2000.794048670971</v>
+        <v>1409.252249044213</v>
       </c>
       <c r="Y35" t="n">
-        <v>2000.794048670971</v>
+        <v>1409.252249044213</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>693.0104463829875</v>
+        <v>687.1574648836308</v>
       </c>
       <c r="C36" t="n">
-        <v>518.5574171018606</v>
+        <v>512.7044356025038</v>
       </c>
       <c r="D36" t="n">
-        <v>369.6230074406093</v>
+        <v>363.7700259412526</v>
       </c>
       <c r="E36" t="n">
-        <v>210.3855524351538</v>
+        <v>204.5325709357971</v>
       </c>
       <c r="F36" t="n">
-        <v>63.85099446203876</v>
+        <v>57.99801296268205</v>
       </c>
       <c r="G36" t="n">
         <v>43.36919653809306</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T36" t="n">
-        <v>1766.227047333487</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U36" t="n">
-        <v>1766.227047333487</v>
+        <v>1506.136709105928</v>
       </c>
       <c r="V36" t="n">
-        <v>1531.074939101744</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="W36" t="n">
-        <v>1276.837582373542</v>
+        <v>1270.984600874186</v>
       </c>
       <c r="X36" t="n">
-        <v>1068.986082168009</v>
+        <v>1063.133100668653</v>
       </c>
       <c r="Y36" t="n">
-        <v>861.2257834030556</v>
+        <v>855.3728019036989</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2145.636906415506</v>
+        <v>510.3351124607289</v>
       </c>
       <c r="C37" t="n">
-        <v>1976.700723487599</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D37" t="n">
-        <v>1826.584084075263</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E37" t="n">
-        <v>1826.584084075263</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F37" t="n">
-        <v>1826.584084075263</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G37" t="n">
-        <v>1826.584084075263</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J37" t="n">
-        <v>1691.539676402147</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K37" t="n">
-        <v>1740.887338843869</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L37" t="n">
-        <v>1833.941154665948</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M37" t="n">
-        <v>1935.311639356787</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N37" t="n">
-        <v>2042.1292864018</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O37" t="n">
-        <v>2120.47958346742</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P37" t="n">
-        <v>2168.459826904653</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X37" t="n">
-        <v>2145.636906415506</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y37" t="n">
-        <v>2145.636906415506</v>
+        <v>510.3351124607289</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1391.720654864718</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="C38" t="n">
-        <v>1022.758137924307</v>
+        <v>841.3615000220998</v>
       </c>
       <c r="D38" t="n">
-        <v>1022.758137924307</v>
+        <v>841.3615000220998</v>
       </c>
       <c r="E38" t="n">
-        <v>636.9698853260625</v>
+        <v>455.5732474238555</v>
       </c>
       <c r="F38" t="n">
-        <v>636.9698853260625</v>
+        <v>455.5732474238555</v>
       </c>
       <c r="G38" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H38" t="n">
         <v>122.3223344947425</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J38" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232717</v>
+        <v>366.8168396232722</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711863</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.148464578729</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O38" t="n">
-        <v>1761.960612545595</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.630958172446</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904652</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="U38" t="n">
-        <v>2168.459826904652</v>
+        <v>1914.852662567162</v>
       </c>
       <c r="V38" t="n">
-        <v>2168.459826904652</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="W38" t="n">
-        <v>2168.459826904652</v>
+        <v>1583.789775223591</v>
       </c>
       <c r="X38" t="n">
-        <v>2168.459826904652</v>
+        <v>1210.324016962511</v>
       </c>
       <c r="Y38" t="n">
-        <v>1778.32049492884</v>
+        <v>1210.324016962511</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>513.2911934535863</v>
+        <v>693.0104463829875</v>
       </c>
       <c r="C39" t="n">
-        <v>338.8381641724593</v>
+        <v>518.5574171018606</v>
       </c>
       <c r="D39" t="n">
-        <v>189.9037545112081</v>
+        <v>369.6230074406093</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9037545112081</v>
+        <v>210.3855524351538</v>
       </c>
       <c r="F39" t="n">
-        <v>43.36919653809304</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562314</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K39" t="n">
         <v>246.6448318504519</v>
@@ -7283,22 +7283,22 @@
         <v>1766.227047333487</v>
       </c>
       <c r="T39" t="n">
-        <v>1586.507794404085</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U39" t="n">
-        <v>1586.507794404085</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="V39" t="n">
-        <v>1351.355686172343</v>
+        <v>1531.074939101744</v>
       </c>
       <c r="W39" t="n">
-        <v>1097.118329444141</v>
+        <v>1276.837582373542</v>
       </c>
       <c r="X39" t="n">
-        <v>889.2668292386081</v>
+        <v>1068.986082168009</v>
       </c>
       <c r="Y39" t="n">
-        <v>681.5065304736543</v>
+        <v>861.2257834030556</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>193.4858359504288</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="C40" t="n">
-        <v>193.4858359504288</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D40" t="n">
-        <v>43.36919653809304</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809304</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K40" t="n">
-        <v>92.7168589798152</v>
+        <v>92.71685897981521</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018941</v>
@@ -7359,25 +7359,25 @@
         <v>520.2893470405991</v>
       </c>
       <c r="S40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Y40" t="n">
-        <v>375.1343007806685</v>
+        <v>520.2893470405991</v>
       </c>
     </row>
     <row r="41">
@@ -7387,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1583.789775223591</v>
+        <v>1282.40733099633</v>
       </c>
       <c r="C41" t="n">
-        <v>1583.789775223591</v>
+        <v>1282.40733099633</v>
       </c>
       <c r="D41" t="n">
-        <v>1583.789775223591</v>
+        <v>924.1416323895796</v>
       </c>
       <c r="E41" t="n">
-        <v>1198.001522625347</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="F41" t="n">
-        <v>787.0156178357395</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G41" t="n">
-        <v>429.7231473797759</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H41" t="n">
         <v>122.3223344947425</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2168.459826904653</v>
+        <v>2132.788333246027</v>
       </c>
       <c r="T41" t="n">
-        <v>2168.459826904653</v>
+        <v>1922.614335397943</v>
       </c>
       <c r="U41" t="n">
-        <v>1914.852662567162</v>
+        <v>1669.007171060452</v>
       </c>
       <c r="V41" t="n">
-        <v>1583.789775223591</v>
+        <v>1669.007171060452</v>
       </c>
       <c r="W41" t="n">
-        <v>1583.789775223591</v>
+        <v>1669.007171060452</v>
       </c>
       <c r="X41" t="n">
-        <v>1583.789775223591</v>
+        <v>1669.007171060452</v>
       </c>
       <c r="Y41" t="n">
-        <v>1583.789775223591</v>
+        <v>1669.007171060452</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>366.7566354804713</v>
+        <v>593.3227314256801</v>
       </c>
       <c r="C42" t="n">
-        <v>192.3036061993443</v>
+        <v>418.8697021445531</v>
       </c>
       <c r="D42" t="n">
-        <v>43.36919653809306</v>
+        <v>269.9352924833019</v>
       </c>
       <c r="E42" t="n">
-        <v>43.36919653809306</v>
+        <v>269.9352924833019</v>
       </c>
       <c r="F42" t="n">
-        <v>43.36919653809306</v>
+        <v>123.4007345101868</v>
       </c>
       <c r="G42" t="n">
         <v>43.36919653809306</v>
@@ -7517,25 +7517,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S42" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T42" t="n">
-        <v>1571.516725807463</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U42" t="n">
-        <v>1439.97323643097</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V42" t="n">
-        <v>1204.821128199228</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W42" t="n">
-        <v>950.583771471026</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="X42" t="n">
-        <v>742.7322712654932</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="Y42" t="n">
-        <v>534.9719725005393</v>
+        <v>761.5380684457482</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="C43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="D43" t="n">
-        <v>43.36919653809306</v>
+        <v>191.2822901204862</v>
       </c>
       <c r="E43" t="n">
         <v>43.36919653809306</v>
@@ -7590,31 +7590,31 @@
         <v>520.2893470405991</v>
       </c>
       <c r="Q43" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="R43" t="n">
-        <v>388.3019303235343</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="S43" t="n">
-        <v>189.1224447077607</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="U43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="V43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="W43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="X43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
       <c r="Y43" t="n">
-        <v>43.36919653809306</v>
+        <v>341.3989295328219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>459.4002418346858</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="C44" t="n">
-        <v>459.4002418346858</v>
+        <v>1203.454193039681</v>
       </c>
       <c r="D44" t="n">
-        <v>459.4002418346858</v>
+        <v>845.18849443293</v>
       </c>
       <c r="E44" t="n">
         <v>459.4002418346858</v>
@@ -7678,22 +7678,22 @@
         <v>2168.459826904652</v>
       </c>
       <c r="T44" t="n">
-        <v>2160.444039022753</v>
+        <v>2157.086761661154</v>
       </c>
       <c r="U44" t="n">
-        <v>1906.836874685262</v>
+        <v>1903.479597323663</v>
       </c>
       <c r="V44" t="n">
-        <v>1575.773987341692</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="W44" t="n">
-        <v>1223.005332071577</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="X44" t="n">
-        <v>849.5395738104976</v>
+        <v>1572.416709980092</v>
       </c>
       <c r="Y44" t="n">
-        <v>459.4002418346858</v>
+        <v>1572.416709980092</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>693.0104463829871</v>
+        <v>719.1462132444528</v>
       </c>
       <c r="C45" t="n">
-        <v>518.5574171018601</v>
+        <v>544.6931839633259</v>
       </c>
       <c r="D45" t="n">
-        <v>369.6230074406088</v>
+        <v>544.6931839633259</v>
       </c>
       <c r="E45" t="n">
-        <v>210.3855524351533</v>
+        <v>385.4557289578703</v>
       </c>
       <c r="F45" t="n">
-        <v>63.8509944620383</v>
+        <v>238.9211709847553</v>
       </c>
       <c r="G45" t="n">
-        <v>43.36919653809305</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H45" t="n">
-        <v>43.36919653809305</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I45" t="n">
         <v>43.36919653809305</v>
@@ -7760,19 +7760,19 @@
         <v>1766.227047333486</v>
       </c>
       <c r="U45" t="n">
-        <v>1766.227047333486</v>
+        <v>1538.12545746675</v>
       </c>
       <c r="V45" t="n">
-        <v>1531.074939101743</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W45" t="n">
-        <v>1276.837582373542</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="X45" t="n">
-        <v>1068.986082168009</v>
+        <v>1095.121849029475</v>
       </c>
       <c r="Y45" t="n">
-        <v>861.2257834030552</v>
+        <v>887.3615502645209</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H46" t="n">
         <v>43.36919653809305</v>
@@ -7836,22 +7836,22 @@
         <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>296.6854897332225</v>
+        <v>520.289347040599</v>
       </c>
       <c r="U46" t="n">
-        <v>193.4094100343004</v>
+        <v>520.289347040599</v>
       </c>
       <c r="V46" t="n">
-        <v>193.4094100343004</v>
+        <v>265.6048588347121</v>
       </c>
       <c r="W46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y46" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
   </sheetData>
@@ -22558,22 +22558,22 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>357.0810387145868</v>
       </c>
       <c r="G2" t="n">
-        <v>413.707320657778</v>
+        <v>363.9123136306533</v>
       </c>
       <c r="H2" t="n">
-        <v>323.1357392253592</v>
+        <v>273.3407321982346</v>
       </c>
       <c r="I2" t="n">
-        <v>148.9685811771479</v>
+        <v>147.1203249691126</v>
       </c>
       <c r="J2" t="n">
         <v>45.63689302957772</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>17.14684397594775</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -22594,13 +22594,13 @@
         <v>50.01861771953256</v>
       </c>
       <c r="R2" t="n">
-        <v>65.57242662105223</v>
+        <v>115.3674336481769</v>
       </c>
       <c r="S2" t="n">
-        <v>122.8695009220968</v>
+        <v>172.6645079492214</v>
       </c>
       <c r="T2" t="n">
-        <v>181.6154930118387</v>
+        <v>216.1119122710508</v>
       </c>
       <c r="U2" t="n">
         <v>251.2180195592479</v>
@@ -22625,16 +22625,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>116.7381766227427</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>122.9134919611911</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>107.8500734282763</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22643,10 +22643,10 @@
         <v>136.4898938890125</v>
       </c>
       <c r="H3" t="n">
-        <v>54.19623348224745</v>
+        <v>103.9912405093721</v>
       </c>
       <c r="I3" t="n">
-        <v>20.33727340070169</v>
+        <v>70.13228042782632</v>
       </c>
       <c r="J3" t="n">
         <v>46.18894706358476</v>
@@ -22682,10 +22682,10 @@
         <v>196.7240278659264</v>
       </c>
       <c r="U3" t="n">
-        <v>182.0257804655494</v>
+        <v>225.8852226550407</v>
       </c>
       <c r="V3" t="n">
-        <v>183.0055801223006</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>161.823253587813</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>290.0688923743784</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,25 +22792,25 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>289.2654207831596</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>325.2567584078702</v>
       </c>
       <c r="G5" t="n">
-        <v>402.6825762995999</v>
+        <v>413.4631744246258</v>
       </c>
       <c r="H5" t="n">
-        <v>271.0016183790627</v>
+        <v>320.6353766150897</v>
       </c>
       <c r="I5" t="n">
-        <v>96.47810051158933</v>
+        <v>139.5561335235496</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>24.91528667358037</v>
       </c>
       <c r="K5" t="n">
-        <v>15.54570289742017</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -22828,25 +22828,25 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>48.65933999663645</v>
+        <v>23.65357118422324</v>
       </c>
       <c r="R5" t="n">
-        <v>114.5767519404909</v>
+        <v>100.0310828299331</v>
       </c>
       <c r="S5" t="n">
-        <v>172.3776767643943</v>
+        <v>167.1010256612668</v>
       </c>
       <c r="T5" t="n">
-        <v>216.0568117329672</v>
+        <v>215.0431621354273</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2170125819671</v>
+        <v>251.1984878605957</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>256.5760194283108</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>84.91389631602611</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>80.04354969921354</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22877,16 +22877,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.4831591347105</v>
+        <v>136.3592641379443</v>
       </c>
       <c r="H6" t="n">
-        <v>103.9261969612455</v>
+        <v>102.729632124056</v>
       </c>
       <c r="I6" t="n">
-        <v>17.89519199841209</v>
+        <v>65.63472101605001</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>33.84730027516773</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,25 +22907,25 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>29.90429617453024</v>
+        <v>14.3427387906227</v>
       </c>
       <c r="R6" t="n">
-        <v>40.25662417412325</v>
+        <v>84.56947841277972</v>
       </c>
       <c r="S6" t="n">
-        <v>103.6971860541265</v>
+        <v>153.4011028494393</v>
       </c>
       <c r="T6" t="n">
-        <v>196.6968820799462</v>
+        <v>196.197498299121</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8847795790998</v>
+        <v>225.8766285924705</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>140.1356378603231</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>159.0300338718174</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.2696840886636</v>
+        <v>167.1658146852775</v>
       </c>
       <c r="H7" t="n">
-        <v>155.814201835988</v>
+        <v>154.8907084131551</v>
       </c>
       <c r="I7" t="n">
-        <v>133.7591589956</v>
+        <v>130.6355227555885</v>
       </c>
       <c r="J7" t="n">
-        <v>75.99984586487786</v>
+        <v>68.65627904547948</v>
       </c>
       <c r="K7" t="n">
-        <v>45.21186227978788</v>
+        <v>33.14412614092828</v>
       </c>
       <c r="L7" t="n">
-        <v>27.64774135187326</v>
+        <v>12.20519387026839</v>
       </c>
       <c r="M7" t="n">
-        <v>25.85947179235004</v>
+        <v>9.577470677924651</v>
       </c>
       <c r="N7" t="n">
-        <v>17.30769649739644</v>
+        <v>1.412844977410202</v>
       </c>
       <c r="O7" t="n">
-        <v>36.50473068115869</v>
+        <v>21.823262646183</v>
       </c>
       <c r="P7" t="n">
-        <v>50.49061978228498</v>
+        <v>37.92808757638606</v>
       </c>
       <c r="Q7" t="n">
-        <v>91.10635862868878</v>
+        <v>82.40871249605685</v>
       </c>
       <c r="R7" t="n">
-        <v>144.8613331552887</v>
+        <v>140.1909870721275</v>
       </c>
       <c r="S7" t="n">
-        <v>211.4463886533601</v>
+        <v>209.6362282325312</v>
       </c>
       <c r="T7" t="n">
-        <v>224.8636914573385</v>
+        <v>224.4198858246887</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2796859781384</v>
+        <v>286.2740203743174</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>270.6211815385569</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>255.9342105826502</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>294.7633856167877</v>
       </c>
       <c r="G8" t="n">
-        <v>413.4631744246258</v>
+        <v>301.2760442195641</v>
       </c>
       <c r="H8" t="n">
-        <v>320.6353766150897</v>
+        <v>319.8727099068761</v>
       </c>
       <c r="I8" t="n">
-        <v>57.93684618970842</v>
+        <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>24.91528667358037</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,22 +23065,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>23.65357118422324</v>
+        <v>15.61164031771682</v>
       </c>
       <c r="R8" t="n">
-        <v>100.0310828299331</v>
+        <v>95.3531516584621</v>
       </c>
       <c r="S8" t="n">
-        <v>167.1010256612668</v>
+        <v>165.4040387101212</v>
       </c>
       <c r="T8" t="n">
-        <v>122.3782128463251</v>
+        <v>214.717169359623</v>
       </c>
       <c r="U8" t="n">
-        <v>158.5335385714936</v>
+        <v>251.1925302541847</v>
       </c>
       <c r="V8" t="n">
-        <v>235.0873091810327</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -23114,16 +23114,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>136.3592641379443</v>
+        <v>24.20675900740713</v>
       </c>
       <c r="H9" t="n">
-        <v>102.729632124056</v>
+        <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>56.86618508973145</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>30.08282103867671</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23144,25 +23144,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>14.3427387906227</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>60.73615356033713</v>
+        <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>113.2998120910728</v>
+        <v>83.92423484016749</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8740072105222</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>139.5823230359959</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23193,49 +23193,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.1658146852775</v>
+        <v>167.1324099710516</v>
       </c>
       <c r="H10" t="n">
-        <v>154.8907084131551</v>
+        <v>154.5937101357652</v>
       </c>
       <c r="I10" t="n">
-        <v>130.6355227555885</v>
+        <v>129.630951895051</v>
       </c>
       <c r="J10" t="n">
-        <v>68.65627904547948</v>
+        <v>66.29456574971167</v>
       </c>
       <c r="K10" t="n">
-        <v>33.14412614092828</v>
+        <v>29.26310570632462</v>
       </c>
       <c r="L10" t="n">
-        <v>12.20519387026839</v>
+        <v>7.238823902544752</v>
       </c>
       <c r="M10" t="n">
-        <v>9.577470677924651</v>
+        <v>4.341129883412066</v>
       </c>
       <c r="N10" t="n">
-        <v>1.412844977410202</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>21.823262646183</v>
+        <v>17.10165812996878</v>
       </c>
       <c r="P10" t="n">
-        <v>37.92808757638606</v>
+        <v>33.88793923037925</v>
       </c>
       <c r="Q10" t="n">
-        <v>82.40871249605685</v>
+        <v>79.61152319847201</v>
       </c>
       <c r="R10" t="n">
-        <v>140.1909870721275</v>
+        <v>138.6889896488451</v>
       </c>
       <c r="S10" t="n">
-        <v>209.6362282325312</v>
+        <v>209.0540751673406</v>
       </c>
       <c r="T10" t="n">
-        <v>224.4198858246887</v>
+        <v>224.2771565911783</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2721982989959</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -23244,7 +23244,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>222.0842779002336</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,19 +23263,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>167.157454454363</v>
       </c>
       <c r="E11" t="n">
-        <v>216.757832896167</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>219.3504585753913</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>225.5722460637379</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H11" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I11" t="n">
         <v>125.4713171199747</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S11" t="n">
         <v>158.7758131900531</v>
@@ -23314,13 +23314,13 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U11" t="n">
-        <v>251.1692605650303</v>
+        <v>63.64367339871038</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>184.0684315413185</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23342,7 +23342,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
         <v>157.6450804554009</v>
@@ -23351,16 +23351,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>29.2513322318291</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265835</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23387,13 +23387,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T12" t="n">
-        <v>7.884010625681128</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377083</v>
+        <v>38.33818124377098</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>21.59102425362033</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482799</v>
       </c>
       <c r="H13" t="n">
         <v>153.4336708318196</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,16 +23457,16 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
       </c>
       <c r="S13" t="n">
-        <v>154.5643095410616</v>
+        <v>206.7802557954962</v>
       </c>
       <c r="T13" t="n">
         <v>223.7196734901001</v>
@@ -23497,25 +23497,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046878</v>
       </c>
       <c r="D14" t="n">
-        <v>314.981821564563</v>
+        <v>167.1574544543632</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>219.3504585753913</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>225.5722460637379</v>
+        <v>413.097833230058</v>
       </c>
       <c r="H14" t="n">
-        <v>129.3682389399022</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>125.4713171199747</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666373</v>
+        <v>77.08171901666381</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
@@ -23551,10 +23551,10 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1692605650303</v>
+        <v>85.99672338893592</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>140.2266713038151</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23582,22 +23582,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>101.5591789048038</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>58.90455890409147</v>
+        <v>58.9045589040915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.37922103265842</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>72.43289562846316</v>
+        <v>64.54307549375096</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>7.884010625681128</v>
+        <v>195.4095977920013</v>
       </c>
       <c r="U15" t="n">
-        <v>38.33818124377083</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482799</v>
       </c>
       <c r="H16" t="n">
         <v>153.4336708318196</v>
@@ -23676,10 +23676,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825419</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402848</v>
+        <v>14.10430989402855</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709389</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159727</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
@@ -23709,7 +23709,7 @@
         <v>223.7196734901001</v>
       </c>
       <c r="U16" t="n">
-        <v>234.0491352390156</v>
+        <v>286.2650814934503</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>353.5456629973993</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23740,19 +23740,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>82.04153730297065</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>29.29137052100288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>34.85543609126819</v>
+        <v>412.656248509425</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>108.4471221777675</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>35.76609457998921</v>
+        <v>49.34302280919542</v>
       </c>
       <c r="S17" t="n">
-        <v>143.7879749817754</v>
+        <v>148.7132013686266</v>
       </c>
       <c r="T17" t="n">
-        <v>210.5647033598059</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1166428115838</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>12.62382427218745</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>34.11253451946556</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23813,22 +23813,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>100.4478002002561</v>
       </c>
       <c r="D18" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>135.811877114983</v>
+        <v>135.9275207107687</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>98.55989955107015</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>57.76351369743578</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U18" t="n">
-        <v>176.1340961551969</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.7069037931486</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H19" t="n">
-        <v>150.8105733904093</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I19" t="n">
-        <v>116.8348206541131</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J19" t="n">
-        <v>36.21127897196855</v>
+        <v>43.06576458521431</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>43.98118315606595</v>
+        <v>52.09956646371758</v>
       </c>
       <c r="R19" t="n">
-        <v>119.5566845951331</v>
+        <v>123.9159858479445</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T19" t="n">
-        <v>222.4590847401381</v>
+        <v>39.74897065012374</v>
       </c>
       <c r="U19" t="n">
-        <v>225.2364790479981</v>
+        <v>286.2542771459823</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>39.5546074227355</v>
       </c>
       <c r="E20" t="n">
-        <v>4.345694851553219</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>29.29137052100288</v>
+        <v>175.896956097446</v>
       </c>
       <c r="G20" t="n">
-        <v>412.4401113119768</v>
+        <v>412.656248509425</v>
       </c>
       <c r="H20" t="n">
-        <v>310.1579315126722</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>100.1144928731453</v>
+        <v>108.4471221777675</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>148.7132013686266</v>
       </c>
       <c r="T20" t="n">
-        <v>34.64055738714509</v>
+        <v>211.5108439416354</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1166428115838</v>
+        <v>251.1339337873797</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>34.11253451946556</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>68.31873716074863</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>84.8060418276936</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>98.55989955107015</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>50.76987056285351</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>50.58346658365863</v>
+        <v>57.7635136974358</v>
       </c>
       <c r="S21" t="n">
-        <v>143.2336289799615</v>
+        <v>145.381658050804</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.4572693097595</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8406162883283</v>
+        <v>225.84822441963</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.7069037931486</v>
+        <v>166.8038554991351</v>
       </c>
       <c r="H22" t="n">
-        <v>150.8105733904093</v>
+        <v>151.6725621945439</v>
       </c>
       <c r="I22" t="n">
-        <v>116.834820654113</v>
+        <v>119.7504228668708</v>
       </c>
       <c r="J22" t="n">
-        <v>36.21127897196853</v>
+        <v>43.06576458521432</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,25 +24171,25 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>43.98118315606592</v>
+        <v>52.09956646371761</v>
       </c>
       <c r="R22" t="n">
-        <v>119.5566845951331</v>
+        <v>123.9159858479445</v>
       </c>
       <c r="S22" t="n">
-        <v>201.6386629578854</v>
+        <v>203.3282667794865</v>
       </c>
       <c r="T22" t="n">
-        <v>222.4590847401381</v>
+        <v>222.8733329384441</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2489888711103</v>
+        <v>103.1299148576622</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>276.0094688794211</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>66.90427198601895</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -24217,16 +24217,16 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>183.4952785962824</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,13 +24262,13 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24293,7 +24293,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24338,10 +24338,10 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>27.41702597267363</v>
       </c>
       <c r="U24" t="n">
-        <v>95.5925194853412</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>151.2702782104831</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>129.0754212904128</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,22 +24445,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>362.9273097957985</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I26" t="n">
         <v>78.16360657708299</v>
@@ -24496,10 +24496,10 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>118.2254939666527</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>66.63434972877303</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H27" t="n">
-        <v>87.24258993511654</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I27" t="n">
         <v>36.29946757904885</v>
@@ -24569,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -24578,13 +24578,13 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -24606,7 +24606,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>109.1541654470835</v>
@@ -24654,13 +24654,13 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T28" t="n">
-        <v>1.354513060649708</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2350578157167</v>
+        <v>277.6908943086252</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
@@ -24691,16 +24691,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>163.6062040260204</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>199.1033789150737</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24767,10 +24767,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>135.5072338470353</v>
@@ -24809,22 +24809,22 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>40.40431506787655</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>97.30825387452242</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I31" t="n">
         <v>109.1541654470835</v>
@@ -24882,19 +24882,19 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S31" t="n">
-        <v>4.244095673274472</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T31" t="n">
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24906,7 +24906,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>178.0898101932618</v>
       </c>
     </row>
     <row r="32">
@@ -24919,16 +24919,16 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>411.8707348436268</v>
@@ -24970,16 +24970,16 @@
         <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>208.5203679872494</v>
+        <v>74.74066544319817</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -24998,25 +24998,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>105.0990008072305</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>72.0031525932809</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25043,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>23.5433253012967</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25131,7 +25131,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2350578157167</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25143,7 +25143,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>199.1202632812624</v>
       </c>
     </row>
     <row r="35">
@@ -25156,16 +25156,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>111.1765794620204</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,10 +25207,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>172.8964461275093</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25247,7 +25247,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>115.230253902329</v>
+        <v>121.0247055866921</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>137.5750138932992</v>
@@ -25289,13 +25289,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U36" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25320,7 +25320,7 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,7 +25329,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H37" t="n">
-        <v>14.84584776485997</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I37" t="n">
         <v>109.1541654470835</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R37" t="n">
         <v>108.0728512656386</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>208.7299611180233</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25405,10 +25405,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>206.6964642768031</v>
+        <v>81.95233104380492</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25447,19 +25447,19 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25478,13 +25478,13 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>115.230253902329</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
@@ -25523,7 +25523,7 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>14.84115791065642</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
         <v>225.8205739680685</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>2.730466849237928</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,7 +25599,7 @@
         <v>108.0728512656386</v>
       </c>
       <c r="S40" t="n">
-        <v>53.48419496228459</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T40" t="n">
         <v>221.3678187343026</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>58.15118909222292</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.8133087092504</v>
+        <v>95.49852998721127</v>
       </c>
       <c r="T41" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25718,10 +25718,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>135.5072338470353</v>
+        <v>56.27601125466244</v>
       </c>
       <c r="H42" t="n">
         <v>94.50081326185514</v>
@@ -25757,22 +25757,22 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S42" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>95.5925194853412</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25830,16 +25830,16 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>77.0721030463317</v>
+        <v>44.26630540160326</v>
       </c>
       <c r="U43" t="n">
         <v>286.2350578157167</v>
@@ -25867,13 +25867,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -25918,7 +25918,7 @@
         <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
-        <v>200.1366278665233</v>
+        <v>196.8129232785401</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,13 +25927,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25949,7 +25949,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>115.2302539023295</v>
+        <v>72.71105998574363</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.29946757904886</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26000,13 +26000,13 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U45" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>166.4515011109318</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I46" t="n">
         <v>109.1541654470835</v>
@@ -26076,16 +26076,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>183.9917389137838</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>66.50969266293814</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>310835.6295847359</v>
+        <v>355774.7999316613</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>355774.7999316615</v>
+        <v>372223.8826140433</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337675</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433263.0758337677</v>
+        <v>433263.0758337674</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>560952.4023156201</v>
+        <v>519003.9076024871</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>560952.4023156199</v>
+        <v>519003.9076024869</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671458.5347830956</v>
+        <v>671458.5347830959</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671458.5347830956</v>
+        <v>671458.5347830958</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830957</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830959</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830956</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671458.5347830956</v>
+        <v>671458.5347830954</v>
       </c>
     </row>
   </sheetData>
@@ -26316,22 +26316,22 @@
         <v>106749.5249026527</v>
       </c>
       <c r="C2" t="n">
-        <v>107596.9487024085</v>
+        <v>123152.8153609596</v>
       </c>
       <c r="D2" t="n">
-        <v>123152.8153609596</v>
+        <v>128846.7285971687</v>
       </c>
       <c r="E2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="F2" t="n">
-        <v>149975.6800963041</v>
+        <v>149975.680096304</v>
       </c>
       <c r="G2" t="n">
-        <v>194175.8315707914</v>
+        <v>179655.1987854761</v>
       </c>
       <c r="H2" t="n">
-        <v>194175.8315707914</v>
+        <v>179655.1987854761</v>
       </c>
       <c r="I2" t="n">
         <v>232427.9543479945</v>
@@ -26352,7 +26352,7 @@
         <v>232427.9543479945</v>
       </c>
       <c r="O2" t="n">
-        <v>232427.9543479945</v>
+        <v>232427.9543479944</v>
       </c>
       <c r="P2" t="n">
         <v>232427.9543479945</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>3565.211031542055</v>
+        <v>69152.13364531014</v>
       </c>
       <c r="D3" t="n">
-        <v>61959.84223436579</v>
+        <v>21905.62569575126</v>
       </c>
       <c r="E3" t="n">
-        <v>101335.4572062676</v>
+        <v>80646.21400928593</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>179295.6925790521</v>
+        <v>120376.4632767651</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>150365.7018227378</v>
+        <v>207445.0213781852</v>
       </c>
       <c r="J3" t="n">
         <v>13028.56481860499</v>
       </c>
       <c r="K3" t="n">
-        <v>568.8360386923612</v>
+        <v>11033.35130008059</v>
       </c>
       <c r="L3" t="n">
-        <v>10290.61356508976</v>
+        <v>4922.04058314896</v>
       </c>
       <c r="M3" t="n">
-        <v>23639.65040155421</v>
+        <v>18793.20307042411</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>45737.9095993767</v>
+        <v>30707.75274100823</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>32.53856901697746</v>
+        <v>67.14558386063671</v>
       </c>
       <c r="D4" t="n">
-        <v>67.14558386063672</v>
+        <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723342</v>
+        <v>137.8001180723339</v>
       </c>
       <c r="G4" t="n">
-        <v>268.9433210122714</v>
+        <v>225.1452198420035</v>
       </c>
       <c r="H4" t="n">
-        <v>268.9433210122716</v>
+        <v>225.1452198420034</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26472,22 +26472,22 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>45509.32097968736</v>
+        <v>49237.11966583622</v>
       </c>
       <c r="D5" t="n">
-        <v>49237.11966583622</v>
+        <v>50823.37311172271</v>
       </c>
       <c r="E5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161359</v>
+        <v>23358.20041161356</v>
       </c>
       <c r="G5" t="n">
-        <v>38480.45449659578</v>
+        <v>33511.05705494962</v>
       </c>
       <c r="H5" t="n">
-        <v>38480.45449659578</v>
+        <v>33511.05705494961</v>
       </c>
       <c r="I5" t="n">
         <v>51571.48185587223</v>
@@ -26505,7 +26505,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
-        <v>51571.48185587222</v>
+        <v>51571.48185587223</v>
       </c>
       <c r="O5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337694.974720074</v>
+        <v>-352290.4898054226</v>
       </c>
       <c r="C6" t="n">
-        <v>58489.87812216207</v>
+        <v>-8987.804705045586</v>
       </c>
       <c r="D6" t="n">
-        <v>11888.70787689698</v>
+        <v>42668.46645527791</v>
       </c>
       <c r="E6" t="n">
-        <v>25144.22236035065</v>
+        <v>33639.40353829757</v>
       </c>
       <c r="F6" t="n">
-        <v>126479.6795666182</v>
+        <v>114285.6175475835</v>
       </c>
       <c r="G6" t="n">
-        <v>-23869.25882586871</v>
+        <v>14997.33336428323</v>
       </c>
       <c r="H6" t="n">
-        <v>155426.4337531831</v>
+        <v>135373.7966410483</v>
       </c>
       <c r="I6" t="n">
-        <v>30106.44874413763</v>
+        <v>-34586.25092747279</v>
       </c>
       <c r="J6" t="n">
-        <v>167443.5857482704</v>
+        <v>159830.2056321074</v>
       </c>
       <c r="K6" t="n">
-        <v>179903.314528183</v>
+        <v>161825.4191506318</v>
       </c>
       <c r="L6" t="n">
-        <v>170181.5370017856</v>
+        <v>167936.7298675635</v>
       </c>
       <c r="M6" t="n">
-        <v>156832.5001653212</v>
+        <v>154065.5673802883</v>
       </c>
       <c r="N6" t="n">
-        <v>180472.1505668754</v>
+        <v>172858.7704507124</v>
       </c>
       <c r="O6" t="n">
-        <v>134734.2409674987</v>
+        <v>142151.0177097041</v>
       </c>
       <c r="P6" t="n">
-        <v>180472.1505668753</v>
+        <v>172858.7704507124</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>399.9910132500468</v>
+        <v>457.5913187641655</v>
       </c>
       <c r="D3" t="n">
-        <v>457.5913187641655</v>
+        <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129045</v>
       </c>
       <c r="G3" t="n">
-        <v>712.0782680356284</v>
+        <v>658.3141401703858</v>
       </c>
       <c r="H3" t="n">
-        <v>712.0782680356286</v>
+        <v>658.3141401703857</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26792,22 +26792,22 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="D4" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="E4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.5255871663198</v>
       </c>
       <c r="G4" t="n">
-        <v>377.5846752207086</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="H4" t="n">
-        <v>377.5846752207086</v>
+        <v>315.1284341979475</v>
       </c>
       <c r="I4" t="n">
         <v>542.1149567261632</v>
@@ -26825,7 +26825,7 @@
         <v>542.1149567261632</v>
       </c>
       <c r="N4" t="n">
-        <v>542.114956726163</v>
+        <v>542.1149567261632</v>
       </c>
       <c r="O4" t="n">
         <v>542.1149567261632</v>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>3.131069982478778</v>
+        <v>60.73137549659748</v>
       </c>
       <c r="D3" t="n">
-        <v>57.6003055141187</v>
+        <v>18.52443243433669</v>
       </c>
       <c r="E3" t="n">
-        <v>90.87862214873928</v>
+        <v>72.35418971440225</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>163.6083271227236</v>
+        <v>109.8441992574813</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>141.6323965020555</v>
+        <v>195.3965243672984</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,43 +27014,43 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>2.2102049932098</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="D4" t="n">
-        <v>40.65973726876777</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="E4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>190.0590880543885</v>
+        <v>127.6028470316277</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>164.5302815054546</v>
+        <v>226.9865225282157</v>
       </c>
       <c r="J4" t="n">
         <v>49.7950070271246</v>
       </c>
       <c r="K4" t="n">
-        <v>2.210204993209572</v>
+        <v>42.86994226197734</v>
       </c>
       <c r="L4" t="n">
-        <v>40.659737268768</v>
+        <v>19.44771083582174</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.0590880543887</v>
+        <v>127.6028470316277</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,19 +27260,19 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>2.2102049932098</v>
+        <v>42.86994226197757</v>
       </c>
       <c r="L4" t="n">
-        <v>40.65973726876777</v>
+        <v>19.44771083582151</v>
       </c>
       <c r="M4" t="n">
-        <v>94.8606378772179</v>
+        <v>75.41292704139624</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>190.0590880543885</v>
+        <v>127.6028470316277</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3448253911411</v>
+        <v>157.3072689909255</v>
       </c>
       <c r="M3" t="n">
         <v>191.9290409491429</v>
@@ -31144,7 +31144,7 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>164.3536950713535</v>
+        <v>192.3912514715691</v>
       </c>
       <c r="P3" t="n">
         <v>163.0046057545602</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.608004073367021</v>
+        <v>1.839563090509207</v>
       </c>
       <c r="H5" t="n">
-        <v>16.46797171637001</v>
+        <v>18.83942550067742</v>
       </c>
       <c r="I5" t="n">
-        <v>61.99257703848215</v>
+        <v>70.91975604685626</v>
       </c>
       <c r="J5" t="n">
-        <v>136.4773357219344</v>
+        <v>156.1306178531059</v>
       </c>
       <c r="K5" t="n">
-        <v>204.5441481475604</v>
+        <v>233.9993234743607</v>
       </c>
       <c r="L5" t="n">
-        <v>253.7551028078664</v>
+        <v>290.2968524055319</v>
       </c>
       <c r="M5" t="n">
-        <v>282.3514452476072</v>
+        <v>323.011182516375</v>
       </c>
       <c r="N5" t="n">
-        <v>281.4182756169254</v>
+        <v>322.0780128856931</v>
       </c>
       <c r="O5" t="n">
-        <v>270.9305963165179</v>
+        <v>309.9456856660333</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>264.5314718690873</v>
       </c>
       <c r="Q5" t="n">
-        <v>173.646349877813</v>
+        <v>198.6521186902262</v>
       </c>
       <c r="R5" t="n">
-        <v>101.0087858736412</v>
+        <v>115.5544549841991</v>
       </c>
       <c r="S5" t="n">
-        <v>36.64239282185103</v>
+        <v>41.91904392497859</v>
       </c>
       <c r="T5" t="n">
-        <v>7.039037831164139</v>
+        <v>8.052687428704056</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1286403258693617</v>
+        <v>0.1471650472407365</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8603580285001008</v>
+        <v>0.9842530252663183</v>
       </c>
       <c r="H6" t="n">
-        <v>8.309247275250975</v>
+        <v>9.505812112440497</v>
       </c>
       <c r="I6" t="n">
-        <v>29.62197598125348</v>
+        <v>33.88765898395</v>
       </c>
       <c r="J6" t="n">
-        <v>81.28496619263454</v>
+        <v>92.99032639149897</v>
       </c>
       <c r="K6" t="n">
-        <v>138.9289541021413</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>186.8071236881469</v>
+        <v>213.7080965605662</v>
       </c>
       <c r="M6" t="n">
-        <v>194.1392459423527</v>
+        <v>234.7989832111205</v>
       </c>
       <c r="N6" t="n">
-        <v>183.3469241036677</v>
+        <v>224.0066613724355</v>
       </c>
       <c r="O6" t="n">
-        <v>194.6014564647789</v>
+        <v>195.0536364676412</v>
       </c>
       <c r="P6" t="n">
-        <v>134.5381397109194</v>
+        <v>187.9491588335306</v>
       </c>
       <c r="Q6" t="n">
-        <v>109.8239476380129</v>
+        <v>125.6390352953988</v>
       </c>
       <c r="R6" t="n">
-        <v>53.41766776950628</v>
+        <v>61.11002555118424</v>
       </c>
       <c r="S6" t="n">
-        <v>15.98077302937686</v>
+        <v>18.28206825439849</v>
       </c>
       <c r="T6" t="n">
-        <v>3.467846614875405</v>
+        <v>3.967230395700641</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05660250187500666</v>
+        <v>0.06475348850436308</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7212952697951663</v>
+        <v>0.8251646731812819</v>
       </c>
       <c r="H7" t="n">
-        <v>6.412970671451575</v>
+        <v>7.336464094284494</v>
       </c>
       <c r="I7" t="n">
-        <v>21.69131593165828</v>
+        <v>24.81495217166983</v>
       </c>
       <c r="J7" t="n">
-        <v>50.99557557451826</v>
+        <v>58.33914239391663</v>
       </c>
       <c r="K7" t="n">
-        <v>83.8013958907475</v>
+        <v>95.8691320296071</v>
       </c>
       <c r="L7" t="n">
-        <v>107.236934929365</v>
+        <v>122.6794824109699</v>
       </c>
       <c r="M7" t="n">
-        <v>113.066312155255</v>
+        <v>129.3483132696804</v>
       </c>
       <c r="N7" t="n">
-        <v>110.3778479678368</v>
+        <v>126.272699487823</v>
       </c>
       <c r="O7" t="n">
-        <v>101.9518077706841</v>
+        <v>116.6332758056598</v>
       </c>
       <c r="P7" t="n">
-        <v>87.23738426686263</v>
+        <v>99.79991647276155</v>
       </c>
       <c r="Q7" t="n">
-        <v>60.39864300075707</v>
+        <v>69.09628913338899</v>
       </c>
       <c r="R7" t="n">
-        <v>32.43205822188084</v>
+        <v>37.102404305042</v>
       </c>
       <c r="S7" t="n">
-        <v>12.57020938361212</v>
+        <v>14.38036980444106</v>
       </c>
       <c r="T7" t="n">
-        <v>3.081897970942983</v>
+        <v>3.52570360359275</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03934337835246366</v>
+        <v>0.04500898217352452</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.839563090509207</v>
+        <v>1.914033170647244</v>
       </c>
       <c r="H8" t="n">
-        <v>18.83942550067742</v>
+        <v>19.60209220889109</v>
       </c>
       <c r="I8" t="n">
-        <v>70.91975604685626</v>
+        <v>73.79076381137793</v>
       </c>
       <c r="J8" t="n">
-        <v>156.1306178531059</v>
+        <v>162.4511728172216</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9993234743607</v>
+        <v>243.4721969307195</v>
       </c>
       <c r="L8" t="n">
-        <v>290.2968524055319</v>
+        <v>302.0487895769152</v>
       </c>
       <c r="M8" t="n">
-        <v>323.011182516375</v>
+        <v>336.087476975413</v>
       </c>
       <c r="N8" t="n">
-        <v>322.0780128856931</v>
+        <v>341.5257237215146</v>
       </c>
       <c r="O8" t="n">
-        <v>309.9456856660333</v>
+        <v>322.493056380891</v>
       </c>
       <c r="P8" t="n">
-        <v>264.5314718690873</v>
+        <v>275.2403624805372</v>
       </c>
       <c r="Q8" t="n">
-        <v>198.6521186902262</v>
+        <v>206.6940495567327</v>
       </c>
       <c r="R8" t="n">
-        <v>115.5544549841991</v>
+        <v>120.23238615567</v>
       </c>
       <c r="S8" t="n">
-        <v>41.91904392497859</v>
+        <v>43.61603087612411</v>
       </c>
       <c r="T8" t="n">
-        <v>8.052687428704056</v>
+        <v>8.378680204508314</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1531226536517795</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.9842530252663183</v>
+        <v>1.024098030879797</v>
       </c>
       <c r="H9" t="n">
-        <v>9.505812112440497</v>
+        <v>9.890630982444359</v>
       </c>
       <c r="I9" t="n">
-        <v>33.88765898395</v>
+        <v>35.25951553687022</v>
       </c>
       <c r="J9" t="n">
-        <v>92.99032639149897</v>
+        <v>96.75480562798998</v>
       </c>
       <c r="K9" t="n">
-        <v>158.9352790843423</v>
+        <v>165.3693736969364</v>
       </c>
       <c r="L9" t="n">
-        <v>213.7080965605662</v>
+        <v>222.3595307837911</v>
       </c>
       <c r="M9" t="n">
-        <v>234.7989832111205</v>
+        <v>254.246694046942</v>
       </c>
       <c r="N9" t="n">
-        <v>224.0066613724355</v>
+        <v>243.454372208257</v>
       </c>
       <c r="O9" t="n">
-        <v>227.9345477768583</v>
+        <v>243.6589731628788</v>
       </c>
       <c r="P9" t="n">
-        <v>133.9744074143302</v>
+        <v>141.2741087697572</v>
       </c>
       <c r="Q9" t="n">
-        <v>125.6390352953988</v>
+        <v>130.7252153102001</v>
       </c>
       <c r="R9" t="n">
-        <v>61.11002555118424</v>
+        <v>63.58391107515094</v>
       </c>
       <c r="S9" t="n">
-        <v>18.28206825439849</v>
+        <v>19.0221717577892</v>
       </c>
       <c r="T9" t="n">
-        <v>3.967230395700641</v>
+        <v>4.127833729730409</v>
       </c>
       <c r="U9" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.06737487045261827</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.8585693874071351</v>
       </c>
       <c r="H10" t="n">
-        <v>7.336464094284494</v>
+        <v>7.633462371674351</v>
       </c>
       <c r="I10" t="n">
-        <v>24.81495217166983</v>
+        <v>25.8195230322073</v>
       </c>
       <c r="J10" t="n">
-        <v>58.33914239391663</v>
+        <v>60.70085568968445</v>
       </c>
       <c r="K10" t="n">
-        <v>95.8691320296071</v>
+        <v>99.75015246421076</v>
       </c>
       <c r="L10" t="n">
-        <v>122.6794824109699</v>
+        <v>127.6458523786935</v>
       </c>
       <c r="M10" t="n">
-        <v>129.3483132696804</v>
+        <v>134.584654064193</v>
       </c>
       <c r="N10" t="n">
-        <v>126.272699487823</v>
+        <v>131.3845318020392</v>
       </c>
       <c r="O10" t="n">
-        <v>116.6332758056598</v>
+        <v>121.354880321874</v>
       </c>
       <c r="P10" t="n">
-        <v>99.79991647276155</v>
+        <v>103.8400648187684</v>
       </c>
       <c r="Q10" t="n">
-        <v>69.09628913338899</v>
+        <v>71.89347843097383</v>
       </c>
       <c r="R10" t="n">
-        <v>37.102404305042</v>
+        <v>38.60440172832445</v>
       </c>
       <c r="S10" t="n">
-        <v>14.38036980444106</v>
+        <v>14.96252286963161</v>
       </c>
       <c r="T10" t="n">
-        <v>3.52570360359275</v>
+        <v>3.668432837103212</v>
       </c>
       <c r="U10" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04683105749493469</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J11" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P11" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q11" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R11" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I12" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J12" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L12" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M12" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O12" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P12" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R12" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S12" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L13" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O13" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T13" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077001</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954486</v>
+        <v>22.58097600954484</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043117</v>
       </c>
       <c r="J14" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528638</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672891</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470272</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470023</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622681</v>
+        <v>371.5015668622679</v>
       </c>
       <c r="P14" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244294</v>
       </c>
       <c r="Q14" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151092</v>
       </c>
       <c r="R14" t="n">
-        <v>138.5038187974684</v>
+        <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619221</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924577</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575676</v>
+        <v>11.39368688575675</v>
       </c>
       <c r="I15" t="n">
-        <v>40.61782109590852</v>
+        <v>40.6178210959085</v>
       </c>
       <c r="J15" t="n">
         <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621736</v>
       </c>
       <c r="L15" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405032</v>
       </c>
       <c r="M15" t="n">
-        <v>298.9161177975331</v>
+        <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829653</v>
       </c>
       <c r="O15" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292673</v>
       </c>
       <c r="P15" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936714</v>
       </c>
       <c r="R15" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550074</v>
       </c>
       <c r="S15" t="n">
-        <v>21.91292641288821</v>
+        <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820371</v>
+        <v>4.755130902820368</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390161</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445817</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620014</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639161</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114192</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765069</v>
+        <v>114.9089482765068</v>
       </c>
       <c r="L16" t="n">
-        <v>147.0438920276991</v>
+        <v>147.043892027699</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682165</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604415</v>
+        <v>151.3507297604414</v>
       </c>
       <c r="O16" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820538</v>
+        <v>119.6203949820537</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784857</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647909</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147602</v>
       </c>
       <c r="T16" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061361</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.862626203158303</v>
+        <v>2.646489005710092</v>
       </c>
       <c r="H17" t="n">
-        <v>29.31687060309498</v>
+        <v>27.10335552972849</v>
       </c>
       <c r="I17" t="n">
-        <v>110.3613966972606</v>
+        <v>102.0287673926384</v>
       </c>
       <c r="J17" t="n">
-        <v>242.9618207103073</v>
+        <v>224.6174462483871</v>
       </c>
       <c r="K17" t="n">
-        <v>364.1367878899983</v>
+        <v>336.6433258600953</v>
       </c>
       <c r="L17" t="n">
-        <v>451.7438845549043</v>
+        <v>417.6358137685957</v>
       </c>
       <c r="M17" t="n">
-        <v>502.6521132953208</v>
+        <v>464.7003126238925</v>
       </c>
       <c r="N17" t="n">
-        <v>510.7855499950443</v>
+        <v>472.2196495113664</v>
       </c>
       <c r="O17" t="n">
-        <v>482.3203106873889</v>
+        <v>445.9036244608366</v>
       </c>
       <c r="P17" t="n">
-        <v>411.6492262969182</v>
+        <v>380.5684271323686</v>
       </c>
       <c r="Q17" t="n">
-        <v>309.1314253963114</v>
+        <v>285.7910396153759</v>
       </c>
       <c r="R17" t="n">
-        <v>179.8194432341429</v>
+        <v>166.2425150049367</v>
       </c>
       <c r="S17" t="n">
-        <v>65.23209460446989</v>
+        <v>60.30686821761878</v>
       </c>
       <c r="T17" t="n">
-        <v>12.53114620432548</v>
+        <v>11.58500562249593</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2290100962526642</v>
+        <v>0.2117191204568073</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.531640048227578</v>
+        <v>1.415996452441962</v>
       </c>
       <c r="H18" t="n">
-        <v>14.79241836051372</v>
+        <v>13.67554468542632</v>
       </c>
       <c r="I18" t="n">
-        <v>52.73409815169513</v>
+        <v>48.75250943714651</v>
       </c>
       <c r="J18" t="n">
-        <v>144.7063959599573</v>
+        <v>133.7806122019838</v>
       </c>
       <c r="K18" t="n">
-        <v>247.326279191205</v>
+        <v>228.6523745155953</v>
       </c>
       <c r="L18" t="n">
-        <v>332.5607043311678</v>
+        <v>307.4513349918392</v>
       </c>
       <c r="M18" t="n">
-        <v>388.0826560794175</v>
+        <v>358.7812063928602</v>
       </c>
       <c r="N18" t="n">
-        <v>398.354049209856</v>
+        <v>368.2770773392803</v>
       </c>
       <c r="O18" t="n">
-        <v>364.4161302464975</v>
+        <v>336.9015769983294</v>
       </c>
       <c r="P18" t="n">
-        <v>292.4760720163698</v>
+        <v>270.3932173088515</v>
       </c>
       <c r="Q18" t="n">
-        <v>195.5125086123484</v>
+        <v>180.7507050520652</v>
       </c>
       <c r="R18" t="n">
-        <v>95.09603738030528</v>
+        <v>87.91599026652817</v>
       </c>
       <c r="S18" t="n">
-        <v>28.44954212387627</v>
+        <v>26.30151305303379</v>
       </c>
       <c r="T18" t="n">
-        <v>6.173584229478701</v>
+        <v>5.707459385062116</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1007657926465512</v>
+        <v>0.09315766134486596</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.284075565310149</v>
+        <v>1.187123859323646</v>
       </c>
       <c r="H19" t="n">
-        <v>11.41659911703025</v>
+        <v>10.5546103128957</v>
       </c>
       <c r="I19" t="n">
-        <v>38.61565427314523</v>
+        <v>35.70005206038748</v>
       </c>
       <c r="J19" t="n">
-        <v>90.78414246742756</v>
+        <v>83.9296568541818</v>
       </c>
       <c r="K19" t="n">
-        <v>149.1862338605791</v>
+        <v>137.9222083832382</v>
       </c>
       <c r="L19" t="n">
-        <v>190.907016318929</v>
+        <v>176.492941776172</v>
       </c>
       <c r="M19" t="n">
-        <v>201.2846815694809</v>
+        <v>186.0870609665239</v>
       </c>
       <c r="N19" t="n">
-        <v>196.4985817351433</v>
+        <v>181.6623265817723</v>
       </c>
       <c r="O19" t="n">
-        <v>181.4982444494746</v>
+        <v>167.7945614978551</v>
       </c>
       <c r="P19" t="n">
-        <v>155.3031029171475</v>
+        <v>143.5772347676526</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.5238184733799</v>
+        <v>99.40543516572826</v>
       </c>
       <c r="R19" t="n">
-        <v>57.73670678203634</v>
+        <v>53.37740552922504</v>
       </c>
       <c r="S19" t="n">
-        <v>22.37793507908687</v>
+        <v>20.68833125748572</v>
       </c>
       <c r="T19" t="n">
-        <v>5.486504688143365</v>
+        <v>5.072256489837397</v>
       </c>
       <c r="U19" t="n">
-        <v>0.07004048538055369</v>
+        <v>0.06475221050856261</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.862626203158304</v>
+        <v>2.646489005710091</v>
       </c>
       <c r="H20" t="n">
-        <v>29.31687060309499</v>
+        <v>27.10335552972848</v>
       </c>
       <c r="I20" t="n">
-        <v>110.3613966972606</v>
+        <v>102.0287673926384</v>
       </c>
       <c r="J20" t="n">
-        <v>242.9618207103073</v>
+        <v>224.6174462483871</v>
       </c>
       <c r="K20" t="n">
-        <v>364.1367878899984</v>
+        <v>336.6433258600953</v>
       </c>
       <c r="L20" t="n">
-        <v>451.7438845549044</v>
+        <v>417.6358137685956</v>
       </c>
       <c r="M20" t="n">
-        <v>502.6521132953209</v>
+        <v>464.7003126238924</v>
       </c>
       <c r="N20" t="n">
-        <v>510.7855499950444</v>
+        <v>472.2196495113662</v>
       </c>
       <c r="O20" t="n">
-        <v>482.3203106873891</v>
+        <v>445.9036244608365</v>
       </c>
       <c r="P20" t="n">
-        <v>411.6492262969184</v>
+        <v>380.5684271323686</v>
       </c>
       <c r="Q20" t="n">
-        <v>309.1314253963115</v>
+        <v>285.7910396153758</v>
       </c>
       <c r="R20" t="n">
-        <v>179.819443234143</v>
+        <v>166.2425150049367</v>
       </c>
       <c r="S20" t="n">
-        <v>65.23209460446992</v>
+        <v>60.30686821761876</v>
       </c>
       <c r="T20" t="n">
-        <v>12.53114620432548</v>
+        <v>11.58500562249593</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2290100962526643</v>
+        <v>0.2117191204568073</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.531640048227579</v>
+        <v>1.415996452441962</v>
       </c>
       <c r="H21" t="n">
-        <v>14.79241836051372</v>
+        <v>13.67554468542632</v>
       </c>
       <c r="I21" t="n">
-        <v>52.73409815169515</v>
+        <v>48.75250943714649</v>
       </c>
       <c r="J21" t="n">
-        <v>144.7063959599573</v>
+        <v>133.7806122019838</v>
       </c>
       <c r="K21" t="n">
-        <v>247.3262791912051</v>
+        <v>228.6523745155952</v>
       </c>
       <c r="L21" t="n">
-        <v>332.5607043311679</v>
+        <v>307.4513349918391</v>
       </c>
       <c r="M21" t="n">
-        <v>388.0826560794176</v>
+        <v>358.7812063928602</v>
       </c>
       <c r="N21" t="n">
-        <v>398.3540492098561</v>
+        <v>368.2770773392803</v>
       </c>
       <c r="O21" t="n">
-        <v>364.4161302464976</v>
+        <v>336.9015769983293</v>
       </c>
       <c r="P21" t="n">
-        <v>292.4760720163698</v>
+        <v>270.3932173088515</v>
       </c>
       <c r="Q21" t="n">
-        <v>195.5125086123485</v>
+        <v>180.7507050520652</v>
       </c>
       <c r="R21" t="n">
-        <v>95.09603738030532</v>
+        <v>87.91599026652815</v>
       </c>
       <c r="S21" t="n">
-        <v>28.44954212387628</v>
+        <v>26.30151305303379</v>
       </c>
       <c r="T21" t="n">
-        <v>6.173584229478703</v>
+        <v>5.707459385062116</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1007657926465513</v>
+        <v>0.09315766134486594</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.28407556531015</v>
+        <v>1.187123859323646</v>
       </c>
       <c r="H22" t="n">
-        <v>11.41659911703025</v>
+        <v>10.5546103128957</v>
       </c>
       <c r="I22" t="n">
-        <v>38.61565427314525</v>
+        <v>35.70005206038748</v>
       </c>
       <c r="J22" t="n">
-        <v>90.78414246742759</v>
+        <v>83.92965685418179</v>
       </c>
       <c r="K22" t="n">
-        <v>149.1862338605792</v>
+        <v>137.9222083832381</v>
       </c>
       <c r="L22" t="n">
-        <v>190.907016318929</v>
+        <v>176.4929417761719</v>
       </c>
       <c r="M22" t="n">
-        <v>201.284681569481</v>
+        <v>186.0870609665239</v>
       </c>
       <c r="N22" t="n">
-        <v>196.4985817351433</v>
+        <v>181.6623265817723</v>
       </c>
       <c r="O22" t="n">
-        <v>181.4982444494747</v>
+        <v>167.7945614978551</v>
       </c>
       <c r="P22" t="n">
-        <v>155.3031029171475</v>
+        <v>143.5772347676526</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.5238184733799</v>
+        <v>99.40543516572824</v>
       </c>
       <c r="R22" t="n">
-        <v>57.73670678203636</v>
+        <v>53.37740552922502</v>
       </c>
       <c r="S22" t="n">
-        <v>22.37793507908688</v>
+        <v>20.68833125748572</v>
       </c>
       <c r="T22" t="n">
-        <v>5.486504688143366</v>
+        <v>5.072256489837396</v>
       </c>
       <c r="U22" t="n">
-        <v>0.07004048538055371</v>
+        <v>0.0647522105085626</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.79044561126693</v>
+        <v>18.75288921105129</v>
       </c>
       <c r="M3" t="n">
         <v>49.79500702712463</v>
@@ -34792,7 +34792,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>21.75745062690901</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="P3" t="n">
         <v>29.03019834022993</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>13.90947242938014</v>
       </c>
       <c r="L5" t="n">
-        <v>17.98868783787918</v>
+        <v>54.53043743554463</v>
       </c>
       <c r="M5" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N5" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O5" t="n">
-        <v>40.83238489483122</v>
+        <v>79.84747424434661</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>33.29847611381774</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1.087515127782297</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>48.25274390827272</v>
+        <v>75.15371678069201</v>
       </c>
       <c r="M6" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="N6" t="n">
-        <v>52.00521202033443</v>
+        <v>92.6649492891022</v>
       </c>
       <c r="O6" t="n">
-        <v>52.00521202033443</v>
+        <v>52.45739202319677</v>
       </c>
       <c r="P6" t="n">
-        <v>0.5637322965891612</v>
+        <v>53.97475141920032</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13.90947242938014</v>
+        <v>23.38234588573897</v>
       </c>
       <c r="L8" t="n">
-        <v>54.53043743554463</v>
+        <v>66.28237460692793</v>
       </c>
       <c r="M8" t="n">
-        <v>92.6649492891022</v>
+        <v>105.7412437481403</v>
       </c>
       <c r="N8" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O8" t="n">
-        <v>79.84747424434661</v>
+        <v>92.39484495920428</v>
       </c>
       <c r="P8" t="n">
-        <v>33.29847611381774</v>
+        <v>44.00736672526762</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,22 +35254,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>21.09384010998329</v>
+        <v>27.52793472257738</v>
       </c>
       <c r="L9" t="n">
-        <v>75.15371678069201</v>
+        <v>83.8051510039169</v>
       </c>
       <c r="M9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="N9" t="n">
-        <v>92.6649492891022</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="O9" t="n">
-        <v>85.33830333241384</v>
+        <v>101.0627287184343</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>7.299701355426945</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35342,7 +35342,7 @@
         <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>3.698987336806027</v>
       </c>
       <c r="O10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L12" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M12" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O12" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868137</v>
+        <v>6.092590538868023</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788327</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973019</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197545</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504114</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405811</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915984</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.79916774065984</v>
+        <v>15.7991677406597</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781463</v>
       </c>
       <c r="L15" t="n">
-        <v>117.5966053606292</v>
+        <v>117.596605360629</v>
       </c>
       <c r="M15" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>175.4858258996322</v>
+        <v>175.485825899632</v>
       </c>
       <c r="O15" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848228</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855702</v>
+        <v>91.30185944855691</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764993</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646083</v>
+        <v>12.15921574646075</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061149</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520823</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400495</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>61.91591618362096</v>
+        <v>43.57154172170081</v>
       </c>
       <c r="K17" t="n">
-        <v>144.0469368450177</v>
+        <v>116.5534748151148</v>
       </c>
       <c r="L17" t="n">
-        <v>215.9774695849171</v>
+        <v>181.8693987986084</v>
       </c>
       <c r="M17" t="n">
-        <v>272.3058800680481</v>
+        <v>234.3540793966198</v>
       </c>
       <c r="N17" t="n">
-        <v>281.3724863984534</v>
+        <v>242.8065859147754</v>
       </c>
       <c r="O17" t="n">
-        <v>252.2220992657022</v>
+        <v>215.8054130391498</v>
       </c>
       <c r="P17" t="n">
-        <v>180.4162305416487</v>
+        <v>149.3354313770991</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.8257355218619</v>
+        <v>63.48534974092641</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>17.86876929329063</v>
+        <v>6.942985535317121</v>
       </c>
       <c r="K18" t="n">
-        <v>109.484840216846</v>
+        <v>90.81093554123626</v>
       </c>
       <c r="L18" t="n">
-        <v>194.0063245512936</v>
+        <v>168.896955211965</v>
       </c>
       <c r="M18" t="n">
-        <v>245.9486221573991</v>
+        <v>216.6471724708419</v>
       </c>
       <c r="N18" t="n">
-        <v>267.0123371265227</v>
+        <v>236.935365255947</v>
       </c>
       <c r="O18" t="n">
-        <v>221.8198858020531</v>
+        <v>194.305332553885</v>
       </c>
       <c r="P18" t="n">
-        <v>158.5016646020395</v>
+        <v>136.4188098945213</v>
       </c>
       <c r="Q18" t="n">
-        <v>55.53073452632691</v>
+        <v>40.76893096604368</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>20.17297569004376</v>
+        <v>8.908950212702791</v>
       </c>
       <c r="L19" t="n">
-        <v>56.0223400376907</v>
+        <v>41.6082654949337</v>
       </c>
       <c r="M19" t="n">
-        <v>62.35889762187588</v>
+        <v>47.1612770189189</v>
       </c>
       <c r="N19" t="n">
-        <v>68.8130372699101</v>
+        <v>53.97678211653911</v>
       </c>
       <c r="O19" t="n">
-        <v>43.04170599763185</v>
+        <v>29.33802304601232</v>
       </c>
       <c r="P19" t="n">
-        <v>17.57509886799986</v>
+        <v>5.849230718504998</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>61.91591618362102</v>
+        <v>43.57154172170078</v>
       </c>
       <c r="K20" t="n">
-        <v>144.0469368450179</v>
+        <v>116.5534748151147</v>
       </c>
       <c r="L20" t="n">
-        <v>215.9774695849172</v>
+        <v>181.8693987986084</v>
       </c>
       <c r="M20" t="n">
-        <v>272.3058800680482</v>
+        <v>234.3540793966197</v>
       </c>
       <c r="N20" t="n">
-        <v>281.3724863984535</v>
+        <v>242.8065859147753</v>
       </c>
       <c r="O20" t="n">
-        <v>252.2220992657023</v>
+        <v>215.8054130391498</v>
       </c>
       <c r="P20" t="n">
-        <v>180.4162305416488</v>
+        <v>149.335431377099</v>
       </c>
       <c r="Q20" t="n">
-        <v>86.82573552186201</v>
+        <v>63.48534974092635</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>17.86876929329065</v>
+        <v>6.942985535317092</v>
       </c>
       <c r="K21" t="n">
-        <v>109.4848402168461</v>
+        <v>90.81093554123623</v>
       </c>
       <c r="L21" t="n">
-        <v>194.0063245512937</v>
+        <v>168.896955211965</v>
       </c>
       <c r="M21" t="n">
-        <v>245.9486221573993</v>
+        <v>216.6471724708418</v>
       </c>
       <c r="N21" t="n">
-        <v>267.0123371265228</v>
+        <v>236.9353652559469</v>
       </c>
       <c r="O21" t="n">
-        <v>221.8198858020532</v>
+        <v>194.3053325538849</v>
       </c>
       <c r="P21" t="n">
-        <v>158.5016646020396</v>
+        <v>136.4188098945212</v>
       </c>
       <c r="Q21" t="n">
-        <v>55.53073452632697</v>
+        <v>40.76893096604365</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>20.17297569004381</v>
+        <v>8.908950212702763</v>
       </c>
       <c r="L22" t="n">
-        <v>56.02234003769075</v>
+        <v>41.60826549493365</v>
       </c>
       <c r="M22" t="n">
-        <v>62.35889762187597</v>
+        <v>47.16127701891884</v>
       </c>
       <c r="N22" t="n">
-        <v>68.81303726991015</v>
+        <v>53.97678211653908</v>
       </c>
       <c r="O22" t="n">
-        <v>43.04170599763191</v>
+        <v>29.3380230460123</v>
       </c>
       <c r="P22" t="n">
-        <v>17.57509886799991</v>
+        <v>5.84923071850497</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_18.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_24_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>325895.994777007</v>
+        <v>407799.5208350222</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>14803319.36208673</v>
+        <v>14785957.46876066</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6159726.182517769</v>
+        <v>6163708.15895639</v>
       </c>
     </row>
     <row r="11">
@@ -661,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.848256208035304</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -670,64 +670,64 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="G2" t="n">
+      <c r="X2" t="n">
         <v>49.79500702712463</v>
       </c>
-      <c r="H2" t="n">
+      <c r="Y2" t="n">
         <v>49.79500702712463</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.848256208035304</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>49.79500702712463</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>43.85944218949135</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>49.79500702712463</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>43.85944218949135</v>
+        <v>49.79500702712463</v>
       </c>
     </row>
     <row r="4">
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -904,13 +904,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>81.61928733384123</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>37.57007701068536</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="W5" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>81.61928733384123</v>
+        <v>64.70744504970948</v>
       </c>
       <c r="C6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1025,7 +1025,7 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>92.6649492891022</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>112.1126601249237</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>98.74883103803278</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>112.1126601249237</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>18.59473170946464</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>80.15409932856814</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1211,16 +1211,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>89.49227226221134</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>112.1126601249237</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1232,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>7.396679373398329</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,13 +1259,13 @@
         <v>9.256558775821418</v>
       </c>
       <c r="R9" t="n">
-        <v>82.095592888813</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>112.1126601249237</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>3.625377488803587</v>
       </c>
       <c r="X10" t="n">
-        <v>3.625377488803587</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,16 +1375,16 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>187.52558716632</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>6.396723986041487</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>158.7758131900531</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="U11" t="n">
         <v>187.52558716632</v>
       </c>
       <c r="V11" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>165.1725371760945</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>136.1637893657753</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>72.43289562846321</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>141.4261508958554</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1514,7 +1514,7 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>184.1819609498571</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
@@ -1536,13 +1536,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1609,16 +1609,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>187.5255871663198</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1663,16 +1663,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>165.1725371760944</v>
+        <v>165.1725371760945</v>
       </c>
       <c r="V14" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1688,22 +1688,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>53.53696330591259</v>
       </c>
       <c r="H15" t="n">
-        <v>100.8417573507397</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1733,10 +1733,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.889820134712256</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1745,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>52.21594625443431</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1827,7 +1827,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>52.21594625443443</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>29.18817866608129</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1855,13 +1855,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>337.6361713017736</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>337.6361713017736</v>
       </c>
       <c r="H17" t="n">
-        <v>312.3714465860386</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1339337873797</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>315.1284341979475</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>315.1284341979475</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>307.2738525142409</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>72.26069878805963</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>64.36957641923711</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>50.76987056285349</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>183.1243622883204</v>
+        <v>211.7839247910117</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>337.6361713017736</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>315.1284341979475</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>242.3516566408249</v>
       </c>
       <c r="F20" t="n">
-        <v>230.9790896442654</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>312.3714465860386</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,22 +2128,22 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>49.34302280919545</v>
+        <v>44.45022224585179</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>146.9382674488655</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>315.1284341979475</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2159,22 +2159,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>98.21444648911871</v>
+        <v>100.999850550453</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9275207107687</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2247,13 +2247,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>45.01500837041204</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>183.1243622883201</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>298.3686197849886</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.8707348436268</v>
@@ -2338,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>116.2669643714387</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U23" t="n">
         <v>251.0710926941158</v>
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>132.252555847288</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T24" t="n">
-        <v>165.3461923380901</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2462,10 +2462,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>28.56170197145417</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2487,13 +2487,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2557,13 +2557,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>2.34558197520904</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>253.4166746693249</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2611,7 +2611,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2633,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>106.0741492595427</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>124.8099854203545</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2684,10 +2684,10 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.8205739680685</v>
@@ -2721,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.5398113612452</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>8.54416350709154</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>31.68046530976816</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>340.4532425839018</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2809,10 +2809,10 @@
         <v>411.8707348436268</v>
       </c>
       <c r="H29" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>170.6277217633954</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2879,19 +2879,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>97.17069882542268</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,10 +2936,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>163.3573661912849</v>
       </c>
     </row>
     <row r="31">
@@ -2952,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,7 +2961,7 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2350578157167</v>
+        <v>18.38112956226215</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>40.49484315883299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,25 +3079,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>176.3304272509177</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>172.0372032845148</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -3119,16 +3119,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H33" t="n">
-        <v>22.49766066857424</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I33" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3158,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>175.6401407827925</v>
       </c>
       <c r="W33" t="n">
         <v>251.6949831609196</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4515011109318</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2350578157167</v>
+        <v>246.4412936084438</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3252,10 +3252,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.46439007083242</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>270.7537906102414</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.8707348436268</v>
       </c>
       <c r="H35" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.8133087092504</v>
+        <v>56.0271865086762</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,16 +3350,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>65.58341935524555</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>14.48252826034311</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>31.66886087721431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -3426,13 +3426,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.854692234071514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -3514,16 +3514,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>329.9184037998219</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>3.377484376508594</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -3587,16 +3587,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>8.32743489151706</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>29.83895849105486</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3632,19 +3632,19 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>177.1015133326994</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>40.20690263795871</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3723,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,19 +3739,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.8707348436268</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>35.31477872203916</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T41" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>58.35906756985518</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3827,19 +3827,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>79.23122259237282</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>137.5750138932992</v>
       </c>
       <c r="T42" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>13.15864691777129</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -3903,10 +3903,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3951,16 +3951,16 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>177.1015133326994</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>185.62795066089</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -3988,10 +3988,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>216.3701306470484</v>
       </c>
       <c r="G44" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,16 +4027,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.8133087092505</v>
       </c>
       <c r="T44" t="n">
-        <v>11.2593345910638</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>251.0710926941158</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,22 +4058,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>107.9425480589933</v>
       </c>
       <c r="G45" t="n">
-        <v>62.79617386129162</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H45" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>36.29946757904886</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4118,7 +4118,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4188,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>32.19847691108338</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>220.0133056736529</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>156.7444867130883</v>
+        <v>5.850526024831893</v>
       </c>
       <c r="C2" t="n">
-        <v>156.7444867130883</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="D2" t="n">
-        <v>156.7444867130883</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="E2" t="n">
-        <v>156.7444867130883</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="F2" t="n">
-        <v>106.4464998170029</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="G2" t="n">
-        <v>56.14851292091738</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="H2" t="n">
-        <v>5.850526024831893</v>
+        <v>3.98360056216997</v>
       </c>
       <c r="I2" t="n">
         <v>3.98360056216997</v>
@@ -4369,13 +4369,13 @@
         <v>156.7444867130883</v>
       </c>
       <c r="W2" t="n">
-        <v>156.7444867130883</v>
+        <v>106.4464998170029</v>
       </c>
       <c r="X2" t="n">
-        <v>156.7444867130883</v>
+        <v>56.14851292091738</v>
       </c>
       <c r="Y2" t="n">
-        <v>156.7444867130883</v>
+        <v>5.850526024831893</v>
       </c>
     </row>
     <row r="3">
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.5795743543409</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="C3" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="D3" t="n">
-        <v>54.28158745825545</v>
+        <v>98.58405431632752</v>
       </c>
       <c r="E3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="F3" t="n">
-        <v>3.98360056216997</v>
+        <v>48.28606742024204</v>
       </c>
       <c r="G3" t="n">
         <v>3.98360056216997</v>
@@ -4415,13 +4415,13 @@
         <v>3.98360056216997</v>
       </c>
       <c r="L3" t="n">
-        <v>22.54896088111074</v>
+        <v>50.30614171732423</v>
       </c>
       <c r="M3" t="n">
-        <v>71.84601783796413</v>
+        <v>99.60319867417761</v>
       </c>
       <c r="N3" t="n">
-        <v>121.1430747948175</v>
+        <v>148.900255631031</v>
       </c>
       <c r="O3" t="n">
         <v>170.4401317516709</v>
@@ -4439,22 +4439,22 @@
         <v>199.1800281084985</v>
       </c>
       <c r="T3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="U3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="V3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="W3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="X3" t="n">
-        <v>199.1800281084985</v>
+        <v>148.882041212413</v>
       </c>
       <c r="Y3" t="n">
-        <v>154.8775612504264</v>
+        <v>98.58405431632752</v>
       </c>
     </row>
     <row r="4">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>183.4578794006468</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="C5" t="n">
-        <v>183.4578794006468</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="D5" t="n">
-        <v>183.4578794006468</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="E5" t="n">
-        <v>89.85692052276578</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="F5" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="G5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J5" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K5" t="n">
-        <v>21.18357364821451</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L5" t="n">
-        <v>75.16870670940366</v>
+        <v>42.77891399687743</v>
       </c>
       <c r="M5" t="n">
-        <v>166.9070065056148</v>
+        <v>115.5086717162376</v>
       </c>
       <c r="N5" t="n">
-        <v>258.6453063018261</v>
+        <v>188.2384294355977</v>
       </c>
       <c r="O5" t="n">
-        <v>337.6943058037292</v>
+        <v>249.0477644106464</v>
       </c>
       <c r="P5" t="n">
-        <v>370.6597971564088</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="Q5" t="n">
-        <v>370.6597971564088</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="R5" t="n">
-        <v>370.6597971564088</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="S5" t="n">
-        <v>370.6597971564088</v>
+        <v>266.4461240792085</v>
       </c>
       <c r="T5" t="n">
-        <v>370.6597971564088</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="U5" t="n">
-        <v>370.6597971564088</v>
+        <v>228.4965513411425</v>
       </c>
       <c r="V5" t="n">
-        <v>370.6597971564088</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="W5" t="n">
-        <v>277.0588382785278</v>
+        <v>154.2900849404077</v>
       </c>
       <c r="X5" t="n">
-        <v>277.0588382785278</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="Y5" t="n">
-        <v>277.0588382785278</v>
+        <v>80.08361853967295</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>101.0141548210092</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="C6" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="D6" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="E6" t="n">
-        <v>7.413195943128176</v>
+        <v>80.08361853967295</v>
       </c>
       <c r="F6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K6" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L6" t="n">
-        <v>81.81537555601327</v>
+        <v>67.70305091229125</v>
       </c>
       <c r="M6" t="n">
-        <v>173.5536753522244</v>
+        <v>106.0235080696298</v>
       </c>
       <c r="N6" t="n">
-        <v>265.2919751484357</v>
+        <v>178.7532657889899</v>
       </c>
       <c r="O6" t="n">
-        <v>317.2247932514005</v>
+        <v>251.4830235083501</v>
       </c>
       <c r="P6" t="n">
-        <v>370.6597971564088</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="Q6" t="n">
-        <v>370.6597971564088</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="R6" t="n">
-        <v>370.6597971564088</v>
+        <v>293.8576069469096</v>
       </c>
       <c r="S6" t="n">
-        <v>370.6597971564088</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="T6" t="n">
-        <v>370.6597971564088</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="U6" t="n">
-        <v>370.6597971564088</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="V6" t="n">
-        <v>277.0588382785278</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="W6" t="n">
-        <v>183.4578794006468</v>
+        <v>219.6511405461749</v>
       </c>
       <c r="X6" t="n">
-        <v>183.4578794006468</v>
+        <v>145.4446741454401</v>
       </c>
       <c r="Y6" t="n">
-        <v>183.4578794006468</v>
+        <v>145.4446741454401</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="C7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="D7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="E7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="F7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="G7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="H7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="I7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="J7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="K7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="L7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="M7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="N7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="O7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="P7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Q7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="R7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="S7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="T7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="U7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="V7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="W7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="X7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.413195943128176</v>
+        <v>5.877152138938193</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.2055292623982</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="C8" t="n">
-        <v>335.2055292623982</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="D8" t="n">
-        <v>235.4592352845873</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="E8" t="n">
-        <v>235.4592352845873</v>
+        <v>254.2417925668748</v>
       </c>
       <c r="F8" t="n">
-        <v>122.2141240472906</v>
+        <v>140.9966813295781</v>
       </c>
       <c r="G8" t="n">
-        <v>8.969012809993897</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="H8" t="n">
-        <v>8.969012809993897</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="I8" t="n">
-        <v>8.969012809993897</v>
+        <v>27.75157009228141</v>
       </c>
       <c r="J8" t="n">
         <v>8.969012809993897</v>
@@ -4843,13 +4843,13 @@
         <v>448.4506404996948</v>
       </c>
       <c r="W8" t="n">
-        <v>448.4506404996948</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="X8" t="n">
-        <v>448.4506404996948</v>
+        <v>367.4869038041714</v>
       </c>
       <c r="Y8" t="n">
-        <v>448.4506404996948</v>
+        <v>367.4869038041714</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>129.6855173537535</v>
+        <v>325.8554698928816</v>
       </c>
       <c r="C9" t="n">
-        <v>129.6855173537535</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="D9" t="n">
-        <v>129.6855173537535</v>
+        <v>235.4592352845873</v>
       </c>
       <c r="E9" t="n">
-        <v>129.6855173537535</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="F9" t="n">
-        <v>129.6855173537535</v>
+        <v>122.2141240472906</v>
       </c>
       <c r="G9" t="n">
-        <v>16.44040611645686</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44040611645686</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="I9" t="n">
         <v>8.969012809993897</v>
@@ -4907,28 +4907,28 @@
         <v>439.1005811301782</v>
       </c>
       <c r="R9" t="n">
-        <v>356.1757398283469</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="S9" t="n">
-        <v>356.1757398283469</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="T9" t="n">
-        <v>242.9306285910502</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="U9" t="n">
-        <v>242.9306285910502</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="V9" t="n">
-        <v>242.9306285910502</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="W9" t="n">
-        <v>129.6855173537535</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="X9" t="n">
-        <v>129.6855173537535</v>
+        <v>439.1005811301782</v>
       </c>
       <c r="Y9" t="n">
-        <v>129.6855173537535</v>
+        <v>439.1005811301782</v>
       </c>
     </row>
     <row r="10">
@@ -5001,7 +5001,7 @@
         <v>12.63101027343186</v>
       </c>
       <c r="W10" t="n">
-        <v>12.63101027343186</v>
+        <v>8.969012809993897</v>
       </c>
       <c r="X10" t="n">
         <v>8.969012809993897</v>
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>204.4218319897904</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="C11" t="n">
-        <v>204.4218319897904</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="D11" t="n">
-        <v>15.0020469733056</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="E11" t="n">
-        <v>15.0020469733056</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="F11" t="n">
-        <v>15.0020469733056</v>
+        <v>21.46338433294346</v>
       </c>
       <c r="G11" t="n">
         <v>15.0020469733056</v>
@@ -5041,25 +5041,25 @@
         <v>15.0020469733056</v>
       </c>
       <c r="J11" t="n">
-        <v>21.03371160678535</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K11" t="n">
-        <v>80.81213159059007</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L11" t="n">
-        <v>191.8743094079192</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M11" t="n">
-        <v>347.1218190644761</v>
+        <v>347.1218190644754</v>
       </c>
       <c r="N11" t="n">
-        <v>509.4952041123834</v>
+        <v>509.4952041123828</v>
       </c>
       <c r="O11" t="n">
-        <v>649.4845259985586</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P11" t="n">
-        <v>734.4611726020267</v>
+        <v>734.4611726020266</v>
       </c>
       <c r="Q11" t="n">
         <v>750.1023486652798</v>
@@ -5068,25 +5068,25 @@
         <v>750.1023486652798</v>
       </c>
       <c r="S11" t="n">
-        <v>750.1023486652798</v>
+        <v>589.7227393823979</v>
       </c>
       <c r="T11" t="n">
-        <v>750.1023486652798</v>
+        <v>400.3029543659131</v>
       </c>
       <c r="U11" t="n">
-        <v>560.6825636487949</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="V11" t="n">
-        <v>371.2627786323101</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="W11" t="n">
-        <v>204.4218319897904</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="X11" t="n">
-        <v>204.4218319897904</v>
+        <v>210.8831693494283</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.4218319897904</v>
+        <v>210.8831693494283</v>
       </c>
     </row>
     <row r="12">
@@ -5096,16 +5096,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>301.4756378121077</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="C12" t="n">
-        <v>301.4756378121077</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D12" t="n">
-        <v>152.5412281508565</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E12" t="n">
-        <v>152.5412281508565</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F12" t="n">
         <v>152.5412281508565</v>
@@ -5123,16 +5123,16 @@
         <v>15.0020469733056</v>
       </c>
       <c r="K12" t="n">
-        <v>67.13418877024242</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L12" t="n">
-        <v>183.5548280772652</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M12" t="n">
-        <v>338.7690911140247</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N12" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O12" t="n">
         <v>649.2101578476349</v>
@@ -5144,28 +5144,28 @@
         <v>750.1023486652798</v>
       </c>
       <c r="R12" t="n">
-        <v>676.937807626428</v>
+        <v>750.1023486652798</v>
       </c>
       <c r="S12" t="n">
-        <v>676.937807626428</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="T12" t="n">
-        <v>676.937807626428</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="U12" t="n">
-        <v>487.5180226099432</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="V12" t="n">
-        <v>487.5180226099432</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="W12" t="n">
-        <v>487.5180226099432</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="X12" t="n">
-        <v>301.4756378121077</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="Y12" t="n">
-        <v>301.4756378121077</v>
+        <v>607.2476507906783</v>
       </c>
     </row>
     <row r="13">
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="C13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="D13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="E13" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="F13" t="n">
-        <v>67.74542702828975</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G13" t="n">
         <v>15.0020469733056</v>
@@ -5205,46 +5205,46 @@
         <v>15.0020469733056</v>
       </c>
       <c r="L13" t="n">
-        <v>27.03967056230173</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M13" t="n">
-        <v>42.98993985170711</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N13" t="n">
-        <v>66.41847329396326</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="X13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Y13" t="n">
-        <v>67.74542702828975</v>
+        <v>67.74542702828987</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>393.8416170062749</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="C14" t="n">
-        <v>204.4218319897902</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="D14" t="n">
-        <v>15.00204697330558</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="E14" t="n">
-        <v>15.00204697330558</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="F14" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G14" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H14" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I14" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J14" t="n">
         <v>21.03371160678478</v>
       </c>
       <c r="K14" t="n">
-        <v>80.81213159058922</v>
+        <v>80.81213159058939</v>
       </c>
       <c r="L14" t="n">
-        <v>191.8743094079181</v>
+        <v>191.8743094079184</v>
       </c>
       <c r="M14" t="n">
-        <v>347.1218190644751</v>
+        <v>347.1218190644753</v>
       </c>
       <c r="N14" t="n">
-        <v>509.4952041123825</v>
+        <v>509.4952041123827</v>
       </c>
       <c r="O14" t="n">
-        <v>649.4845259985578</v>
+        <v>649.4845259985582</v>
       </c>
       <c r="P14" t="n">
-        <v>734.4611726020261</v>
+        <v>734.4611726020264</v>
       </c>
       <c r="Q14" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="R14" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="S14" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="T14" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652796</v>
       </c>
       <c r="U14" t="n">
-        <v>583.2614020227595</v>
+        <v>583.2614020227599</v>
       </c>
       <c r="V14" t="n">
-        <v>393.8416170062749</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="W14" t="n">
-        <v>393.8416170062749</v>
+        <v>393.8416170062751</v>
       </c>
       <c r="X14" t="n">
-        <v>393.8416170062749</v>
+        <v>204.4218319897903</v>
       </c>
       <c r="Y14" t="n">
-        <v>393.8416170062749</v>
+        <v>204.4218319897903</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>422.6344209122192</v>
+        <v>392.4672266287269</v>
       </c>
       <c r="C15" t="n">
-        <v>422.6344209122192</v>
+        <v>218.0141973475999</v>
       </c>
       <c r="D15" t="n">
-        <v>422.6344209122192</v>
+        <v>69.07978768634862</v>
       </c>
       <c r="E15" t="n">
-        <v>263.3969659067637</v>
+        <v>69.07978768634862</v>
       </c>
       <c r="F15" t="n">
-        <v>116.8624079336487</v>
+        <v>69.07978768634862</v>
       </c>
       <c r="G15" t="n">
-        <v>116.8624079336487</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H15" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I15" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J15" t="n">
-        <v>15.0020469733055</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K15" t="n">
-        <v>67.13418877024199</v>
+        <v>67.13418877024213</v>
       </c>
       <c r="L15" t="n">
-        <v>183.5548280772647</v>
+        <v>183.5548280772649</v>
       </c>
       <c r="M15" t="n">
-        <v>338.7690911140241</v>
+        <v>338.7690911140244</v>
       </c>
       <c r="N15" t="n">
-        <v>512.5000587546598</v>
+        <v>512.5000587546601</v>
       </c>
       <c r="O15" t="n">
-        <v>649.2101578476344</v>
+        <v>649.2101578476348</v>
       </c>
       <c r="P15" t="n">
-        <v>739.5989987017057</v>
+        <v>739.5989987017063</v>
       </c>
       <c r="Q15" t="n">
-        <v>750.1023486652791</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="R15" t="n">
-        <v>742.132833377691</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="S15" t="n">
-        <v>590.8497579322873</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="T15" t="n">
-        <v>590.8497579322873</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="U15" t="n">
-        <v>590.8497579322873</v>
+        <v>750.1023486652797</v>
       </c>
       <c r="V15" t="n">
-        <v>590.8497579322873</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="W15" t="n">
-        <v>590.8497579322873</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="X15" t="n">
-        <v>590.8497579322873</v>
+        <v>560.6825636487949</v>
       </c>
       <c r="Y15" t="n">
-        <v>590.8497579322873</v>
+        <v>560.6825636487949</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="C16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="D16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="E16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="F16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="G16" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="H16" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="I16" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="J16" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="K16" t="n">
-        <v>15.00204697330558</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="L16" t="n">
-        <v>27.03967056230172</v>
+        <v>27.03967056230176</v>
       </c>
       <c r="M16" t="n">
-        <v>42.98993985170709</v>
+        <v>42.98993985170716</v>
       </c>
       <c r="N16" t="n">
-        <v>66.41847329396325</v>
+        <v>66.41847329396334</v>
       </c>
       <c r="O16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="P16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="Q16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="R16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="S16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="T16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="U16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="V16" t="n">
-        <v>67.74542702828974</v>
+        <v>67.74542702828987</v>
       </c>
       <c r="W16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="X16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
       <c r="Y16" t="n">
-        <v>67.74542702828974</v>
+        <v>15.00204697330559</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>340.7369884591072</v>
+        <v>709.1041690612603</v>
       </c>
       <c r="C17" t="n">
-        <v>340.7369884591072</v>
+        <v>709.1041690612603</v>
       </c>
       <c r="D17" t="n">
-        <v>340.7369884591072</v>
+        <v>709.1041690612603</v>
       </c>
       <c r="E17" t="n">
-        <v>340.7369884591072</v>
+        <v>709.1041690612603</v>
       </c>
       <c r="F17" t="n">
-        <v>340.7369884591072</v>
+        <v>368.0575313827011</v>
       </c>
       <c r="G17" t="n">
-        <v>340.7369884591072</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H17" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I17" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J17" t="n">
-        <v>68.34610104031958</v>
+        <v>76.69148555090112</v>
       </c>
       <c r="K17" t="n">
-        <v>183.7340411072832</v>
+        <v>201.8883326102883</v>
       </c>
       <c r="L17" t="n">
-        <v>363.7847459179055</v>
+        <v>394.1078539078999</v>
       </c>
       <c r="M17" t="n">
-        <v>595.7952845205591</v>
+        <v>639.6585455322479</v>
       </c>
       <c r="N17" t="n">
-        <v>836.1738045761867</v>
+        <v>893.7963124412554</v>
       </c>
       <c r="O17" t="n">
-        <v>1049.821163484945</v>
+        <v>1120.436137987355</v>
       </c>
       <c r="P17" t="n">
-        <v>1197.663240548273</v>
+        <v>1279.366984734315</v>
       </c>
       <c r="Q17" t="n">
-        <v>1260.51373679179</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="R17" t="n">
-        <v>1260.51373679179</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="S17" t="n">
-        <v>1260.51373679179</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="T17" t="n">
-        <v>1260.51373679179</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="U17" t="n">
-        <v>1006.843096602517</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="V17" t="n">
-        <v>688.5315469076211</v>
+        <v>1019.481797863524</v>
       </c>
       <c r="W17" t="n">
-        <v>370.2199972127246</v>
+        <v>1019.481797863524</v>
       </c>
       <c r="X17" t="n">
-        <v>370.2199972127246</v>
+        <v>1019.481797863524</v>
       </c>
       <c r="Y17" t="n">
-        <v>370.2199972127246</v>
+        <v>709.1041690612603</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>455.2555900890661</v>
+        <v>266.4836971461145</v>
       </c>
       <c r="C18" t="n">
-        <v>382.2649852526422</v>
+        <v>92.03066786498746</v>
       </c>
       <c r="D18" t="n">
-        <v>382.2649852526422</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="E18" t="n">
-        <v>223.0275302471867</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="F18" t="n">
-        <v>76.49297227407165</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="G18" t="n">
-        <v>76.49297227407165</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H18" t="n">
-        <v>76.49297227407165</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I18" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J18" t="n">
-        <v>32.08383041579975</v>
+        <v>37.78246690495249</v>
       </c>
       <c r="K18" t="n">
-        <v>121.9866566016237</v>
+        <v>134.3476259009992</v>
       </c>
       <c r="L18" t="n">
-        <v>289.194642261469</v>
+        <v>310.5139402071244</v>
       </c>
       <c r="M18" t="n">
-        <v>503.6753430076025</v>
+        <v>535.4485879464016</v>
       </c>
       <c r="N18" t="n">
-        <v>738.24135461099</v>
+        <v>780.7452314131514</v>
       </c>
       <c r="O18" t="n">
-        <v>930.6036338393361</v>
+        <v>982.9239423973755</v>
       </c>
       <c r="P18" t="n">
-        <v>1065.658255634912</v>
+        <v>1125.857116108955</v>
       </c>
       <c r="Q18" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076545</v>
       </c>
       <c r="R18" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076545</v>
       </c>
       <c r="S18" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076545</v>
       </c>
       <c r="T18" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076545</v>
       </c>
       <c r="U18" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076545</v>
       </c>
       <c r="V18" t="n">
-        <v>870.8673890595528</v>
+        <v>936.3328528448028</v>
       </c>
       <c r="W18" t="n">
-        <v>870.8673890595528</v>
+        <v>682.0954961166012</v>
       </c>
       <c r="X18" t="n">
-        <v>663.01588885402</v>
+        <v>474.2439959110684</v>
       </c>
       <c r="Y18" t="n">
-        <v>455.2555900890661</v>
+        <v>266.4836971461145</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="C19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="D19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="E19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="F19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="G19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="K19" t="n">
-        <v>34.03013544641156</v>
+        <v>39.84944722784378</v>
       </c>
       <c r="L19" t="n">
-        <v>75.22231828639593</v>
+        <v>86.18417328111958</v>
       </c>
       <c r="M19" t="n">
-        <v>121.9119825351256</v>
+        <v>138.2959283105014</v>
       </c>
       <c r="N19" t="n">
-        <v>175.3489968304994</v>
+        <v>197.0261081867321</v>
       </c>
       <c r="O19" t="n">
-        <v>204.3936396460516</v>
+        <v>230.9598461398809</v>
       </c>
       <c r="P19" t="n">
-        <v>210.1843780573715</v>
+        <v>240.9340500586992</v>
       </c>
       <c r="Q19" t="n">
-        <v>210.1843780573715</v>
+        <v>240.9340500586992</v>
       </c>
       <c r="R19" t="n">
-        <v>210.1843780573715</v>
+        <v>240.9340500586992</v>
       </c>
       <c r="S19" t="n">
-        <v>210.1843780573715</v>
+        <v>240.9340500586992</v>
       </c>
       <c r="T19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="U19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="V19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="W19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="X19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="Y19" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>892.3607499158879</v>
+        <v>271.8105468766923</v>
       </c>
       <c r="C20" t="n">
-        <v>892.3607499158879</v>
+        <v>271.8105468766923</v>
       </c>
       <c r="D20" t="n">
-        <v>574.0492002209915</v>
+        <v>271.8105468766923</v>
       </c>
       <c r="E20" t="n">
-        <v>574.0492002209915</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="F20" t="n">
-        <v>340.7369884591072</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="G20" t="n">
-        <v>340.7369884591072</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H20" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I20" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J20" t="n">
-        <v>68.34610104031935</v>
+        <v>76.69148555090106</v>
       </c>
       <c r="K20" t="n">
-        <v>183.7340411072831</v>
+        <v>201.8883326102883</v>
       </c>
       <c r="L20" t="n">
-        <v>363.7847459179054</v>
+        <v>394.1078539078999</v>
       </c>
       <c r="M20" t="n">
-        <v>595.7952845205591</v>
+        <v>639.6585455322481</v>
       </c>
       <c r="N20" t="n">
-        <v>836.1738045761866</v>
+        <v>893.7963124412556</v>
       </c>
       <c r="O20" t="n">
-        <v>1049.821163484945</v>
+        <v>1120.436137987355</v>
       </c>
       <c r="P20" t="n">
-        <v>1197.663240548273</v>
+        <v>1279.366984734315</v>
       </c>
       <c r="Q20" t="n">
-        <v>1260.51373679179</v>
+        <v>1350.544685207095</v>
       </c>
       <c r="R20" t="n">
-        <v>1210.672299610784</v>
+        <v>1305.645470817345</v>
       </c>
       <c r="S20" t="n">
-        <v>1210.672299610784</v>
+        <v>1157.222978444754</v>
       </c>
       <c r="T20" t="n">
-        <v>1210.672299610784</v>
+        <v>943.9200718988222</v>
       </c>
       <c r="U20" t="n">
-        <v>1210.672299610784</v>
+        <v>943.9200718988222</v>
       </c>
       <c r="V20" t="n">
-        <v>1210.672299610784</v>
+        <v>612.8571845552516</v>
       </c>
       <c r="W20" t="n">
-        <v>892.3607499158879</v>
+        <v>612.8571845552516</v>
       </c>
       <c r="X20" t="n">
-        <v>892.3607499158879</v>
+        <v>612.8571845552516</v>
       </c>
       <c r="Y20" t="n">
-        <v>892.3607499158879</v>
+        <v>612.8571845552516</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>336.9638299874363</v>
+        <v>618.9757461638862</v>
       </c>
       <c r="C21" t="n">
-        <v>162.5108007063092</v>
+        <v>618.9757461638862</v>
       </c>
       <c r="D21" t="n">
-        <v>162.5108007063092</v>
+        <v>470.041336502635</v>
       </c>
       <c r="E21" t="n">
-        <v>162.5108007063092</v>
+        <v>310.8038814971795</v>
       </c>
       <c r="F21" t="n">
-        <v>162.5108007063092</v>
+        <v>164.2693235240645</v>
       </c>
       <c r="G21" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H21" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I21" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J21" t="n">
-        <v>32.08383041579972</v>
+        <v>37.78246690495251</v>
       </c>
       <c r="K21" t="n">
-        <v>121.9866566016236</v>
+        <v>134.3476259009993</v>
       </c>
       <c r="L21" t="n">
-        <v>289.1946422614689</v>
+        <v>310.5139402071245</v>
       </c>
       <c r="M21" t="n">
-        <v>503.6753430076022</v>
+        <v>535.4485879464019</v>
       </c>
       <c r="N21" t="n">
-        <v>738.2413546109897</v>
+        <v>780.7452314131517</v>
       </c>
       <c r="O21" t="n">
-        <v>930.6036338393358</v>
+        <v>982.9239423973759</v>
       </c>
       <c r="P21" t="n">
-        <v>1065.658255634912</v>
+        <v>1125.857116108955</v>
       </c>
       <c r="Q21" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076546</v>
       </c>
       <c r="R21" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076546</v>
       </c>
       <c r="S21" t="n">
-        <v>1106.019497291295</v>
+        <v>1171.484961076546</v>
       </c>
       <c r="T21" t="n">
-        <v>1106.019497291295</v>
+        <v>975.2331539531516</v>
       </c>
       <c r="U21" t="n">
-        <v>1106.019497291295</v>
+        <v>975.2331539531516</v>
       </c>
       <c r="V21" t="n">
-        <v>1106.019497291295</v>
+        <v>975.2331539531516</v>
       </c>
       <c r="W21" t="n">
-        <v>851.7821405630934</v>
+        <v>720.9957972249499</v>
       </c>
       <c r="X21" t="n">
-        <v>643.9306403575606</v>
+        <v>720.9957972249499</v>
       </c>
       <c r="Y21" t="n">
-        <v>436.1703415926067</v>
+        <v>720.9957972249499</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="C22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="D22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="E22" t="n">
-        <v>25.2102747358358</v>
+        <v>195.4643446340407</v>
       </c>
       <c r="F22" t="n">
-        <v>25.2102747358358</v>
+        <v>195.4643446340407</v>
       </c>
       <c r="G22" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="H22" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="I22" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="J22" t="n">
-        <v>25.2102747358358</v>
+        <v>27.01089370414189</v>
       </c>
       <c r="K22" t="n">
-        <v>34.03013544641153</v>
+        <v>39.8494472278438</v>
       </c>
       <c r="L22" t="n">
-        <v>75.22231828639585</v>
+        <v>86.18417328111963</v>
       </c>
       <c r="M22" t="n">
-        <v>121.9119825351255</v>
+        <v>138.2959283105014</v>
       </c>
       <c r="N22" t="n">
-        <v>175.3489968304992</v>
+        <v>197.0261081867322</v>
       </c>
       <c r="O22" t="n">
-        <v>204.3936396460514</v>
+        <v>230.959846139881</v>
       </c>
       <c r="P22" t="n">
-        <v>210.1843780573713</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="Q22" t="n">
-        <v>210.1843780573713</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="R22" t="n">
-        <v>210.1843780573713</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="S22" t="n">
-        <v>210.1843780573713</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="T22" t="n">
-        <v>210.1843780573713</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="U22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="V22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="W22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="X22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
       <c r="Y22" t="n">
-        <v>25.2102747358358</v>
+        <v>240.9340500586994</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1583.789775223591</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C23" t="n">
-        <v>1282.40733099633</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D23" t="n">
-        <v>924.1416323895796</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E23" t="n">
-        <v>538.3533797913353</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F23" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H23" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I23" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J23" t="n">
-        <v>152.5078184301906</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K23" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L23" t="n">
-        <v>669.5878927711872</v>
+        <v>669.587892771186</v>
       </c>
       <c r="M23" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N23" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O23" t="n">
         <v>1761.960612545596</v>
       </c>
       <c r="P23" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R23" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S23" t="n">
-        <v>2168.459826904653</v>
+        <v>2051.018448751684</v>
       </c>
       <c r="T23" t="n">
-        <v>2168.459826904653</v>
+        <v>1840.844450903599</v>
       </c>
       <c r="U23" t="n">
-        <v>1914.852662567162</v>
+        <v>1587.237286566108</v>
       </c>
       <c r="V23" t="n">
-        <v>1583.789775223591</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="W23" t="n">
-        <v>1583.789775223591</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="X23" t="n">
-        <v>1583.789775223591</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="Y23" t="n">
-        <v>1583.789775223591</v>
+        <v>1256.174399222538</v>
       </c>
     </row>
     <row r="24">
@@ -6044,31 +6044,31 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>525.9940904859268</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="C24" t="n">
-        <v>351.5410612047998</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="D24" t="n">
-        <v>202.6066515435486</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E24" t="n">
-        <v>43.36919653809306</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F24" t="n">
-        <v>43.36919653809306</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G24" t="n">
-        <v>43.36919653809306</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I24" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J24" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K24" t="n">
         <v>246.6448318504519</v>
@@ -6095,25 +6095,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S24" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T24" t="n">
-        <v>1599.210691436426</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U24" t="n">
-        <v>1599.210691436426</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V24" t="n">
-        <v>1364.058583204683</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W24" t="n">
-        <v>1109.821226476482</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="X24" t="n">
-        <v>901.9697262709487</v>
+        <v>715.0610104825005</v>
       </c>
       <c r="Y24" t="n">
-        <v>694.2094275059949</v>
+        <v>715.0610104825005</v>
       </c>
     </row>
     <row r="25">
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>491.4391430290292</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C25" t="n">
-        <v>491.4391430290292</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D25" t="n">
-        <v>341.3225036166935</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E25" t="n">
-        <v>193.4094100343004</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F25" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G25" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J25" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K25" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L25" t="n">
         <v>185.7706748018941</v>
@@ -6180,19 +6180,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U25" t="n">
-        <v>520.2893470405991</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="V25" t="n">
-        <v>520.2893470405991</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="W25" t="n">
-        <v>520.2893470405991</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="X25" t="n">
-        <v>520.2893470405991</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="Y25" t="n">
-        <v>520.2893470405991</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1231.021119953477</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="C26" t="n">
-        <v>1228.651845231044</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="D26" t="n">
-        <v>870.3861466242934</v>
+        <v>1126.362585684217</v>
       </c>
       <c r="E26" t="n">
         <v>870.3861466242934</v>
@@ -6259,19 +6259,19 @@
         <v>2168.459826904653</v>
       </c>
       <c r="U26" t="n">
-        <v>1914.852662567162</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="V26" t="n">
-        <v>1583.789775223591</v>
+        <v>1837.396939561082</v>
       </c>
       <c r="W26" t="n">
-        <v>1231.021119953477</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="X26" t="n">
-        <v>1231.021119953477</v>
+        <v>1484.628284290968</v>
       </c>
       <c r="Y26" t="n">
-        <v>1231.021119953477</v>
+        <v>1484.628284290968</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>299.4492115120137</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="C27" t="n">
-        <v>192.3036061993443</v>
+        <v>464.9088565162518</v>
       </c>
       <c r="D27" t="n">
-        <v>43.36919653809306</v>
+        <v>315.9744468550005</v>
       </c>
       <c r="E27" t="n">
-        <v>43.36919653809306</v>
+        <v>189.9037545112081</v>
       </c>
       <c r="F27" t="n">
         <v>43.36919653809306</v>
@@ -6332,25 +6332,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S27" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T27" t="n">
-        <v>1432.552065309181</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U27" t="n">
-        <v>1204.450475442445</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V27" t="n">
-        <v>969.2983672107021</v>
+        <v>1302.973349235008</v>
       </c>
       <c r="W27" t="n">
-        <v>715.0610104825005</v>
+        <v>1048.735992506806</v>
       </c>
       <c r="X27" t="n">
-        <v>507.2095102769676</v>
+        <v>840.8844923012737</v>
       </c>
       <c r="Y27" t="n">
-        <v>299.4492115120137</v>
+        <v>633.1241935363198</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>511.6588788516177</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C28" t="n">
-        <v>511.6588788516177</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D28" t="n">
-        <v>361.542239439282</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E28" t="n">
-        <v>361.542239439282</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F28" t="n">
-        <v>361.542239439282</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G28" t="n">
-        <v>193.4094100343004</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H28" t="n">
         <v>43.36919653809306</v>
@@ -6417,19 +6417,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U28" t="n">
-        <v>511.6588788516177</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="V28" t="n">
-        <v>511.6588788516177</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="W28" t="n">
-        <v>511.6588788516177</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="X28" t="n">
-        <v>511.6588788516177</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="Y28" t="n">
-        <v>511.6588788516177</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1256.740097465976</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="C29" t="n">
-        <v>1256.740097465976</v>
+        <v>1228.651845231044</v>
       </c>
       <c r="D29" t="n">
-        <v>1256.740097465976</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="E29" t="n">
-        <v>1256.740097465976</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F29" t="n">
-        <v>845.7541926763687</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G29" t="n">
-        <v>429.7231473797759</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H29" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I29" t="n">
         <v>43.36919653809304</v>
@@ -6469,7 +6469,7 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L29" t="n">
-        <v>669.5878927711863</v>
+        <v>669.587892771186</v>
       </c>
       <c r="M29" t="n">
         <v>1038.148464578729</v>
@@ -6490,25 +6490,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S29" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T29" t="n">
-        <v>2168.459826904652</v>
+        <v>1826.151173794698</v>
       </c>
       <c r="U29" t="n">
-        <v>2168.459826904652</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="V29" t="n">
-        <v>2168.459826904652</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="W29" t="n">
-        <v>1815.691171634538</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="X29" t="n">
-        <v>1643.339937530098</v>
+        <v>1572.544009457207</v>
       </c>
       <c r="Y29" t="n">
-        <v>1643.339937530098</v>
+        <v>1572.544009457207</v>
       </c>
     </row>
     <row r="30">
@@ -6518,25 +6518,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>366.7566354804713</v>
+        <v>804.6501442579348</v>
       </c>
       <c r="C30" t="n">
-        <v>192.3036061993443</v>
+        <v>630.1971149768078</v>
       </c>
       <c r="D30" t="n">
-        <v>43.36919653809304</v>
+        <v>481.2627053155565</v>
       </c>
       <c r="E30" t="n">
-        <v>43.36919653809304</v>
+        <v>322.025250310101</v>
       </c>
       <c r="F30" t="n">
-        <v>43.36919653809304</v>
+        <v>175.490692336986</v>
       </c>
       <c r="G30" t="n">
-        <v>43.36919653809304</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H30" t="n">
-        <v>43.36919653809304</v>
+        <v>80.03532540581915</v>
       </c>
       <c r="I30" t="n">
         <v>43.36919653809304</v>
@@ -6569,25 +6569,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S30" t="n">
-        <v>1668.074826297706</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T30" t="n">
-        <v>1668.074826297706</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U30" t="n">
-        <v>1439.97323643097</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="V30" t="n">
-        <v>1204.821128199228</v>
+        <v>1392.110278603462</v>
       </c>
       <c r="W30" t="n">
-        <v>950.583771471026</v>
+        <v>1137.87292187526</v>
       </c>
       <c r="X30" t="n">
-        <v>742.7322712654932</v>
+        <v>1137.87292187526</v>
       </c>
       <c r="Y30" t="n">
-        <v>534.9719725005393</v>
+        <v>972.8654812780028</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>190.2591440360034</v>
+        <v>212.3053794659999</v>
       </c>
       <c r="C31" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="D31" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="E31" t="n">
-        <v>190.2591440360034</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F31" t="n">
         <v>43.36919653809304</v>
@@ -6654,19 +6654,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U31" t="n">
-        <v>231.1630260146226</v>
+        <v>501.7225495029605</v>
       </c>
       <c r="V31" t="n">
-        <v>231.1630260146226</v>
+        <v>501.7225495029605</v>
       </c>
       <c r="W31" t="n">
-        <v>231.1630260146226</v>
+        <v>212.3053794659999</v>
       </c>
       <c r="X31" t="n">
-        <v>231.1630260146226</v>
+        <v>212.3053794659999</v>
       </c>
       <c r="Y31" t="n">
-        <v>190.2591440360034</v>
+        <v>212.3053794659999</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.1433539259449</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C32" t="n">
-        <v>840.1433539259449</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D32" t="n">
-        <v>840.1433539259449</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E32" t="n">
-        <v>454.3551013277006</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F32" t="n">
-        <v>43.36919653809306</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G32" t="n">
         <v>43.36919653809306</v>
@@ -6700,19 +6700,19 @@
         <v>43.36919653809306</v>
       </c>
       <c r="J32" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301904</v>
       </c>
       <c r="K32" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232721</v>
       </c>
       <c r="L32" t="n">
-        <v>669.5878927711867</v>
+        <v>669.5878927711869</v>
       </c>
       <c r="M32" t="n">
         <v>1038.14846457873</v>
       </c>
       <c r="N32" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135167</v>
       </c>
       <c r="O32" t="n">
         <v>1761.960612545596</v>
@@ -6727,25 +6727,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T32" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U32" t="n">
-        <v>1990.348284226958</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="V32" t="n">
-        <v>1990.348284226958</v>
+        <v>1782.718007305293</v>
       </c>
       <c r="W32" t="n">
-        <v>1990.348284226958</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="X32" t="n">
-        <v>1616.882525965878</v>
+        <v>1429.949352035179</v>
       </c>
       <c r="Y32" t="n">
-        <v>1226.743193990067</v>
+        <v>1256.174399222538</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>722.2611229047736</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="C33" t="n">
-        <v>547.8080936236466</v>
+        <v>730.4069798939659</v>
       </c>
       <c r="D33" t="n">
-        <v>398.8736839623954</v>
+        <v>581.4725702327146</v>
       </c>
       <c r="E33" t="n">
-        <v>239.6362289569399</v>
+        <v>422.235115227259</v>
       </c>
       <c r="F33" t="n">
-        <v>239.6362289569399</v>
+        <v>275.700557254144</v>
       </c>
       <c r="G33" t="n">
-        <v>102.7602351720558</v>
+        <v>138.8245634692599</v>
       </c>
       <c r="H33" t="n">
-        <v>80.03532540581918</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I33" t="n">
         <v>43.36919653809306</v>
@@ -6806,25 +6806,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S33" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="T33" t="n">
-        <v>1627.262386835205</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="U33" t="n">
-        <v>1627.262386835205</v>
+        <v>1538.125457466751</v>
       </c>
       <c r="V33" t="n">
-        <v>1392.110278603462</v>
+        <v>1360.711173847768</v>
       </c>
       <c r="W33" t="n">
-        <v>1137.87292187526</v>
+        <v>1106.473817119567</v>
       </c>
       <c r="X33" t="n">
-        <v>930.0214216697275</v>
+        <v>898.6223169140339</v>
       </c>
       <c r="Y33" t="n">
-        <v>722.2611229047736</v>
+        <v>898.6223169140339</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="F34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G34" t="n">
         <v>43.36919653809306</v>
@@ -6891,19 +6891,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U34" t="n">
-        <v>231.1630260146226</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="V34" t="n">
-        <v>231.1630260146226</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="W34" t="n">
-        <v>231.1630260146226</v>
+        <v>271.3587474361104</v>
       </c>
       <c r="X34" t="n">
-        <v>231.1630260146226</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y34" t="n">
-        <v>211.5020259430747</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1409.252249044213</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="C35" t="n">
-        <v>1040.289732103801</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="D35" t="n">
-        <v>1040.289732103801</v>
+        <v>1335.127537179187</v>
       </c>
       <c r="E35" t="n">
-        <v>766.8010547197192</v>
+        <v>949.3392845809428</v>
       </c>
       <c r="F35" t="n">
-        <v>766.8010547197192</v>
+        <v>538.3533797913353</v>
       </c>
       <c r="G35" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H35" t="n">
-        <v>43.36919653809306</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I35" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J35" t="n">
-        <v>152.50781843019</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K35" t="n">
         <v>366.8168396232717</v>
       </c>
       <c r="L35" t="n">
-        <v>669.5878927711866</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M35" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N35" t="n">
         <v>1417.286540135166</v>
       </c>
       <c r="O35" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P35" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R35" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S35" t="n">
-        <v>2036.325171642784</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="T35" t="n">
-        <v>2036.325171642784</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="U35" t="n">
-        <v>1782.718007305293</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="V35" t="n">
-        <v>1782.718007305293</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="W35" t="n">
-        <v>1782.718007305293</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="X35" t="n">
-        <v>1409.252249044213</v>
+        <v>2111.866709219121</v>
       </c>
       <c r="Y35" t="n">
-        <v>1409.252249044213</v>
+        <v>1721.727377243309</v>
       </c>
     </row>
     <row r="36">
@@ -6992,28 +6992,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>687.1574648836308</v>
+        <v>580.1815527461713</v>
       </c>
       <c r="C36" t="n">
-        <v>512.7044356025038</v>
+        <v>405.7285234650443</v>
       </c>
       <c r="D36" t="n">
-        <v>363.7700259412526</v>
+        <v>339.4826453284326</v>
       </c>
       <c r="E36" t="n">
-        <v>204.5325709357971</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="F36" t="n">
-        <v>57.99801296268205</v>
+        <v>180.2451903229771</v>
       </c>
       <c r="G36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I36" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J36" t="n">
         <v>89.55356510562316</v>
@@ -7040,28 +7040,28 @@
         <v>1766.227047333487</v>
       </c>
       <c r="R36" t="n">
-        <v>1734.238298972664</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="S36" t="n">
-        <v>1734.238298972664</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T36" t="n">
-        <v>1734.238298972664</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U36" t="n">
-        <v>1506.136709105928</v>
+        <v>1399.160796968469</v>
       </c>
       <c r="V36" t="n">
-        <v>1270.984600874186</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W36" t="n">
-        <v>1270.984600874186</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="X36" t="n">
-        <v>1063.133100668653</v>
+        <v>956.1571885311932</v>
       </c>
       <c r="Y36" t="n">
-        <v>855.3728019036989</v>
+        <v>748.3968897662394</v>
       </c>
     </row>
     <row r="37">
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>510.3351124607289</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="C37" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="D37" t="n">
-        <v>191.2822901204862</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="E37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="F37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="H37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="I37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="J37" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="K37" t="n">
         <v>92.71685897981521</v>
@@ -7128,19 +7128,19 @@
         <v>520.2893470405991</v>
       </c>
       <c r="U37" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V37" t="n">
-        <v>520.2893470405991</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="X37" t="n">
-        <v>520.2893470405991</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="Y37" t="n">
-        <v>510.3351124607289</v>
+        <v>43.36919653809305</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1210.324016962511</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C38" t="n">
-        <v>841.3615000220998</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D38" t="n">
-        <v>841.3615000220998</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E38" t="n">
-        <v>455.5732474238555</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F38" t="n">
-        <v>455.5732474238555</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G38" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H38" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I38" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J38" t="n">
         <v>152.5078184301901</v>
       </c>
       <c r="K38" t="n">
-        <v>366.8168396232722</v>
+        <v>366.8168396232717</v>
       </c>
       <c r="L38" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M38" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N38" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O38" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545595</v>
       </c>
       <c r="P38" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172446</v>
       </c>
       <c r="Q38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="R38" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904652</v>
       </c>
       <c r="S38" t="n">
-        <v>2168.459826904653</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T38" t="n">
-        <v>2168.459826904653</v>
+        <v>2032.913571262471</v>
       </c>
       <c r="U38" t="n">
-        <v>1914.852662567162</v>
+        <v>2032.913571262471</v>
       </c>
       <c r="V38" t="n">
-        <v>1583.789775223591</v>
+        <v>2032.913571262471</v>
       </c>
       <c r="W38" t="n">
-        <v>1583.789775223591</v>
+        <v>2032.913571262471</v>
       </c>
       <c r="X38" t="n">
-        <v>1210.324016962511</v>
+        <v>2032.913571262471</v>
       </c>
       <c r="Y38" t="n">
-        <v>1210.324016962511</v>
+        <v>1642.774239286659</v>
       </c>
     </row>
     <row r="39">
@@ -7229,31 +7229,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>693.0104463829875</v>
+        <v>385.4712312201473</v>
       </c>
       <c r="C39" t="n">
-        <v>518.5574171018606</v>
+        <v>211.0182019390203</v>
       </c>
       <c r="D39" t="n">
-        <v>369.6230074406093</v>
+        <v>202.6066515435485</v>
       </c>
       <c r="E39" t="n">
-        <v>210.3855524351538</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="F39" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I39" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J39" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562314</v>
       </c>
       <c r="K39" t="n">
         <v>246.6448318504519</v>
@@ -7280,25 +7280,25 @@
         <v>1766.227047333487</v>
       </c>
       <c r="S39" t="n">
-        <v>1766.227047333487</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="T39" t="n">
-        <v>1766.227047333487</v>
+        <v>1432.552065309181</v>
       </c>
       <c r="U39" t="n">
-        <v>1766.227047333487</v>
+        <v>1204.450475442445</v>
       </c>
       <c r="V39" t="n">
-        <v>1531.074939101744</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="W39" t="n">
-        <v>1276.837582373542</v>
+        <v>969.2983672107021</v>
       </c>
       <c r="X39" t="n">
-        <v>1068.986082168009</v>
+        <v>761.4468670051692</v>
       </c>
       <c r="Y39" t="n">
-        <v>861.2257834030556</v>
+        <v>553.6865682402154</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>341.3989295328219</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="C40" t="n">
-        <v>341.3989295328219</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="D40" t="n">
-        <v>191.2822901204862</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="E40" t="n">
-        <v>43.36919653809306</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="G40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="H40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="I40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="J40" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809304</v>
       </c>
       <c r="K40" t="n">
-        <v>92.71685897981521</v>
+        <v>92.7168589798152</v>
       </c>
       <c r="L40" t="n">
         <v>185.7706748018941</v>
@@ -7371,13 +7371,13 @@
         <v>520.2893470405991</v>
       </c>
       <c r="W40" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="X40" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
       <c r="Y40" t="n">
-        <v>520.2893470405991</v>
+        <v>230.8721770036385</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1282.40733099633</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="C41" t="n">
-        <v>1282.40733099633</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="D41" t="n">
-        <v>924.1416323895796</v>
+        <v>1256.174399222538</v>
       </c>
       <c r="E41" t="n">
-        <v>538.3533797913353</v>
+        <v>870.3861466242934</v>
       </c>
       <c r="F41" t="n">
-        <v>538.3533797913353</v>
+        <v>459.4002418346858</v>
       </c>
       <c r="G41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H41" t="n">
-        <v>122.3223344947425</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I41" t="n">
         <v>43.36919653809306</v>
@@ -7438,25 +7438,25 @@
         <v>2168.459826904653</v>
       </c>
       <c r="S41" t="n">
-        <v>2132.788333246027</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="T41" t="n">
-        <v>1922.614335397943</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="U41" t="n">
-        <v>1669.007171060452</v>
+        <v>2036.325171642784</v>
       </c>
       <c r="V41" t="n">
-        <v>1669.007171060452</v>
+        <v>1705.262284299213</v>
       </c>
       <c r="W41" t="n">
-        <v>1669.007171060452</v>
+        <v>1646.313731198349</v>
       </c>
       <c r="X41" t="n">
-        <v>1669.007171060452</v>
+        <v>1646.313731198349</v>
       </c>
       <c r="Y41" t="n">
-        <v>1669.007171060452</v>
+        <v>1256.174399222538</v>
       </c>
     </row>
     <row r="42">
@@ -7466,25 +7466,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>593.3227314256801</v>
+        <v>794.9915800697039</v>
       </c>
       <c r="C42" t="n">
-        <v>418.8697021445531</v>
+        <v>620.5385507885769</v>
       </c>
       <c r="D42" t="n">
-        <v>269.9352924833019</v>
+        <v>471.6041411273256</v>
       </c>
       <c r="E42" t="n">
-        <v>269.9352924833019</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="F42" t="n">
-        <v>123.4007345101868</v>
+        <v>312.3666861218701</v>
       </c>
       <c r="G42" t="n">
-        <v>43.36919653809306</v>
+        <v>175.490692336986</v>
       </c>
       <c r="H42" t="n">
-        <v>43.36919653809306</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="I42" t="n">
         <v>43.36919653809306</v>
@@ -7520,22 +7520,22 @@
         <v>1627.262386835205</v>
       </c>
       <c r="T42" t="n">
-        <v>1432.552065309181</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="U42" t="n">
-        <v>1204.450475442445</v>
+        <v>1627.262386835205</v>
       </c>
       <c r="V42" t="n">
-        <v>969.2983672107021</v>
+        <v>1392.110278603462</v>
       </c>
       <c r="W42" t="n">
-        <v>969.2983672107021</v>
+        <v>1378.818716060259</v>
       </c>
       <c r="X42" t="n">
-        <v>969.2983672107021</v>
+        <v>1170.967215854726</v>
       </c>
       <c r="Y42" t="n">
-        <v>761.5380684457482</v>
+        <v>963.2069170897719</v>
       </c>
     </row>
     <row r="43">
@@ -7545,13 +7545,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="C43" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="D43" t="n">
-        <v>191.2822901204862</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="E43" t="n">
         <v>43.36919653809306</v>
@@ -7599,22 +7599,22 @@
         <v>520.2893470405991</v>
       </c>
       <c r="T43" t="n">
-        <v>341.3989295328219</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="U43" t="n">
-        <v>341.3989295328219</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="V43" t="n">
-        <v>341.3989295328219</v>
+        <v>332.7863665750536</v>
       </c>
       <c r="W43" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="X43" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="Y43" t="n">
-        <v>341.3989295328219</v>
+        <v>43.36919653809306</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1572.416709980092</v>
+        <v>1005.978835265359</v>
       </c>
       <c r="C44" t="n">
-        <v>1203.454193039681</v>
+        <v>1005.978835265359</v>
       </c>
       <c r="D44" t="n">
-        <v>845.18849443293</v>
+        <v>647.7131366586084</v>
       </c>
       <c r="E44" t="n">
-        <v>459.4002418346858</v>
+        <v>261.9248840603641</v>
       </c>
       <c r="F44" t="n">
-        <v>459.4002418346858</v>
+        <v>43.36919653809305</v>
       </c>
       <c r="G44" t="n">
         <v>43.36919653809305</v>
@@ -7654,13 +7654,13 @@
         <v>366.8168396232717</v>
       </c>
       <c r="L44" t="n">
-        <v>669.5878927711869</v>
+        <v>669.5878927711863</v>
       </c>
       <c r="M44" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578729</v>
       </c>
       <c r="N44" t="n">
-        <v>1417.286540135167</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O44" t="n">
         <v>1761.960612545596</v>
@@ -7675,25 +7675,25 @@
         <v>2168.459826904652</v>
       </c>
       <c r="S44" t="n">
-        <v>2168.459826904652</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="T44" t="n">
-        <v>2157.086761661154</v>
+        <v>2036.325171642783</v>
       </c>
       <c r="U44" t="n">
-        <v>1903.479597323663</v>
+        <v>1782.718007305292</v>
       </c>
       <c r="V44" t="n">
-        <v>1572.416709980092</v>
+        <v>1782.718007305292</v>
       </c>
       <c r="W44" t="n">
-        <v>1572.416709980092</v>
+        <v>1782.718007305292</v>
       </c>
       <c r="X44" t="n">
-        <v>1572.416709980092</v>
+        <v>1782.718007305292</v>
       </c>
       <c r="Y44" t="n">
-        <v>1572.416709980092</v>
+        <v>1392.578675329481</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>719.1462132444528</v>
+        <v>325.9441960179693</v>
       </c>
       <c r="C45" t="n">
-        <v>544.6931839633259</v>
+        <v>325.9441960179693</v>
       </c>
       <c r="D45" t="n">
-        <v>544.6931839633259</v>
+        <v>325.9441960179693</v>
       </c>
       <c r="E45" t="n">
-        <v>385.4557289578703</v>
+        <v>325.9441960179693</v>
       </c>
       <c r="F45" t="n">
-        <v>238.9211709847553</v>
+        <v>216.9113191907033</v>
       </c>
       <c r="G45" t="n">
-        <v>175.490692336986</v>
+        <v>80.03532540581918</v>
       </c>
       <c r="H45" t="n">
         <v>80.03532540581918</v>
@@ -7754,25 +7754,25 @@
         <v>1766.227047333486</v>
       </c>
       <c r="S45" t="n">
-        <v>1766.227047333486</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="T45" t="n">
-        <v>1766.227047333486</v>
+        <v>1627.262386835204</v>
       </c>
       <c r="U45" t="n">
-        <v>1538.12545746675</v>
+        <v>1399.160796968468</v>
       </c>
       <c r="V45" t="n">
-        <v>1302.973349235008</v>
+        <v>1164.008688736726</v>
       </c>
       <c r="W45" t="n">
-        <v>1302.973349235008</v>
+        <v>909.771332008524</v>
       </c>
       <c r="X45" t="n">
-        <v>1095.121849029475</v>
+        <v>701.9198318029912</v>
       </c>
       <c r="Y45" t="n">
-        <v>887.3615502645209</v>
+        <v>494.1595330380373</v>
       </c>
     </row>
     <row r="46">
@@ -7836,19 +7836,19 @@
         <v>520.289347040599</v>
       </c>
       <c r="T46" t="n">
-        <v>520.289347040599</v>
+        <v>296.6854897332225</v>
       </c>
       <c r="U46" t="n">
-        <v>520.289347040599</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="V46" t="n">
-        <v>265.6048588347121</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="W46" t="n">
-        <v>43.36919653809305</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="X46" t="n">
-        <v>43.36919653809305</v>
+        <v>264.1617756816232</v>
       </c>
       <c r="Y46" t="n">
         <v>43.36919653809305</v>
@@ -22549,7 +22549,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>363.4246355629722</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22558,16 +22558,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>357.0810387145868</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>363.9123136306533</v>
+        <v>413.707320657778</v>
       </c>
       <c r="H2" t="n">
-        <v>273.3407321982346</v>
+        <v>323.1357392253592</v>
       </c>
       <c r="I2" t="n">
-        <v>147.1203249691126</v>
+        <v>148.9685811771479</v>
       </c>
       <c r="J2" t="n">
         <v>45.63689302957772</v>
@@ -22609,13 +22609,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>299.4459616902884</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>319.9360936513444</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>336.4429316289289</v>
       </c>
     </row>
     <row r="3">
@@ -22625,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.7381766227427</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>122.9134919611911</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -22640,7 +22640,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.4898938890125</v>
+        <v>92.63045169952113</v>
       </c>
       <c r="H3" t="n">
         <v>103.9912405093721</v>
@@ -22679,7 +22679,7 @@
         <v>155.8274931817798</v>
       </c>
       <c r="T3" t="n">
-        <v>196.7240278659264</v>
+        <v>146.9290208388017</v>
       </c>
       <c r="U3" t="n">
         <v>225.8852226550407</v>
@@ -22694,7 +22694,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>161.823253587813</v>
+        <v>155.8876887501797</v>
       </c>
     </row>
     <row r="4">
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>290.0688923743784</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22792,22 +22792,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>289.2654207831596</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>325.2567584078702</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.4631744246258</v>
+        <v>340.1081206625406</v>
       </c>
       <c r="H5" t="n">
-        <v>320.6353766150897</v>
+        <v>321.7552365603931</v>
       </c>
       <c r="I5" t="n">
-        <v>139.5561335235496</v>
+        <v>143.7717713159392</v>
       </c>
       <c r="J5" t="n">
-        <v>24.91528667358037</v>
+        <v>34.19605933636038</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22828,28 +22828,28 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>23.65357118422324</v>
+        <v>35.46192228085542</v>
       </c>
       <c r="R5" t="n">
-        <v>100.0310828299331</v>
+        <v>106.8999125420449</v>
       </c>
       <c r="S5" t="n">
-        <v>167.1010256612668</v>
+        <v>169.5927926334236</v>
       </c>
       <c r="T5" t="n">
-        <v>215.0431621354273</v>
+        <v>177.9517558837377</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1984878605957</v>
+        <v>251.2072356985671</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>254.2878567334075</v>
       </c>
       <c r="W5" t="n">
-        <v>256.5760194283108</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>296.2666989417417</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84.91389631602611</v>
+        <v>101.8257386001579</v>
       </c>
       <c r="C6" t="n">
-        <v>80.04354969921354</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22874,19 +22874,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>71.60481065665647</v>
       </c>
       <c r="G6" t="n">
-        <v>136.3592641379443</v>
+        <v>136.4177704623012</v>
       </c>
       <c r="H6" t="n">
-        <v>102.729632124056</v>
+        <v>103.294680046134</v>
       </c>
       <c r="I6" t="n">
-        <v>65.63472101605001</v>
+        <v>67.64908349938912</v>
       </c>
       <c r="J6" t="n">
-        <v>33.84730027516773</v>
+        <v>39.37486489346175</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22907,28 +22907,28 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>14.3427387906227</v>
+        <v>21.81101977343823</v>
       </c>
       <c r="R6" t="n">
-        <v>84.56947841277972</v>
+        <v>88.20200265662029</v>
       </c>
       <c r="S6" t="n">
-        <v>153.4011028494393</v>
+        <v>81.02343042697194</v>
       </c>
       <c r="T6" t="n">
-        <v>196.197498299121</v>
+        <v>196.4333198433488</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8766285924705</v>
+        <v>225.8804776927571</v>
       </c>
       <c r="V6" t="n">
-        <v>140.1356378603231</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>159.0300338718174</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>132.3085834667501</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -22956,49 +22956,49 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.1658146852775</v>
+        <v>167.2148644222634</v>
       </c>
       <c r="H7" t="n">
-        <v>154.8907084131551</v>
+        <v>155.3268051656304</v>
       </c>
       <c r="I7" t="n">
-        <v>130.6355227555885</v>
+        <v>132.1105821187667</v>
       </c>
       <c r="J7" t="n">
-        <v>68.65627904547948</v>
+        <v>72.12409545038793</v>
       </c>
       <c r="K7" t="n">
-        <v>33.14412614092828</v>
+        <v>38.84281376529884</v>
       </c>
       <c r="L7" t="n">
-        <v>12.20519387026839</v>
+        <v>19.49755203998329</v>
       </c>
       <c r="M7" t="n">
-        <v>9.577470677924651</v>
+        <v>17.2662399038262</v>
       </c>
       <c r="N7" t="n">
-        <v>1.412844977410202</v>
+        <v>8.918792456364031</v>
       </c>
       <c r="O7" t="n">
-        <v>21.823262646183</v>
+        <v>28.75622001580066</v>
       </c>
       <c r="P7" t="n">
-        <v>37.92808757638606</v>
+        <v>43.86043031148982</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.40871249605685</v>
+        <v>86.51595910858246</v>
       </c>
       <c r="R7" t="n">
-        <v>140.1909870721275</v>
+        <v>142.3964416096969</v>
       </c>
       <c r="S7" t="n">
-        <v>209.6362282325312</v>
+        <v>210.4910313761868</v>
       </c>
       <c r="T7" t="n">
-        <v>224.4198858246887</v>
+        <v>224.6294619736288</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2740203743174</v>
+        <v>286.2766958145166</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>270.6211815385569</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>255.9342105826502</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>269.8177099473381</v>
       </c>
       <c r="F8" t="n">
         <v>294.7633856167877</v>
@@ -23044,7 +23044,7 @@
         <v>136.685125759028</v>
       </c>
       <c r="J8" t="n">
-        <v>18.59473170946464</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23083,7 +23083,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>269.0868693888449</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -23099,16 +23099,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>54.42052352494363</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>83.2162267261044</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>45.53242033047724</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -23120,7 +23120,7 @@
         <v>102.3448132540521</v>
       </c>
       <c r="I9" t="n">
-        <v>56.86618508973145</v>
+        <v>64.26286446312977</v>
       </c>
       <c r="J9" t="n">
         <v>30.08282103867671</v>
@@ -23147,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.095592888813</v>
       </c>
       <c r="S9" t="n">
         <v>152.6609993460486</v>
       </c>
       <c r="T9" t="n">
-        <v>83.92423484016749</v>
+        <v>196.0368949650912</v>
       </c>
       <c r="U9" t="n">
         <v>225.8740072105222</v>
@@ -23162,7 +23162,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>139.5823230359959</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -23241,10 +23241,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>282.8976208477874</v>
       </c>
       <c r="X10" t="n">
-        <v>222.0842779002336</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -23263,16 +23263,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>167.157454454363</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G11" t="n">
-        <v>413.097833230058</v>
+        <v>406.7011092440165</v>
       </c>
       <c r="H11" t="n">
         <v>316.8938261062223</v>
@@ -23305,22 +23305,22 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S11" t="n">
-        <v>158.7758131900531</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>213.4438810562068</v>
+        <v>25.91829388988683</v>
       </c>
       <c r="U11" t="n">
         <v>63.64367339871038</v>
       </c>
       <c r="V11" t="n">
-        <v>140.226671303815</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>184.0684315413185</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23345,10 +23345,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23357,10 +23357,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I12" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J12" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S12" t="n">
-        <v>149.7702446909496</v>
+        <v>8.344093795094182</v>
       </c>
       <c r="T12" t="n">
         <v>195.4095977920013</v>
       </c>
       <c r="U12" t="n">
-        <v>38.33818124377098</v>
+        <v>225.8637684100909</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23402,7 +23402,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>21.59102425362033</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>205.6826957773044</v>
@@ -23424,13 +23424,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>94.21801639213474</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>114.7859889482799</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H13" t="n">
         <v>153.4336708318196</v>
@@ -23439,10 +23439,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J13" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K13" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,10 +23457,10 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q13" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R13" t="n">
         <v>132.8223696106904</v>
@@ -23497,16 +23497,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>177.7473046046878</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>167.1574544543632</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>219.3504585753915</v>
       </c>
       <c r="G14" t="n">
         <v>413.097833230058</v>
@@ -23542,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>77.08171901666381</v>
+        <v>77.08171901666378</v>
       </c>
       <c r="S14" t="n">
         <v>158.7758131900531</v>
@@ -23551,16 +23551,16 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U14" t="n">
-        <v>85.99672338893592</v>
+        <v>85.99672338893581</v>
       </c>
       <c r="V14" t="n">
-        <v>140.2266713038151</v>
+        <v>140.226671303815</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>182.2055135121491</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23576,28 +23576,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>136.1637893657753</v>
+        <v>82.62682605986274</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>100.8417573507397</v>
       </c>
       <c r="I15" t="n">
-        <v>58.9045589040915</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J15" t="n">
-        <v>15.37922103265842</v>
+        <v>15.37922103265839</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.54307549375096</v>
+        <v>72.4328956284632</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T15" t="n">
         <v>195.4095977920013</v>
@@ -23633,7 +23633,7 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>45.27499998310537</v>
       </c>
       <c r="W15" t="n">
         <v>251.6949831609196</v>
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>114.7859889482799</v>
+        <v>167.0019352027142</v>
       </c>
       <c r="H16" t="n">
         <v>153.4336708318196</v>
@@ -23676,10 +23676,10 @@
         <v>125.7072197708667</v>
       </c>
       <c r="J16" t="n">
-        <v>57.06999962825419</v>
+        <v>57.06999962825418</v>
       </c>
       <c r="K16" t="n">
-        <v>14.10430989402855</v>
+        <v>14.10430989402852</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,10 +23694,10 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>18.10760906709389</v>
+        <v>18.10760906709386</v>
       </c>
       <c r="Q16" t="n">
-        <v>68.68604055159727</v>
+        <v>68.68604055159726</v>
       </c>
       <c r="R16" t="n">
         <v>132.8223696106904</v>
@@ -23715,7 +23715,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>234.3070520821566</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.5456629973993</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -23743,16 +23743,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>69.23987443993781</v>
       </c>
       <c r="G17" t="n">
-        <v>412.656248509425</v>
+        <v>74.94218652548955</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>311.5737486373495</v>
       </c>
       <c r="I17" t="n">
-        <v>108.4471221777675</v>
+        <v>105.4442416537263</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>49.34302280919542</v>
+        <v>44.45022224585182</v>
       </c>
       <c r="S17" t="n">
-        <v>148.7132013686266</v>
+        <v>146.9382674488655</v>
       </c>
       <c r="T17" t="n">
-        <v>211.5108439416354</v>
+        <v>211.1698774804723</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1277025328068</v>
       </c>
       <c r="V17" t="n">
-        <v>12.62382427218745</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>34.11253451946556</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>78.96408614181269</v>
       </c>
     </row>
     <row r="18">
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>100.4478002002561</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>83.07548914540165</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9275207107687</v>
+        <v>135.8858455217234</v>
       </c>
       <c r="H18" t="n">
-        <v>98.55989955107015</v>
+        <v>98.15740496213243</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>49.33500111545972</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>57.76351369743578</v>
+        <v>55.17599625828849</v>
       </c>
       <c r="S18" t="n">
-        <v>145.381658050804</v>
+        <v>144.6075596928789</v>
       </c>
       <c r="T18" t="n">
-        <v>194.4572693097595</v>
+        <v>194.2892890521601</v>
       </c>
       <c r="U18" t="n">
-        <v>225.84822441963</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23904,16 +23904,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.8038554991351</v>
+        <v>166.7689164205999</v>
       </c>
       <c r="H19" t="n">
-        <v>151.6725621945439</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I19" t="n">
-        <v>119.7504228668708</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J19" t="n">
-        <v>43.06576458521431</v>
+        <v>40.59557173277112</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>52.09956646371758</v>
+        <v>49.17389507836921</v>
       </c>
       <c r="R19" t="n">
-        <v>123.9159858479445</v>
+        <v>122.3449978258043</v>
       </c>
       <c r="S19" t="n">
-        <v>203.3282667794865</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T19" t="n">
-        <v>39.74897065012374</v>
+        <v>10.94012299369078</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2542771459823</v>
+        <v>286.2523713780622</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>45.09767036170695</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>39.5546074227355</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>139.5787134314369</v>
       </c>
       <c r="F20" t="n">
-        <v>175.896956097446</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.656248509425</v>
+        <v>412.5783578272632</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>311.5737486373495</v>
       </c>
       <c r="I20" t="n">
-        <v>108.4471221777675</v>
+        <v>105.4442416537263</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,19 +24019,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>148.7132013686266</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>211.5108439416354</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1339337873797</v>
+        <v>251.1277025328068</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>34.11253451946556</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68.31873716074863</v>
+        <v>65.53333309941432</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>98.55989955107015</v>
+        <v>98.15740496213242</v>
       </c>
       <c r="I21" t="n">
-        <v>50.76987056285351</v>
+        <v>49.33500111545971</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,16 +24095,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>57.7635136974358</v>
+        <v>55.17599625828848</v>
       </c>
       <c r="S21" t="n">
-        <v>145.381658050804</v>
+        <v>144.6075596928789</v>
       </c>
       <c r="T21" t="n">
-        <v>194.4572693097595</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>225.84822441963</v>
+        <v>225.845482630877</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24135,22 +24135,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>101.4189542761571</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8038554991351</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>151.6725621945439</v>
+        <v>151.3619220235667</v>
       </c>
       <c r="I22" t="n">
-        <v>119.7504228668708</v>
+        <v>118.6997094869194</v>
       </c>
       <c r="J22" t="n">
-        <v>43.06576458521432</v>
+        <v>40.59557173277111</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,19 +24171,19 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>52.09956646371761</v>
+        <v>49.1738950783692</v>
       </c>
       <c r="R22" t="n">
-        <v>123.9159858479445</v>
+        <v>122.3449978258043</v>
       </c>
       <c r="S22" t="n">
-        <v>203.3282667794865</v>
+        <v>202.7193739290129</v>
       </c>
       <c r="T22" t="n">
-        <v>222.8733329384441</v>
+        <v>222.7240477847025</v>
       </c>
       <c r="U22" t="n">
-        <v>103.1299148576622</v>
+        <v>286.2523713780622</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24208,16 +24208,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>66.90427198601895</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -24226,7 +24226,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.8133087092504</v>
+        <v>14.54634433781177</v>
       </c>
       <c r="T23" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>40.45594314102772</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>36.29946757904885</v>
@@ -24335,13 +24335,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S24" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>27.41702597267363</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24350,10 +24350,10 @@
         <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>151.2702782104831</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24375,13 +24375,13 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4515011109318</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I25" t="n">
         <v>109.1541654470835</v>
@@ -24420,7 +24420,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2350578157167</v>
+        <v>254.5545925059485</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>362.9273097957985</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>128.5136954029369</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>208.0722578696039</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24521,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>66.63434972877303</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>32.83509503504646</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>135.5072338470353</v>
@@ -24572,10 +24572,10 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24609,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.5398113612452</v>
       </c>
       <c r="I28" t="n">
         <v>109.1541654470835</v>
@@ -24657,7 +24657,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U28" t="n">
-        <v>277.6908943086252</v>
+        <v>286.2350578157167</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24666,7 +24666,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>194.029190079269</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>24.81964918710577</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -24697,10 +24697,10 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>199.1033789150737</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24767,19 +24767,19 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>135.5072338470353</v>
       </c>
       <c r="H30" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S30" t="n">
-        <v>40.40431506787655</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,10 +24824,10 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>42.32532958601942</v>
       </c>
     </row>
     <row r="31">
@@ -24840,7 +24840,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,7 +24849,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.4515011109318</v>
@@ -24894,19 +24894,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>267.8539282534545</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>178.0898101932618</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>411.8707348436268</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>304.326804756183</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U32" t="n">
-        <v>74.74066544319817</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>214.2007353715388</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -25007,16 +25007,16 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>72.0031525932809</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25046,16 +25046,16 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T33" t="n">
         <v>192.7632183107638</v>
       </c>
       <c r="U33" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>57.16044636663273</v>
       </c>
       <c r="W33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25089,7 +25089,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4515011109318</v>
       </c>
       <c r="H34" t="n">
         <v>148.5398113612452</v>
@@ -25131,7 +25131,7 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>39.79376420727289</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25140,10 +25140,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>199.1202632812624</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>111.1765794620204</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I35" t="n">
-        <v>78.16360657708299</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>74.78612220057423</v>
       </c>
       <c r="T35" t="n">
         <v>208.0722578696039</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,16 +25238,16 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>81.8616462093932</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>121.0247055866921</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>94.50081326185514</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S36" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>192.7632183107638</v>
@@ -25314,13 +25314,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25368,19 +25368,19 @@
         <v>221.3678187343026</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.7299611180233</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
         <v>354.683041620683</v>
@@ -25402,16 +25402,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>81.95233104380492</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>304.326804756183</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.8133087092504</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>208.0722578696039</v>
+        <v>204.6947734930953</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25475,16 +25475,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>139.1176306731217</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>115.230253902329</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H39" t="n">
         <v>94.50081326185514</v>
@@ -25520,19 +25520,19 @@
         <v>31.66886087721431</v>
       </c>
       <c r="S39" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>225.8205739680685</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2.730466849237928</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>108.4085703802537</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4515011109318</v>
@@ -25611,7 +25611,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25627,19 +25627,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,25 +25678,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.49852998721127</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>290.8819011475578</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25715,19 +25715,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>56.27601125466244</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>94.50081326185514</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>36.29946757904885</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25760,19 +25760,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>251.6949831609196</v>
+        <v>238.5363362431483</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25839,16 +25839,16 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T43" t="n">
-        <v>44.26630540160326</v>
+        <v>221.3678187343026</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2350578157167</v>
+        <v>100.6071071548267</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,10 +25876,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>190.505915094663</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>411.8707348436268</v>
       </c>
       <c r="H44" t="n">
         <v>304.326804756183</v>
@@ -25915,16 +25915,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.8133087092505</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>196.8129232785401</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,22 +25946,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>37.12666433439055</v>
       </c>
       <c r="G45" t="n">
-        <v>72.71105998574363</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25994,7 +25994,7 @@
         <v>31.66886087721433</v>
       </c>
       <c r="S45" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>192.7632183107638</v>
@@ -26006,7 +26006,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26076,22 +26076,22 @@
         <v>197.1876907596159</v>
       </c>
       <c r="T46" t="n">
-        <v>221.3678187343026</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2350578157167</v>
+        <v>254.0365809046333</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>66.50969266293814</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>355774.7999316613</v>
+        <v>334568.5138801191</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>433263.0758337675</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>433263.0758337674</v>
+        <v>433263.0758337677</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>519003.9076024871</v>
+        <v>534121.1428930376</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>519003.9076024869</v>
+        <v>534121.1428930376</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671458.5347830957</v>
+        <v>671458.5347830956</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>671458.5347830959</v>
+        <v>671458.5347830958</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>671458.5347830958</v>
+        <v>671458.5347830956</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>671458.5347830957</v>
+        <v>671458.5347830956</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>671458.5347830957</v>
+        <v>671458.5347830956</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>671458.5347830959</v>
+        <v>671458.5347830957</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>671458.5347830954</v>
+        <v>671458.5347830958</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>106749.5249026527</v>
       </c>
       <c r="C2" t="n">
-        <v>123152.8153609596</v>
+        <v>115812.1778815795</v>
       </c>
       <c r="D2" t="n">
         <v>128846.7285971687</v>
@@ -26328,13 +26328,13 @@
         <v>149975.680096304</v>
       </c>
       <c r="G2" t="n">
-        <v>179655.1987854761</v>
+        <v>184888.087924513</v>
       </c>
       <c r="H2" t="n">
-        <v>179655.1987854761</v>
+        <v>184888.087924513</v>
       </c>
       <c r="I2" t="n">
-        <v>232427.9543479945</v>
+        <v>232427.9543479944</v>
       </c>
       <c r="J2" t="n">
         <v>232427.9543479945</v>
@@ -26349,10 +26349,10 @@
         <v>232427.9543479945</v>
       </c>
       <c r="N2" t="n">
+        <v>232427.9543479944</v>
+      </c>
+      <c r="O2" t="n">
         <v>232427.9543479945</v>
-      </c>
-      <c r="O2" t="n">
-        <v>232427.9543479944</v>
       </c>
       <c r="P2" t="n">
         <v>232427.9543479945</v>
@@ -26368,43 +26368,43 @@
         <v>399106.8526518422</v>
       </c>
       <c r="C3" t="n">
-        <v>69152.13364531014</v>
+        <v>38180.34408023355</v>
       </c>
       <c r="D3" t="n">
-        <v>21905.62569575126</v>
+        <v>51164.61695028653</v>
       </c>
       <c r="E3" t="n">
-        <v>80646.21400928593</v>
+        <v>80646.21400928602</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>120376.4632767651</v>
+        <v>141609.5458603397</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>207445.0213781852</v>
+        <v>186874.9983095361</v>
       </c>
       <c r="J3" t="n">
-        <v>13028.56481860499</v>
+        <v>13028.56481860505</v>
       </c>
       <c r="K3" t="n">
-        <v>11033.35130008059</v>
+        <v>6091.744777620991</v>
       </c>
       <c r="L3" t="n">
-        <v>4922.04058314896</v>
+        <v>9781.526363727047</v>
       </c>
       <c r="M3" t="n">
-        <v>18793.20307042411</v>
+        <v>18793.20307042408</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>30707.75274100823</v>
+        <v>36124.26218278113</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>30.96378040239005</v>
       </c>
       <c r="C4" t="n">
-        <v>67.14558386063671</v>
+        <v>49.92675977318713</v>
       </c>
       <c r="D4" t="n">
         <v>81.37067654131212</v>
       </c>
       <c r="E4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.800118072334</v>
       </c>
       <c r="F4" t="n">
-        <v>137.8001180723339</v>
+        <v>137.800118072334</v>
       </c>
       <c r="G4" t="n">
-        <v>225.1452198420035</v>
+        <v>240.9290091102035</v>
       </c>
       <c r="H4" t="n">
-        <v>225.1452198420034</v>
+        <v>240.9290091102036</v>
       </c>
       <c r="I4" t="n">
         <v>384.3219252469136</v>
@@ -26472,7 +26472,7 @@
         <v>45306.68319048216</v>
       </c>
       <c r="C5" t="n">
-        <v>49237.11966583622</v>
+        <v>47476.75964516138</v>
       </c>
       <c r="D5" t="n">
         <v>50823.37311172271</v>
@@ -26481,16 +26481,16 @@
         <v>23358.20041161357</v>
       </c>
       <c r="F5" t="n">
-        <v>23358.20041161356</v>
+        <v>23358.20041161357</v>
       </c>
       <c r="G5" t="n">
-        <v>33511.05705494962</v>
+        <v>35301.90916755493</v>
       </c>
       <c r="H5" t="n">
-        <v>33511.05705494961</v>
+        <v>35301.90916755493</v>
       </c>
       <c r="I5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="J5" t="n">
         <v>51571.48185587223</v>
@@ -26505,7 +26505,7 @@
         <v>51571.48185587223</v>
       </c>
       <c r="N5" t="n">
-        <v>51571.48185587223</v>
+        <v>51571.48185587222</v>
       </c>
       <c r="O5" t="n">
         <v>51571.48185587223</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-352290.4898054226</v>
+        <v>-339154.5262286089</v>
       </c>
       <c r="C6" t="n">
-        <v>-8987.804705045586</v>
+        <v>28695.94395998169</v>
       </c>
       <c r="D6" t="n">
-        <v>42668.46645527791</v>
+        <v>25440.57859283057</v>
       </c>
       <c r="E6" t="n">
-        <v>33639.40353829757</v>
+        <v>44614.05935542865</v>
       </c>
       <c r="F6" t="n">
-        <v>114285.6175475835</v>
+        <v>125260.2733647147</v>
       </c>
       <c r="G6" t="n">
-        <v>14997.33336428323</v>
+        <v>6710.255506872527</v>
       </c>
       <c r="H6" t="n">
-        <v>135373.7966410483</v>
+        <v>148319.8013672122</v>
       </c>
       <c r="I6" t="n">
-        <v>-34586.25092747279</v>
+        <v>-7164.185754277125</v>
       </c>
       <c r="J6" t="n">
-        <v>159830.2056321074</v>
+        <v>166682.247736654</v>
       </c>
       <c r="K6" t="n">
-        <v>161825.4191506318</v>
+        <v>173619.0677776381</v>
       </c>
       <c r="L6" t="n">
-        <v>167936.7298675635</v>
+        <v>169929.286191532</v>
       </c>
       <c r="M6" t="n">
-        <v>154065.5673802883</v>
+        <v>160917.6094848349</v>
       </c>
       <c r="N6" t="n">
-        <v>172858.7704507124</v>
+        <v>179710.812555259</v>
       </c>
       <c r="O6" t="n">
-        <v>142151.0177097041</v>
+        <v>143586.5503724779</v>
       </c>
       <c r="P6" t="n">
-        <v>172858.7704507124</v>
+        <v>179710.812555259</v>
       </c>
     </row>
   </sheetData>
@@ -26740,22 +26740,22 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>457.5913187641655</v>
+        <v>430.3910100719429</v>
       </c>
       <c r="D3" t="n">
         <v>476.1157511985022</v>
       </c>
       <c r="E3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="F3" t="n">
-        <v>548.4699409129045</v>
+        <v>548.4699409129046</v>
       </c>
       <c r="G3" t="n">
-        <v>658.3141401703858</v>
+        <v>677.6894473581234</v>
       </c>
       <c r="H3" t="n">
-        <v>658.3141401703857</v>
+        <v>677.6894473581235</v>
       </c>
       <c r="I3" t="n">
         <v>853.7106645376841</v>
@@ -26792,7 +26792,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="D4" t="n">
         <v>112.1126601249237</v>
@@ -26801,16 +26801,16 @@
         <v>187.52558716632</v>
       </c>
       <c r="F4" t="n">
-        <v>187.5255871663198</v>
+        <v>187.5255871663199</v>
       </c>
       <c r="G4" t="n">
-        <v>315.1284341979475</v>
+        <v>337.6361713017736</v>
       </c>
       <c r="H4" t="n">
-        <v>315.1284341979475</v>
+        <v>337.6361713017736</v>
       </c>
       <c r="I4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="J4" t="n">
         <v>542.1149567261632</v>
@@ -26822,10 +26822,10 @@
         <v>542.1149567261632</v>
       </c>
       <c r="M4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.1149567261631</v>
       </c>
       <c r="N4" t="n">
-        <v>542.1149567261632</v>
+        <v>542.114956726163</v>
       </c>
       <c r="O4" t="n">
         <v>542.1149567261632</v>
@@ -26962,25 +26962,25 @@
         <v>396.859943267568</v>
       </c>
       <c r="C3" t="n">
-        <v>60.73137549659748</v>
+        <v>33.53106680437492</v>
       </c>
       <c r="D3" t="n">
-        <v>18.52443243433669</v>
+        <v>45.72474112655925</v>
       </c>
       <c r="E3" t="n">
-        <v>72.35418971440225</v>
+        <v>72.35418971440237</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>109.8441992574813</v>
+        <v>129.2195064452188</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>195.3965243672984</v>
+        <v>176.0212171795606</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27014,10 +27014,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="C4" t="n">
-        <v>42.86994226197757</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="D4" t="n">
-        <v>19.44771083582151</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="E4" t="n">
         <v>75.41292704139624</v>
@@ -27026,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>127.6028470316277</v>
+        <v>150.1105841354537</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>226.9865225282157</v>
+        <v>204.4787854243893</v>
       </c>
       <c r="J4" t="n">
-        <v>49.7950070271246</v>
+        <v>49.79500702712483</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197734</v>
+        <v>23.66939470960256</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582174</v>
+        <v>38.64825838819652</v>
       </c>
       <c r="M4" t="n">
-        <v>75.41292704139624</v>
+        <v>75.41292704139613</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.6028470316277</v>
+        <v>150.110584135454</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27260,10 +27260,10 @@
         <v>49.79500702712463</v>
       </c>
       <c r="K4" t="n">
-        <v>42.86994226197757</v>
+        <v>23.66939470960278</v>
       </c>
       <c r="L4" t="n">
-        <v>19.44771083582151</v>
+        <v>38.6482583881963</v>
       </c>
       <c r="M4" t="n">
         <v>75.41292704139624</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>127.6028470316277</v>
+        <v>150.1105841354537</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -31135,7 +31135,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>157.3072689909255</v>
+        <v>185.3448253911411</v>
       </c>
       <c r="M3" t="n">
         <v>191.9290409491429</v>
@@ -31144,7 +31144,7 @@
         <v>181.1367191104579</v>
       </c>
       <c r="O3" t="n">
-        <v>192.3912514715691</v>
+        <v>164.3536950713535</v>
       </c>
       <c r="P3" t="n">
         <v>163.0046057545602</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.839563090509207</v>
+        <v>1.730215115867106</v>
       </c>
       <c r="H5" t="n">
-        <v>18.83942550067742</v>
+        <v>17.719565555374</v>
       </c>
       <c r="I5" t="n">
-        <v>70.91975604685626</v>
+        <v>66.70411825446666</v>
       </c>
       <c r="J5" t="n">
-        <v>156.1306178531059</v>
+        <v>146.8498451903259</v>
       </c>
       <c r="K5" t="n">
-        <v>233.9993234743607</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
-        <v>290.2968524055319</v>
+        <v>273.0409218971986</v>
       </c>
       <c r="M5" t="n">
-        <v>323.011182516375</v>
+        <v>303.8106349640001</v>
       </c>
       <c r="N5" t="n">
-        <v>322.0780128856931</v>
+        <v>302.8774653333184</v>
       </c>
       <c r="O5" t="n">
-        <v>309.9456856660333</v>
+        <v>291.5217821035541</v>
       </c>
       <c r="P5" t="n">
-        <v>264.5314718690873</v>
+        <v>248.8070964305848</v>
       </c>
       <c r="Q5" t="n">
-        <v>198.6521186902262</v>
+        <v>186.8437675935941</v>
       </c>
       <c r="R5" t="n">
-        <v>115.5544549841991</v>
+        <v>108.6856252720872</v>
       </c>
       <c r="S5" t="n">
-        <v>41.91904392497859</v>
+        <v>39.42727695282172</v>
       </c>
       <c r="T5" t="n">
-        <v>8.052687428704056</v>
+        <v>7.57401666970826</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1471650472407365</v>
+        <v>0.1384172092693684</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9842530252663183</v>
+        <v>0.9257467009094621</v>
       </c>
       <c r="H6" t="n">
-        <v>9.505812112440497</v>
+        <v>8.940764190362438</v>
       </c>
       <c r="I6" t="n">
-        <v>33.88765898395</v>
+        <v>31.87329650061087</v>
       </c>
       <c r="J6" t="n">
-        <v>92.99032639149897</v>
+        <v>87.46276177320495</v>
       </c>
       <c r="K6" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>213.7080965605662</v>
+        <v>201.0047825812409</v>
       </c>
       <c r="M6" t="n">
-        <v>234.7989832111205</v>
+        <v>180.8415664041785</v>
       </c>
       <c r="N6" t="n">
-        <v>224.0066613724355</v>
+        <v>204.8061138200607</v>
       </c>
       <c r="O6" t="n">
-        <v>195.0536364676412</v>
+        <v>216.0606461811718</v>
       </c>
       <c r="P6" t="n">
-        <v>187.9491588335306</v>
+        <v>176.7770169482288</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.6390352953988</v>
+        <v>118.1707543125833</v>
       </c>
       <c r="R6" t="n">
-        <v>61.11002555118424</v>
+        <v>57.47750130734365</v>
       </c>
       <c r="S6" t="n">
-        <v>18.28206825439849</v>
+        <v>17.19533894013846</v>
       </c>
       <c r="T6" t="n">
-        <v>3.967230395700641</v>
+        <v>3.731408851472787</v>
       </c>
       <c r="U6" t="n">
-        <v>0.06475348850436308</v>
+        <v>0.0609043882177278</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8251646731812819</v>
+        <v>0.7761149361953068</v>
       </c>
       <c r="H7" t="n">
-        <v>7.336464094284494</v>
+        <v>6.900367341809188</v>
       </c>
       <c r="I7" t="n">
-        <v>24.81495217166983</v>
+        <v>23.3398928084916</v>
       </c>
       <c r="J7" t="n">
-        <v>58.33914239391663</v>
+        <v>54.87132598900818</v>
       </c>
       <c r="K7" t="n">
-        <v>95.8691320296071</v>
+        <v>90.17044440523654</v>
       </c>
       <c r="L7" t="n">
-        <v>122.6794824109699</v>
+        <v>115.387124241255</v>
       </c>
       <c r="M7" t="n">
-        <v>129.3483132696804</v>
+        <v>121.6595440437789</v>
       </c>
       <c r="N7" t="n">
-        <v>126.272699487823</v>
+        <v>118.7667520088692</v>
       </c>
       <c r="O7" t="n">
-        <v>116.6332758056598</v>
+        <v>109.7003184360421</v>
       </c>
       <c r="P7" t="n">
-        <v>99.79991647276155</v>
+        <v>93.86757373765779</v>
       </c>
       <c r="Q7" t="n">
-        <v>69.09628913338899</v>
+        <v>64.98904252086338</v>
       </c>
       <c r="R7" t="n">
-        <v>37.102404305042</v>
+        <v>34.89694976747261</v>
       </c>
       <c r="S7" t="n">
-        <v>14.38036980444106</v>
+        <v>13.52556666078548</v>
       </c>
       <c r="T7" t="n">
-        <v>3.52570360359275</v>
+        <v>3.316127454652674</v>
       </c>
       <c r="U7" t="n">
-        <v>0.04500898217352452</v>
+        <v>0.04233354197428951</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,31 +31752,31 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H11" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I11" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J11" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K11" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L11" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M11" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N11" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O11" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P11" t="n">
         <v>317.0679923244294</v>
@@ -31788,10 +31788,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S11" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T11" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U11" t="n">
         <v>0.1763923428061601</v>
@@ -31834,7 +31834,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H12" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I12" t="n">
         <v>40.6178210959085</v>
@@ -31843,7 +31843,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K12" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L12" t="n">
         <v>256.1509851405032</v>
@@ -31852,7 +31852,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N12" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O12" t="n">
         <v>280.6872536292673</v>
@@ -31861,19 +31861,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q12" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R12" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S12" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T12" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U12" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H13" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I13" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J13" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K13" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L13" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M13" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N13" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O13" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q13" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R13" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S13" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T13" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,31 +31989,31 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.204904285077001</v>
+        <v>2.204904285077002</v>
       </c>
       <c r="H14" t="n">
-        <v>22.58097600954484</v>
+        <v>22.58097600954485</v>
       </c>
       <c r="I14" t="n">
-        <v>85.00457245043117</v>
+        <v>85.00457245043118</v>
       </c>
       <c r="J14" t="n">
         <v>187.1384950655543</v>
       </c>
       <c r="K14" t="n">
-        <v>280.4720934528638</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L14" t="n">
-        <v>347.9504329672891</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M14" t="n">
-        <v>387.1618995470272</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N14" t="n">
-        <v>393.4265838470023</v>
+        <v>393.4265838470024</v>
       </c>
       <c r="O14" t="n">
-        <v>371.5015668622679</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P14" t="n">
         <v>317.0679923244294</v>
@@ -32025,10 +32025,10 @@
         <v>138.5038187974683</v>
       </c>
       <c r="S14" t="n">
-        <v>50.24425639619221</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T14" t="n">
-        <v>9.651968507924577</v>
+        <v>9.651968507924579</v>
       </c>
       <c r="U14" t="n">
         <v>0.1763923428061601</v>
@@ -32071,7 +32071,7 @@
         <v>1.179727797435304</v>
       </c>
       <c r="H15" t="n">
-        <v>11.39368688575675</v>
+        <v>11.39368688575676</v>
       </c>
       <c r="I15" t="n">
         <v>40.6178210959085</v>
@@ -32080,7 +32080,7 @@
         <v>111.4584056340083</v>
       </c>
       <c r="K15" t="n">
-        <v>190.5001680621736</v>
+        <v>190.5001680621737</v>
       </c>
       <c r="L15" t="n">
         <v>256.1509851405032</v>
@@ -32089,7 +32089,7 @@
         <v>298.9161177975329</v>
       </c>
       <c r="N15" t="n">
-        <v>306.8275379829653</v>
+        <v>306.8275379829654</v>
       </c>
       <c r="O15" t="n">
         <v>280.6872536292673</v>
@@ -32098,19 +32098,19 @@
         <v>225.2762668628872</v>
       </c>
       <c r="Q15" t="n">
-        <v>150.5912184936714</v>
+        <v>150.5912184936715</v>
       </c>
       <c r="R15" t="n">
-        <v>73.24660833550074</v>
+        <v>73.24660833550075</v>
       </c>
       <c r="S15" t="n">
         <v>21.9129264128882</v>
       </c>
       <c r="T15" t="n">
-        <v>4.755130902820368</v>
+        <v>4.755130902820369</v>
       </c>
       <c r="U15" t="n">
-        <v>0.07761367088390161</v>
+        <v>0.07761367088390163</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.9890441557445817</v>
+        <v>0.9890441557445819</v>
       </c>
       <c r="H16" t="n">
-        <v>8.793501675620014</v>
+        <v>8.793501675620016</v>
       </c>
       <c r="I16" t="n">
-        <v>29.74325515639161</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J16" t="n">
-        <v>69.92542181114192</v>
+        <v>69.92542181114193</v>
       </c>
       <c r="K16" t="n">
-        <v>114.9089482765068</v>
+        <v>114.9089482765069</v>
       </c>
       <c r="L16" t="n">
-        <v>147.043892027699</v>
+        <v>147.0438920276991</v>
       </c>
       <c r="M16" t="n">
-        <v>155.0371670682165</v>
+        <v>155.0371670682166</v>
       </c>
       <c r="N16" t="n">
-        <v>151.3507297604414</v>
+        <v>151.3507297604415</v>
       </c>
       <c r="O16" t="n">
         <v>139.7968957592433</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6203949820537</v>
+        <v>119.6203949820538</v>
       </c>
       <c r="Q16" t="n">
-        <v>82.81896107784857</v>
+        <v>82.81896107784858</v>
       </c>
       <c r="R16" t="n">
-        <v>44.47102176647909</v>
+        <v>44.4710217664791</v>
       </c>
       <c r="S16" t="n">
-        <v>17.23634224147602</v>
+        <v>17.23634224147603</v>
       </c>
       <c r="T16" t="n">
         <v>4.225915938181394</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05394786304061361</v>
+        <v>0.05394786304061362</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.646489005710092</v>
+        <v>2.724379687871851</v>
       </c>
       <c r="H17" t="n">
-        <v>27.10335552972849</v>
+        <v>27.9010534784176</v>
       </c>
       <c r="I17" t="n">
-        <v>102.0287673926384</v>
+        <v>105.0316479166796</v>
       </c>
       <c r="J17" t="n">
-        <v>224.6174462483871</v>
+        <v>231.2283205335137</v>
       </c>
       <c r="K17" t="n">
-        <v>336.6433258600953</v>
+        <v>346.5513127211292</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6358137685957</v>
+        <v>429.9275475938375</v>
       </c>
       <c r="M17" t="n">
-        <v>464.7003126238925</v>
+        <v>478.3772348680285</v>
       </c>
       <c r="N17" t="n">
-        <v>472.2196495113664</v>
+        <v>486.1178786561944</v>
       </c>
       <c r="O17" t="n">
-        <v>445.9036244608366</v>
+        <v>459.0273281349187</v>
       </c>
       <c r="P17" t="n">
-        <v>380.5684271323686</v>
+        <v>391.7692045905823</v>
       </c>
       <c r="Q17" t="n">
-        <v>285.7910396153759</v>
+        <v>294.2023570186715</v>
       </c>
       <c r="R17" t="n">
-        <v>166.2425150049367</v>
+        <v>171.1353155682803</v>
       </c>
       <c r="S17" t="n">
-        <v>60.30686821761878</v>
+        <v>62.08180213737986</v>
       </c>
       <c r="T17" t="n">
-        <v>11.58500562249593</v>
+        <v>11.92597208365903</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2117191204568073</v>
+        <v>0.217950375029748</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.415996452441962</v>
+        <v>1.457671641487284</v>
       </c>
       <c r="H18" t="n">
-        <v>13.67554468542632</v>
+        <v>14.07803927436404</v>
       </c>
       <c r="I18" t="n">
-        <v>48.75250943714651</v>
+        <v>50.18737888454028</v>
       </c>
       <c r="J18" t="n">
-        <v>133.7806122019838</v>
+        <v>137.7180036371824</v>
       </c>
       <c r="K18" t="n">
-        <v>228.6523745155953</v>
+        <v>235.3820036168305</v>
       </c>
       <c r="L18" t="n">
-        <v>307.4513349918392</v>
+        <v>316.5001518062633</v>
       </c>
       <c r="M18" t="n">
-        <v>358.7812063928602</v>
+        <v>369.3407488101772</v>
       </c>
       <c r="N18" t="n">
-        <v>368.2770773392803</v>
+        <v>379.1160994234846</v>
       </c>
       <c r="O18" t="n">
-        <v>336.9015769983294</v>
+        <v>346.8171646305294</v>
       </c>
       <c r="P18" t="n">
-        <v>270.3932173088515</v>
+        <v>278.3513505573395</v>
       </c>
       <c r="Q18" t="n">
-        <v>180.7507050520652</v>
+        <v>186.0705063765172</v>
       </c>
       <c r="R18" t="n">
-        <v>87.91599026652817</v>
+        <v>90.50350770567546</v>
       </c>
       <c r="S18" t="n">
-        <v>26.30151305303379</v>
+        <v>27.07561141095897</v>
       </c>
       <c r="T18" t="n">
-        <v>5.707459385062116</v>
+        <v>5.875439642661464</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09315766134486596</v>
+        <v>0.0958994500978477</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.187123859323646</v>
+        <v>1.222062937858911</v>
       </c>
       <c r="H19" t="n">
-        <v>10.5546103128957</v>
+        <v>10.86525048387287</v>
       </c>
       <c r="I19" t="n">
-        <v>35.70005206038748</v>
+        <v>36.7507654403389</v>
       </c>
       <c r="J19" t="n">
-        <v>83.9296568541818</v>
+        <v>86.39984970662499</v>
       </c>
       <c r="K19" t="n">
-        <v>137.9222083832382</v>
+        <v>141.9814940530625</v>
       </c>
       <c r="L19" t="n">
-        <v>176.492941776172</v>
+        <v>181.6874298704058</v>
       </c>
       <c r="M19" t="n">
-        <v>186.0870609665239</v>
+        <v>191.56392034092</v>
       </c>
       <c r="N19" t="n">
-        <v>181.6623265817723</v>
+        <v>187.0089584816278</v>
       </c>
       <c r="O19" t="n">
-        <v>167.7945614978551</v>
+        <v>172.7330414348214</v>
       </c>
       <c r="P19" t="n">
-        <v>143.5772347676526</v>
+        <v>147.8029575024995</v>
       </c>
       <c r="Q19" t="n">
-        <v>99.40543516572826</v>
+        <v>102.3311065510766</v>
       </c>
       <c r="R19" t="n">
-        <v>53.37740552922504</v>
+        <v>54.9483935513652</v>
       </c>
       <c r="S19" t="n">
-        <v>20.68833125748572</v>
+        <v>21.29722410795938</v>
       </c>
       <c r="T19" t="n">
-        <v>5.072256489837397</v>
+        <v>5.221541643578981</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06475221050856261</v>
+        <v>0.06665797842866794</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.646489005710091</v>
+        <v>2.724379687871851</v>
       </c>
       <c r="H20" t="n">
-        <v>27.10335552972848</v>
+        <v>27.90105347841761</v>
       </c>
       <c r="I20" t="n">
-        <v>102.0287673926384</v>
+        <v>105.0316479166796</v>
       </c>
       <c r="J20" t="n">
-        <v>224.6174462483871</v>
+        <v>231.2283205335137</v>
       </c>
       <c r="K20" t="n">
-        <v>336.6433258600953</v>
+        <v>346.5513127211292</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6358137685956</v>
+        <v>429.9275475938375</v>
       </c>
       <c r="M20" t="n">
-        <v>464.7003126238924</v>
+        <v>478.3772348680286</v>
       </c>
       <c r="N20" t="n">
-        <v>472.2196495113662</v>
+        <v>486.1178786561945</v>
       </c>
       <c r="O20" t="n">
-        <v>445.9036244608365</v>
+        <v>459.0273281349187</v>
       </c>
       <c r="P20" t="n">
-        <v>380.5684271323686</v>
+        <v>391.7692045905824</v>
       </c>
       <c r="Q20" t="n">
-        <v>285.7910396153758</v>
+        <v>294.2023570186716</v>
       </c>
       <c r="R20" t="n">
-        <v>166.2425150049367</v>
+        <v>171.1353155682803</v>
       </c>
       <c r="S20" t="n">
-        <v>60.30686821761876</v>
+        <v>62.08180213737987</v>
       </c>
       <c r="T20" t="n">
-        <v>11.58500562249593</v>
+        <v>11.92597208365904</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2117191204568073</v>
+        <v>0.2179503750297481</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.415996452441962</v>
+        <v>1.457671641487285</v>
       </c>
       <c r="H21" t="n">
-        <v>13.67554468542632</v>
+        <v>14.07803927436404</v>
       </c>
       <c r="I21" t="n">
-        <v>48.75250943714649</v>
+        <v>50.18737888454029</v>
       </c>
       <c r="J21" t="n">
-        <v>133.7806122019838</v>
+        <v>137.7180036371825</v>
       </c>
       <c r="K21" t="n">
-        <v>228.6523745155952</v>
+        <v>235.3820036168305</v>
       </c>
       <c r="L21" t="n">
-        <v>307.4513349918391</v>
+        <v>316.5001518062633</v>
       </c>
       <c r="M21" t="n">
-        <v>358.7812063928602</v>
+        <v>369.3407488101773</v>
       </c>
       <c r="N21" t="n">
-        <v>368.2770773392803</v>
+        <v>379.1160994234846</v>
       </c>
       <c r="O21" t="n">
-        <v>336.9015769983293</v>
+        <v>346.8171646305295</v>
       </c>
       <c r="P21" t="n">
-        <v>270.3932173088515</v>
+        <v>278.3513505573395</v>
       </c>
       <c r="Q21" t="n">
-        <v>180.7507050520652</v>
+        <v>186.0705063765172</v>
       </c>
       <c r="R21" t="n">
-        <v>87.91599026652815</v>
+        <v>90.50350770567547</v>
       </c>
       <c r="S21" t="n">
-        <v>26.30151305303379</v>
+        <v>27.07561141095897</v>
       </c>
       <c r="T21" t="n">
-        <v>5.707459385062116</v>
+        <v>5.875439642661465</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09315766134486594</v>
+        <v>0.09589945009784771</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.187123859323646</v>
+        <v>1.222062937858911</v>
       </c>
       <c r="H22" t="n">
-        <v>10.5546103128957</v>
+        <v>10.86525048387287</v>
       </c>
       <c r="I22" t="n">
-        <v>35.70005206038748</v>
+        <v>36.7507654403389</v>
       </c>
       <c r="J22" t="n">
-        <v>83.92965685418179</v>
+        <v>86.39984970662501</v>
       </c>
       <c r="K22" t="n">
-        <v>137.9222083832381</v>
+        <v>141.9814940530626</v>
       </c>
       <c r="L22" t="n">
-        <v>176.4929417761719</v>
+        <v>181.6874298704058</v>
       </c>
       <c r="M22" t="n">
-        <v>186.0870609665239</v>
+        <v>191.56392034092</v>
       </c>
       <c r="N22" t="n">
-        <v>181.6623265817723</v>
+        <v>187.0089584816279</v>
       </c>
       <c r="O22" t="n">
-        <v>167.7945614978551</v>
+        <v>172.7330414348214</v>
       </c>
       <c r="P22" t="n">
-        <v>143.5772347676526</v>
+        <v>147.8029575024995</v>
       </c>
       <c r="Q22" t="n">
-        <v>99.40543516572824</v>
+        <v>102.3311065510766</v>
       </c>
       <c r="R22" t="n">
-        <v>53.37740552922502</v>
+        <v>54.94839355136521</v>
       </c>
       <c r="S22" t="n">
-        <v>20.68833125748572</v>
+        <v>21.29722410795938</v>
       </c>
       <c r="T22" t="n">
-        <v>5.072256489837396</v>
+        <v>5.221541643578982</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0647522105085626</v>
+        <v>0.06665797842866795</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -34783,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>18.75288921105129</v>
+        <v>46.79044561126693</v>
       </c>
       <c r="M3" t="n">
         <v>49.79500702712463</v>
@@ -34792,7 +34792,7 @@
         <v>49.79500702712463</v>
       </c>
       <c r="O3" t="n">
-        <v>49.79500702712463</v>
+        <v>21.75745062690901</v>
       </c>
       <c r="P3" t="n">
         <v>29.03019834022993</v>
@@ -34938,22 +34938,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>13.90947242938014</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>54.53043743554463</v>
+        <v>37.27450692721135</v>
       </c>
       <c r="M5" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="N5" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O5" t="n">
-        <v>79.84747424434661</v>
+        <v>61.42357068186735</v>
       </c>
       <c r="P5" t="n">
-        <v>33.29847611381774</v>
+        <v>17.57410067531529</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35020,19 +35020,19 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>75.15371678069201</v>
+        <v>62.45040280136672</v>
       </c>
       <c r="M6" t="n">
-        <v>92.6649492891022</v>
+        <v>38.70753248216017</v>
       </c>
       <c r="N6" t="n">
-        <v>92.6649492891022</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="O6" t="n">
-        <v>52.45739202319677</v>
+        <v>73.46440173672741</v>
       </c>
       <c r="P6" t="n">
-        <v>53.97475141920032</v>
+        <v>42.80260953389856</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K11" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L11" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M11" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N11" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O11" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P11" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q11" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,7 +35491,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L12" t="n">
         <v>117.596605360629</v>
@@ -35500,16 +35500,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N12" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O12" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P12" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q12" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35573,16 +35573,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M13" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N13" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O13" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>6.092590538868023</v>
+        <v>6.092590538868052</v>
       </c>
       <c r="K14" t="n">
-        <v>60.38224240788327</v>
+        <v>60.38224240788333</v>
       </c>
       <c r="L14" t="n">
-        <v>112.1840179973019</v>
+        <v>112.184017997302</v>
       </c>
       <c r="M14" t="n">
-        <v>156.8156663197545</v>
+        <v>156.8156663197546</v>
       </c>
       <c r="N14" t="n">
-        <v>164.0135202504114</v>
+        <v>164.0135202504115</v>
       </c>
       <c r="O14" t="n">
-        <v>141.4033554405811</v>
+        <v>141.4033554405812</v>
       </c>
       <c r="P14" t="n">
-        <v>85.83499656915984</v>
+        <v>85.8349965691599</v>
       </c>
       <c r="Q14" t="n">
-        <v>15.7991677406597</v>
+        <v>15.79916774065975</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>52.65872908781463</v>
+        <v>52.65872908781469</v>
       </c>
       <c r="L15" t="n">
         <v>117.596605360629</v>
@@ -35737,16 +35737,16 @@
         <v>156.7820838755146</v>
       </c>
       <c r="N15" t="n">
-        <v>175.485825899632</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O15" t="n">
-        <v>138.0910091848228</v>
+        <v>138.0910091848229</v>
       </c>
       <c r="P15" t="n">
-        <v>91.30185944855691</v>
+        <v>91.30185944855694</v>
       </c>
       <c r="Q15" t="n">
-        <v>10.60944440764993</v>
+        <v>10.60944440764996</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35810,16 +35810,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>12.15921574646075</v>
+        <v>12.15921574646077</v>
       </c>
       <c r="M16" t="n">
-        <v>16.11138312061149</v>
+        <v>16.11138312061152</v>
       </c>
       <c r="N16" t="n">
-        <v>23.66518529520823</v>
+        <v>23.66518529520826</v>
       </c>
       <c r="O16" t="n">
-        <v>1.340357307400495</v>
+        <v>1.340357307400524</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>43.57154172170081</v>
+        <v>50.18241600682742</v>
       </c>
       <c r="K17" t="n">
-        <v>116.5534748151148</v>
+        <v>126.4614616761486</v>
       </c>
       <c r="L17" t="n">
-        <v>181.8693987986084</v>
+        <v>194.1611326238502</v>
       </c>
       <c r="M17" t="n">
-        <v>234.3540793966198</v>
+        <v>248.0310016407558</v>
       </c>
       <c r="N17" t="n">
-        <v>242.8065859147754</v>
+        <v>256.7048150596035</v>
       </c>
       <c r="O17" t="n">
-        <v>215.8054130391498</v>
+        <v>228.9291167132319</v>
       </c>
       <c r="P17" t="n">
-        <v>149.3354313770991</v>
+        <v>160.5362088353127</v>
       </c>
       <c r="Q17" t="n">
-        <v>63.48534974092641</v>
+        <v>71.89666714422205</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>6.942985535317121</v>
+        <v>10.88037697051575</v>
       </c>
       <c r="K18" t="n">
-        <v>90.81093554123626</v>
+        <v>97.54056464247148</v>
       </c>
       <c r="L18" t="n">
-        <v>168.896955211965</v>
+        <v>177.9457720263891</v>
       </c>
       <c r="M18" t="n">
-        <v>216.6471724708419</v>
+        <v>227.2067148881589</v>
       </c>
       <c r="N18" t="n">
-        <v>236.935365255947</v>
+        <v>247.7743873401513</v>
       </c>
       <c r="O18" t="n">
-        <v>194.305332553885</v>
+        <v>204.220920186085</v>
       </c>
       <c r="P18" t="n">
-        <v>136.4188098945213</v>
+        <v>144.3769431430092</v>
       </c>
       <c r="Q18" t="n">
-        <v>40.76893096604368</v>
+        <v>46.0887322904957</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>8.908950212702791</v>
+        <v>12.96823588252715</v>
       </c>
       <c r="L19" t="n">
-        <v>41.6082654949337</v>
+        <v>46.80275358916748</v>
       </c>
       <c r="M19" t="n">
-        <v>47.1612770189189</v>
+        <v>52.63813639331494</v>
       </c>
       <c r="N19" t="n">
-        <v>53.97678211653911</v>
+        <v>59.32341401639465</v>
       </c>
       <c r="O19" t="n">
-        <v>29.33802304601232</v>
+        <v>34.2765029829786</v>
       </c>
       <c r="P19" t="n">
-        <v>5.849230718504998</v>
+        <v>10.07495345335187</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>43.57154172170078</v>
+        <v>50.18241600682745</v>
       </c>
       <c r="K20" t="n">
-        <v>116.5534748151147</v>
+        <v>126.4614616761487</v>
       </c>
       <c r="L20" t="n">
-        <v>181.8693987986084</v>
+        <v>194.1611326238503</v>
       </c>
       <c r="M20" t="n">
-        <v>234.3540793966197</v>
+        <v>248.0310016407558</v>
       </c>
       <c r="N20" t="n">
-        <v>242.8065859147753</v>
+        <v>256.7048150596036</v>
       </c>
       <c r="O20" t="n">
-        <v>215.8054130391498</v>
+        <v>228.929116713232</v>
       </c>
       <c r="P20" t="n">
-        <v>149.335431377099</v>
+        <v>160.5362088353128</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.48534974092635</v>
+        <v>71.89666714422211</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>6.942985535317092</v>
+        <v>10.88037697051578</v>
       </c>
       <c r="K21" t="n">
-        <v>90.81093554123623</v>
+        <v>97.54056464247154</v>
       </c>
       <c r="L21" t="n">
-        <v>168.896955211965</v>
+        <v>177.9457720263891</v>
       </c>
       <c r="M21" t="n">
-        <v>216.6471724708418</v>
+        <v>227.206714888159</v>
       </c>
       <c r="N21" t="n">
-        <v>236.9353652559469</v>
+        <v>247.7743873401513</v>
       </c>
       <c r="O21" t="n">
-        <v>194.3053325538849</v>
+        <v>204.220920186085</v>
       </c>
       <c r="P21" t="n">
-        <v>136.4188098945212</v>
+        <v>144.3769431430092</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.76893096604365</v>
+        <v>46.08873229049573</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.908950212702763</v>
+        <v>12.96823588252718</v>
       </c>
       <c r="L22" t="n">
-        <v>41.60826549493365</v>
+        <v>46.80275358916751</v>
       </c>
       <c r="M22" t="n">
-        <v>47.16127701891884</v>
+        <v>52.63813639331497</v>
       </c>
       <c r="N22" t="n">
-        <v>53.97678211653908</v>
+        <v>59.32341401639468</v>
       </c>
       <c r="O22" t="n">
-        <v>29.3380230460123</v>
+        <v>34.27650298297863</v>
       </c>
       <c r="P22" t="n">
-        <v>5.84923071850497</v>
+        <v>10.0749534533519</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
